--- a/charts_download/explorers/econ_metadata.xlsx
+++ b/charts_download/explorers/econ_metadata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1123"/>
+  <dimension ref="A1:F1318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30987,6 +30987,5076 @@
         </is>
       </c>
     </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>CHE</t>
+        </is>
+      </c>
+      <c r="B1124" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1124" t="inlineStr"/>
+      <c r="E1124" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1124" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>NOR</t>
+        </is>
+      </c>
+      <c r="B1125" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1125" t="inlineStr"/>
+      <c r="E1125" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1125" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>ISL</t>
+        </is>
+      </c>
+      <c r="B1126" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1126" t="inlineStr"/>
+      <c r="E1126" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1126" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>HKG</t>
+        </is>
+      </c>
+      <c r="B1127" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1127" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="B1128" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1128" t="inlineStr"/>
+      <c r="E1128" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1128" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>DNK</t>
+        </is>
+      </c>
+      <c r="B1129" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1129" t="inlineStr"/>
+      <c r="E1129" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1129" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>SWE</t>
+        </is>
+      </c>
+      <c r="B1130" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1130" t="inlineStr"/>
+      <c r="E1130" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1130" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>IRL</t>
+        </is>
+      </c>
+      <c r="B1131" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1131" t="inlineStr"/>
+      <c r="E1131" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1131" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>DEU</t>
+        </is>
+      </c>
+      <c r="B1132" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1132" t="inlineStr"/>
+      <c r="E1132" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1132" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="B1133" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1133" t="inlineStr"/>
+      <c r="E1133" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>FIN</t>
+        </is>
+      </c>
+      <c r="B1134" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1134" t="inlineStr"/>
+      <c r="E1134" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1134" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="B1135" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1135" t="inlineStr"/>
+      <c r="E1135" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="B1136" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1136" t="inlineStr"/>
+      <c r="E1136" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>NZL</t>
+        </is>
+      </c>
+      <c r="B1137" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1137" t="inlineStr"/>
+      <c r="E1137" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1137" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="B1138" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1138" t="inlineStr"/>
+      <c r="E1138" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1138" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>LIE</t>
+        </is>
+      </c>
+      <c r="B1139" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1139" t="inlineStr"/>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1139" t="inlineStr">
+        <is>
+          <t>Liechtenstein</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>LUX</t>
+        </is>
+      </c>
+      <c r="B1140" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1140" t="inlineStr"/>
+      <c r="E1140" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1140" t="inlineStr">
+        <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+      <c r="B1141" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1141" t="inlineStr"/>
+      <c r="E1141" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1141" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="B1142" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1142" t="inlineStr"/>
+      <c r="E1142" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1142" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>KOR</t>
+        </is>
+      </c>
+      <c r="B1143" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1143" t="inlineStr"/>
+      <c r="E1143" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1143" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B1144" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1144" t="inlineStr"/>
+      <c r="E1144" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1144" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>ISR</t>
+        </is>
+      </c>
+      <c r="B1145" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1145" t="inlineStr"/>
+      <c r="E1145" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1145" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>MLT</t>
+        </is>
+      </c>
+      <c r="B1146" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1146" t="inlineStr"/>
+      <c r="E1146" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>SVN</t>
+        </is>
+      </c>
+      <c r="B1147" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1147" t="inlineStr"/>
+      <c r="E1147" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1147" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>AUT</t>
+        </is>
+      </c>
+      <c r="B1148" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1148" t="inlineStr"/>
+      <c r="E1148" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1148" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>ARE</t>
+        </is>
+      </c>
+      <c r="B1149" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1149" t="inlineStr"/>
+      <c r="E1149" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1149" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B1150" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr"/>
+      <c r="E1150" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B1151" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1151" t="inlineStr"/>
+      <c r="E1151" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>CYP</t>
+        </is>
+      </c>
+      <c r="B1152" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1152" t="inlineStr"/>
+      <c r="E1152" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1152" t="inlineStr">
+        <is>
+          <t>Cyprus</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B1153" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1153" t="inlineStr"/>
+      <c r="E1153" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1153" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>EST</t>
+        </is>
+      </c>
+      <c r="B1154" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1154" t="inlineStr"/>
+      <c r="E1154" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1154" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>CZE</t>
+        </is>
+      </c>
+      <c r="B1155" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1155" t="inlineStr"/>
+      <c r="E1155" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1155" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>GRC</t>
+        </is>
+      </c>
+      <c r="B1156" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1156" t="inlineStr"/>
+      <c r="E1156" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1156" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>POL</t>
+        </is>
+      </c>
+      <c r="B1157" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1157" t="inlineStr"/>
+      <c r="E1157" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1157" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>BHR</t>
+        </is>
+      </c>
+      <c r="B1158" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1158" t="inlineStr"/>
+      <c r="E1158" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1158" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="B1159" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr"/>
+      <c r="E1159" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1159" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="B1160" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1160" t="inlineStr"/>
+      <c r="E1160" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1160" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>PRT</t>
+        </is>
+      </c>
+      <c r="B1161" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1161" t="inlineStr"/>
+      <c r="E1161" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1161" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>LVA</t>
+        </is>
+      </c>
+      <c r="B1162" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr"/>
+      <c r="E1162" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1162" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+      <c r="B1163" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1163" t="inlineStr"/>
+      <c r="E1163" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1163" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>HRV</t>
+        </is>
+      </c>
+      <c r="B1164" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr"/>
+      <c r="E1164" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1164" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="B1165" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr"/>
+      <c r="E1165" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1165" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>QAT</t>
+        </is>
+      </c>
+      <c r="B1166" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr"/>
+      <c r="E1166" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1166" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>SMR</t>
+        </is>
+      </c>
+      <c r="B1167" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr"/>
+      <c r="E1167" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1167" t="inlineStr">
+        <is>
+          <t>San Marino</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>SVK</t>
+        </is>
+      </c>
+      <c r="B1168" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr"/>
+      <c r="E1168" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1168" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>HUN</t>
+        </is>
+      </c>
+      <c r="B1169" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr"/>
+      <c r="E1169" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1169" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>ARG</t>
+        </is>
+      </c>
+      <c r="B1170" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr"/>
+      <c r="E1170" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1170" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="B1171" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr"/>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1171" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>MNE</t>
+        </is>
+      </c>
+      <c r="B1172" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr"/>
+      <c r="E1172" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1172" t="inlineStr">
+        <is>
+          <t>Montenegro</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>KWT</t>
+        </is>
+      </c>
+      <c r="B1173" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr"/>
+      <c r="E1173" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1173" t="inlineStr">
+        <is>
+          <t>Kuwait</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>BRN</t>
+        </is>
+      </c>
+      <c r="B1174" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr"/>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1174" t="inlineStr">
+        <is>
+          <t>Brunei Darussalam</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>RUS</t>
+        </is>
+      </c>
+      <c r="B1175" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1175" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="B1176" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr"/>
+      <c r="E1176" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1176" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>OMN</t>
+        </is>
+      </c>
+      <c r="B1177" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr"/>
+      <c r="E1177" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1177" t="inlineStr">
+        <is>
+          <t>Oman</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>BHS</t>
+        </is>
+      </c>
+      <c r="B1178" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr"/>
+      <c r="E1178" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1178" t="inlineStr">
+        <is>
+          <t>Bahamas</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>KAZ</t>
+        </is>
+      </c>
+      <c r="B1179" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr"/>
+      <c r="E1179" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1179" t="inlineStr">
+        <is>
+          <t>Kazakhstan</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>TTO</t>
+        </is>
+      </c>
+      <c r="B1180" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr"/>
+      <c r="E1180" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1180" t="inlineStr">
+        <is>
+          <t>Trinidad and Tobago</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="B1181" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1181" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>URY</t>
+        </is>
+      </c>
+      <c r="B1182" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr"/>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1182" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>BLR</t>
+        </is>
+      </c>
+      <c r="B1183" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr"/>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1183" t="inlineStr">
+        <is>
+          <t>Belarus</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>PAN</t>
+        </is>
+      </c>
+      <c r="B1184" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1184" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+      <c r="B1185" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr"/>
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1185" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>GEO</t>
+        </is>
+      </c>
+      <c r="B1186" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr"/>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1186" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>MUS</t>
+        </is>
+      </c>
+      <c r="B1187" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr"/>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1187" t="inlineStr">
+        <is>
+          <t>Mauritius</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>SRB</t>
+        </is>
+      </c>
+      <c r="B1188" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr"/>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1188" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="B1189" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr"/>
+      <c r="E1189" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1189" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B1190" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr"/>
+      <c r="E1190" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1190" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="B1191" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1191" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>GRD</t>
+        </is>
+      </c>
+      <c r="B1192" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr"/>
+      <c r="E1192" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1192" t="inlineStr">
+        <is>
+          <t>Grenada</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>BRB</t>
+        </is>
+      </c>
+      <c r="B1193" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr"/>
+      <c r="E1193" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1193" t="inlineStr">
+        <is>
+          <t>Barbados</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>ATG</t>
+        </is>
+      </c>
+      <c r="B1194" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr"/>
+      <c r="E1194" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1194" t="inlineStr">
+        <is>
+          <t>Antigua and Barbuda</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>SYC</t>
+        </is>
+      </c>
+      <c r="B1195" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr"/>
+      <c r="E1195" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1195" t="inlineStr">
+        <is>
+          <t>Seychelles</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>LKA</t>
+        </is>
+      </c>
+      <c r="B1196" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1196" t="inlineStr">
+        <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>BIH</t>
+        </is>
+      </c>
+      <c r="B1197" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr"/>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1197" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>KNA</t>
+        </is>
+      </c>
+      <c r="B1198" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr"/>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1198" t="inlineStr">
+        <is>
+          <t>St. Kitts and Nevis</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>IRN</t>
+        </is>
+      </c>
+      <c r="B1199" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr"/>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1199" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>UKR</t>
+        </is>
+      </c>
+      <c r="B1200" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr"/>
+      <c r="E1200" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1200" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>MKD</t>
+        </is>
+      </c>
+      <c r="B1201" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr"/>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1201" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>CHN</t>
+        </is>
+      </c>
+      <c r="B1202" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr"/>
+      <c r="E1202" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1202" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>DOM</t>
+        </is>
+      </c>
+      <c r="B1203" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr"/>
+      <c r="E1203" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1203" t="inlineStr">
+        <is>
+          <t>Dominican Republic</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>MDA</t>
+        </is>
+      </c>
+      <c r="B1204" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr"/>
+      <c r="E1204" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1204" t="inlineStr">
+        <is>
+          <t>Moldova</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>PLW</t>
+        </is>
+      </c>
+      <c r="B1205" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr"/>
+      <c r="E1205" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1205" t="inlineStr">
+        <is>
+          <t>Palau</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>CUB</t>
+        </is>
+      </c>
+      <c r="B1206" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr"/>
+      <c r="E1206" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1206" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>PER</t>
+        </is>
+      </c>
+      <c r="B1207" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr"/>
+      <c r="E1207" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1207" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>ARM</t>
+        </is>
+      </c>
+      <c r="B1208" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr"/>
+      <c r="E1208" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1208" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="B1209" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr"/>
+      <c r="E1209" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1209" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>BRA</t>
+        </is>
+      </c>
+      <c r="B1210" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr"/>
+      <c r="E1210" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1210" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="B1211" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr"/>
+      <c r="E1211" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1211" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>VCT</t>
+        </is>
+      </c>
+      <c r="B1212" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr"/>
+      <c r="E1212" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1212" t="inlineStr">
+        <is>
+          <t>St. Vincent and the Grenadines</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>MDV</t>
+        </is>
+      </c>
+      <c r="B1213" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr"/>
+      <c r="E1213" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1213" t="inlineStr">
+        <is>
+          <t>Maldives</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>DZA</t>
+        </is>
+      </c>
+      <c r="B1214" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr"/>
+      <c r="E1214" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1214" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>AZE</t>
+        </is>
+      </c>
+      <c r="B1215" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr"/>
+      <c r="E1215" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1215" t="inlineStr">
+        <is>
+          <t>Azerbaijan</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>TON</t>
+        </is>
+      </c>
+      <c r="B1216" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr"/>
+      <c r="E1216" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1216" t="inlineStr">
+        <is>
+          <t>Tonga</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>TKM</t>
+        </is>
+      </c>
+      <c r="B1217" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr"/>
+      <c r="E1217" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1217" t="inlineStr">
+        <is>
+          <t>Turkmenistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>ECU</t>
+        </is>
+      </c>
+      <c r="B1218" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr"/>
+      <c r="E1218" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1218" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>MNG</t>
+        </is>
+      </c>
+      <c r="B1219" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr"/>
+      <c r="E1219" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1219" t="inlineStr">
+        <is>
+          <t>Mongolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>EGY</t>
+        </is>
+      </c>
+      <c r="B1220" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr"/>
+      <c r="E1220" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1220" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B1221" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr"/>
+      <c r="E1221" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1221" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>FJI</t>
+        </is>
+      </c>
+      <c r="B1222" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr"/>
+      <c r="E1222" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1222" t="inlineStr">
+        <is>
+          <t>Fiji</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>SUR</t>
+        </is>
+      </c>
+      <c r="B1223" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr"/>
+      <c r="E1223" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1223" t="inlineStr">
+        <is>
+          <t>Suriname</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>UZB</t>
+        </is>
+      </c>
+      <c r="B1224" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr"/>
+      <c r="E1224" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1224" t="inlineStr">
+        <is>
+          <t>Uzbekistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>DMA</t>
+        </is>
+      </c>
+      <c r="B1225" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr"/>
+      <c r="E1225" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1225" t="inlineStr">
+        <is>
+          <t>Dominica</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>JOR</t>
+        </is>
+      </c>
+      <c r="B1226" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr"/>
+      <c r="E1226" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1226" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B1227" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr"/>
+      <c r="E1227" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1227" t="inlineStr">
+        <is>
+          <t>Libya</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>PRY</t>
+        </is>
+      </c>
+      <c r="B1228" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr"/>
+      <c r="E1228" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1228" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>PSE</t>
+        </is>
+      </c>
+      <c r="B1229" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr"/>
+      <c r="E1229" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1229" t="inlineStr">
+        <is>
+          <t>Palestine</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>LCA</t>
+        </is>
+      </c>
+      <c r="B1230" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr"/>
+      <c r="E1230" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1230" t="inlineStr">
+        <is>
+          <t>St. Lucia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>GUY</t>
+        </is>
+      </c>
+      <c r="B1231" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr"/>
+      <c r="E1231" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1231" t="inlineStr">
+        <is>
+          <t>Guyana</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="B1232" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr"/>
+      <c r="E1232" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1232" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>JAM</t>
+        </is>
+      </c>
+      <c r="B1233" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr"/>
+      <c r="E1233" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1233" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>WSM</t>
+        </is>
+      </c>
+      <c r="B1234" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr"/>
+      <c r="E1234" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1234" t="inlineStr">
+        <is>
+          <t>Samoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>GAB</t>
+        </is>
+      </c>
+      <c r="B1235" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr"/>
+      <c r="E1235" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1235" t="inlineStr">
+        <is>
+          <t>Gabon</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>LBN</t>
+        </is>
+      </c>
+      <c r="B1236" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr"/>
+      <c r="E1236" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1236" t="inlineStr">
+        <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>IDN</t>
+        </is>
+      </c>
+      <c r="B1237" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr"/>
+      <c r="E1237" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1237" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>VNM</t>
+        </is>
+      </c>
+      <c r="B1238" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr"/>
+      <c r="E1238" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1238" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>PHL</t>
+        </is>
+      </c>
+      <c r="B1239" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr"/>
+      <c r="E1239" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1239" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="B1240" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr"/>
+      <c r="E1240" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1240" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>BOL</t>
+        </is>
+      </c>
+      <c r="B1241" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr"/>
+      <c r="E1241" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1241" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>KGZ</t>
+        </is>
+      </c>
+      <c r="B1242" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1242" t="inlineStr"/>
+      <c r="E1242" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1242" t="inlineStr">
+        <is>
+          <t>Kyrgyz Republic</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>VEN</t>
+        </is>
+      </c>
+      <c r="B1243" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1243" t="inlineStr"/>
+      <c r="E1243" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1243" t="inlineStr">
+        <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>IRQ</t>
+        </is>
+      </c>
+      <c r="B1244" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1244" t="inlineStr"/>
+      <c r="E1244" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1244" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>TJK</t>
+        </is>
+      </c>
+      <c r="B1245" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1245" t="inlineStr"/>
+      <c r="E1245" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1245" t="inlineStr">
+        <is>
+          <t>Tajikistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>BLZ</t>
+        </is>
+      </c>
+      <c r="B1246" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1246" t="inlineStr"/>
+      <c r="E1246" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1246" t="inlineStr">
+        <is>
+          <t>Belize</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B1247" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1247" t="inlineStr"/>
+      <c r="E1247" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1247" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>SLV</t>
+        </is>
+      </c>
+      <c r="B1248" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1248" t="inlineStr"/>
+      <c r="E1248" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1248" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="B1249" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1249" t="inlineStr"/>
+      <c r="E1249" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1249" t="inlineStr">
+        <is>
+          <t>Nicaragua</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>BTN</t>
+        </is>
+      </c>
+      <c r="B1250" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1250" t="inlineStr"/>
+      <c r="E1250" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1250" t="inlineStr">
+        <is>
+          <t>Bhutan</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>CPV</t>
+        </is>
+      </c>
+      <c r="B1251" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1251" t="inlineStr"/>
+      <c r="E1251" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1251" t="inlineStr">
+        <is>
+          <t>Cabo Verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>BGD</t>
+        </is>
+      </c>
+      <c r="B1252" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1252" t="inlineStr"/>
+      <c r="E1252" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1252" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>TUV</t>
+        </is>
+      </c>
+      <c r="B1253" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1253" t="inlineStr"/>
+      <c r="E1253" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1253" t="inlineStr">
+        <is>
+          <t>Tuvalu</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>MHL</t>
+        </is>
+      </c>
+      <c r="B1254" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1254" t="inlineStr"/>
+      <c r="E1254" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1254" t="inlineStr">
+        <is>
+          <t>Marshall Islands</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="B1255" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1255" t="inlineStr"/>
+      <c r="E1255" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1255" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B1256" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1256" t="inlineStr"/>
+      <c r="E1256" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1256" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B1257" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1257" t="inlineStr"/>
+      <c r="E1257" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1257" t="inlineStr">
+        <is>
+          <t>Micronesia, Fed. Sts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>GTM</t>
+        </is>
+      </c>
+      <c r="B1258" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1258" t="inlineStr"/>
+      <c r="E1258" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1258" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>KIR</t>
+        </is>
+      </c>
+      <c r="B1259" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1259" t="inlineStr"/>
+      <c r="E1259" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1259" t="inlineStr">
+        <is>
+          <t>Kiribati</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>HND</t>
+        </is>
+      </c>
+      <c r="B1260" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1260" t="inlineStr"/>
+      <c r="E1260" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1260" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>STP</t>
+        </is>
+      </c>
+      <c r="B1261" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1261" t="inlineStr"/>
+      <c r="E1261" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1261" t="inlineStr">
+        <is>
+          <t>Sao Tome and Principe</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>NAM</t>
+        </is>
+      </c>
+      <c r="B1262" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1262" t="inlineStr"/>
+      <c r="E1262" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1262" t="inlineStr">
+        <is>
+          <t>Namibia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>LAO</t>
+        </is>
+      </c>
+      <c r="B1263" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1263" t="inlineStr"/>
+      <c r="E1263" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1263" t="inlineStr">
+        <is>
+          <t>Laos</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>TLS</t>
+        </is>
+      </c>
+      <c r="B1264" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1264" t="inlineStr"/>
+      <c r="E1264" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1264" t="inlineStr">
+        <is>
+          <t>Timor-Leste</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>VUT</t>
+        </is>
+      </c>
+      <c r="B1265" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1265" t="inlineStr"/>
+      <c r="E1265" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1265" t="inlineStr">
+        <is>
+          <t>Vanuatu</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>NPL</t>
+        </is>
+      </c>
+      <c r="B1266" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1266" t="inlineStr"/>
+      <c r="E1266" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1266" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>SWZ</t>
+        </is>
+      </c>
+      <c r="B1267" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1267" t="inlineStr"/>
+      <c r="E1267" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1267" t="inlineStr">
+        <is>
+          <t>Eswatini</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>GNQ</t>
+        </is>
+      </c>
+      <c r="B1268" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1268" t="inlineStr"/>
+      <c r="E1268" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1268" t="inlineStr">
+        <is>
+          <t>Equatorial Guinea</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>KHM</t>
+        </is>
+      </c>
+      <c r="B1269" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1269" t="inlineStr"/>
+      <c r="E1269" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1269" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>ZWE</t>
+        </is>
+      </c>
+      <c r="B1270" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1270" t="inlineStr"/>
+      <c r="E1270" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1270" t="inlineStr">
+        <is>
+          <t>Zimbabwe</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>AGO</t>
+        </is>
+      </c>
+      <c r="B1271" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1271" t="inlineStr"/>
+      <c r="E1271" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1271" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>MMR</t>
+        </is>
+      </c>
+      <c r="B1272" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1272" t="inlineStr"/>
+      <c r="E1272" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1272" t="inlineStr">
+        <is>
+          <t>Myanmar</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>SYR</t>
+        </is>
+      </c>
+      <c r="B1273" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1273" t="inlineStr"/>
+      <c r="E1273" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1273" t="inlineStr">
+        <is>
+          <t>Syria</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>CMR</t>
+        </is>
+      </c>
+      <c r="B1274" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1274" t="inlineStr"/>
+      <c r="E1274" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1274" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="B1275" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1275" t="inlineStr"/>
+      <c r="E1275" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1275" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>COG</t>
+        </is>
+      </c>
+      <c r="B1276" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1276" t="inlineStr"/>
+      <c r="E1276" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1276" t="inlineStr">
+        <is>
+          <t>Congo Republic</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>ZMB</t>
+        </is>
+      </c>
+      <c r="B1277" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1277" t="inlineStr"/>
+      <c r="E1277" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1277" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="B1278" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1278" t="inlineStr"/>
+      <c r="E1278" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1278" t="inlineStr">
+        <is>
+          <t>Solomon Islands</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+      <c r="B1279" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1279" t="inlineStr"/>
+      <c r="E1279" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1279" t="inlineStr">
+        <is>
+          <t>Comoros</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>PNG</t>
+        </is>
+      </c>
+      <c r="B1280" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1280" t="inlineStr"/>
+      <c r="E1280" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1280" t="inlineStr">
+        <is>
+          <t>Papua New Guinea</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>MRT</t>
+        </is>
+      </c>
+      <c r="B1281" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1281" t="inlineStr"/>
+      <c r="E1281" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1281" t="inlineStr">
+        <is>
+          <t>Mauritania</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>CIV</t>
+        </is>
+      </c>
+      <c r="B1282" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1282" t="inlineStr"/>
+      <c r="E1282" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1282" t="inlineStr">
+        <is>
+          <t>Cote d'Ivoire</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>TZA</t>
+        </is>
+      </c>
+      <c r="B1283" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1283" t="inlineStr"/>
+      <c r="E1283" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1283" t="inlineStr">
+        <is>
+          <t>Tanzania</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>PAK</t>
+        </is>
+      </c>
+      <c r="B1284" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1284" t="inlineStr"/>
+      <c r="E1284" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1284" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>TGO</t>
+        </is>
+      </c>
+      <c r="B1285" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1285" t="inlineStr"/>
+      <c r="E1285" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1285" t="inlineStr">
+        <is>
+          <t>Togo</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>HTI</t>
+        </is>
+      </c>
+      <c r="B1286" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1286" t="inlineStr"/>
+      <c r="E1286" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1286" t="inlineStr">
+        <is>
+          <t>Haiti</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>NGA</t>
+        </is>
+      </c>
+      <c r="B1287" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1287" t="inlineStr"/>
+      <c r="E1287" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1287" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="B1288" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1288" t="inlineStr"/>
+      <c r="E1288" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1288" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>BEN</t>
+        </is>
+      </c>
+      <c r="B1289" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1289" t="inlineStr"/>
+      <c r="E1289" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1289" t="inlineStr">
+        <is>
+          <t>Benin</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="B1290" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr"/>
+      <c r="E1290" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1290" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>LSO</t>
+        </is>
+      </c>
+      <c r="B1291" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1291" t="inlineStr"/>
+      <c r="E1291" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1291" t="inlineStr">
+        <is>
+          <t>Lesotho</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>MWI</t>
+        </is>
+      </c>
+      <c r="B1292" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr"/>
+      <c r="E1292" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1292" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>SEN</t>
+        </is>
+      </c>
+      <c r="B1293" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1293" t="inlineStr"/>
+      <c r="E1293" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1293" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="B1294" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1294" t="inlineStr"/>
+      <c r="E1294" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1294" t="inlineStr">
+        <is>
+          <t>Djibouti</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>SDN</t>
+        </is>
+      </c>
+      <c r="B1295" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1295" t="inlineStr"/>
+      <c r="E1295" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1295" t="inlineStr">
+        <is>
+          <t>Sudan</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B1296" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr"/>
+      <c r="E1296" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1296" t="inlineStr">
+        <is>
+          <t>Madagascar</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>GMB</t>
+        </is>
+      </c>
+      <c r="B1297" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1297" t="inlineStr"/>
+      <c r="E1297" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1297" t="inlineStr">
+        <is>
+          <t>Gambia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="B1298" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr"/>
+      <c r="E1298" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1298" t="inlineStr">
+        <is>
+          <t>Ethiopia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>ERI</t>
+        </is>
+      </c>
+      <c r="B1299" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1299" t="inlineStr"/>
+      <c r="E1299" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1299" t="inlineStr">
+        <is>
+          <t>Eritrea</t>
+        </is>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>GNB</t>
+        </is>
+      </c>
+      <c r="B1300" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1300" t="inlineStr"/>
+      <c r="E1300" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1300" t="inlineStr">
+        <is>
+          <t>Guinea-Bissau</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>LBR</t>
+        </is>
+      </c>
+      <c r="B1301" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1301" t="inlineStr"/>
+      <c r="E1301" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1301" t="inlineStr">
+        <is>
+          <t>Liberia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="B1302" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1302" t="inlineStr"/>
+      <c r="E1302" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1302" t="inlineStr">
+        <is>
+          <t>DR Congo</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>AFG</t>
+        </is>
+      </c>
+      <c r="B1303" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr"/>
+      <c r="E1303" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1303" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>SLE</t>
+        </is>
+      </c>
+      <c r="B1304" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr"/>
+      <c r="E1304" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1304" t="inlineStr">
+        <is>
+          <t>Sierra Leone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B1305" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1305" t="inlineStr"/>
+      <c r="E1305" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1305" t="inlineStr">
+        <is>
+          <t>Guinea</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>YEM</t>
+        </is>
+      </c>
+      <c r="B1306" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1306" t="inlineStr"/>
+      <c r="E1306" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1306" t="inlineStr">
+        <is>
+          <t>Yemen</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B1307" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr"/>
+      <c r="E1307" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1307" t="inlineStr">
+        <is>
+          <t>Burkina Faso</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>MOZ</t>
+        </is>
+      </c>
+      <c r="B1308" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1308" t="inlineStr"/>
+      <c r="E1308" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1308" t="inlineStr">
+        <is>
+          <t>Mozambique</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>MLI</t>
+        </is>
+      </c>
+      <c r="B1309" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr"/>
+      <c r="E1309" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1309" t="inlineStr">
+        <is>
+          <t>Mali</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>BDI</t>
+        </is>
+      </c>
+      <c r="B1310" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr"/>
+      <c r="E1310" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1310" t="inlineStr">
+        <is>
+          <t>Burundi</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>CAF</t>
+        </is>
+      </c>
+      <c r="B1311" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1311" t="inlineStr"/>
+      <c r="E1311" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1311" t="inlineStr">
+        <is>
+          <t>Central African Republic</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>NER</t>
+        </is>
+      </c>
+      <c r="B1312" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr"/>
+      <c r="E1312" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1312" t="inlineStr">
+        <is>
+          <t>Niger</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>TCD</t>
+        </is>
+      </c>
+      <c r="B1313" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1313" t="inlineStr"/>
+      <c r="E1313" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1313" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>SSD</t>
+        </is>
+      </c>
+      <c r="B1314" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1314" t="inlineStr"/>
+      <c r="E1314" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1314" t="inlineStr">
+        <is>
+          <t>South Sudan</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>PRK</t>
+        </is>
+      </c>
+      <c r="B1315" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1315" t="inlineStr"/>
+      <c r="E1315" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1315" t="inlineStr">
+        <is>
+          <t>North Korea</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>MCO</t>
+        </is>
+      </c>
+      <c r="B1316" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1316" t="inlineStr"/>
+      <c r="E1316" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1316" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>NRU</t>
+        </is>
+      </c>
+      <c r="B1317" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1317" t="inlineStr"/>
+      <c r="E1317" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1317" t="inlineStr">
+        <is>
+          <t>Nauru</t>
+        </is>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>SOM</t>
+        </is>
+      </c>
+      <c r="B1318" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1318" t="inlineStr"/>
+      <c r="E1318" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1318" t="inlineStr">
+        <is>
+          <t>Somalia</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/charts_download/explorers/econ_metadata.xlsx
+++ b/charts_download/explorers/econ_metadata.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>date</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/charts_download/explorers/econ_metadata.xlsx
+++ b/charts_download/explorers/econ_metadata.xlsx
@@ -28082,7 +28082,7 @@
         </is>
       </c>
       <c r="B1012" t="n">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="C1012" t="inlineStr">
         <is>
@@ -28654,7 +28654,7 @@
         </is>
       </c>
       <c r="B1034" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C1034" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         </is>
       </c>
       <c r="B1035" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C1035" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         </is>
       </c>
       <c r="B1078" t="n">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C1078" t="inlineStr">
         <is>
@@ -30812,7 +30812,7 @@
         </is>
       </c>
       <c r="B1117" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C1117" t="inlineStr">
         <is>

--- a/charts_download/explorers/econ_metadata.xlsx
+++ b/charts_download/explorers/econ_metadata.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/charts_download/explorers/econ_metadata.xlsx
+++ b/charts_download/explorers/econ_metadata.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/charts_download/explorers/econ_metadata.xlsx
+++ b/charts_download/explorers/econ_metadata.xlsx
@@ -26514,7 +26514,7 @@
         </is>
       </c>
       <c r="B937" t="n">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="C937" t="inlineStr">
         <is>

--- a/charts_download/explorers/econ_metadata.xlsx
+++ b/charts_download/explorers/econ_metadata.xlsx
@@ -5333,7 +5333,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Türkiye</t>
         </is>
       </c>
     </row>
@@ -10709,7 +10709,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Türkiye</t>
         </is>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Türkiye</t>
         </is>
       </c>
     </row>
@@ -18913,7 +18913,7 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Türkiye</t>
         </is>
       </c>
     </row>
@@ -24233,7 +24233,7 @@
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Türkiye</t>
         </is>
       </c>
     </row>
@@ -31053,7 +31053,7 @@
       </c>
       <c r="F1111" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Türkiye</t>
         </is>
       </c>
     </row>
@@ -35863,7 +35863,7 @@
       </c>
       <c r="F1296" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Türkiye</t>
         </is>
       </c>
     </row>
@@ -37579,7 +37579,7 @@
       </c>
       <c r="F1362" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Türkiye</t>
         </is>
       </c>
     </row>

--- a/charts_download/explorers/econ_metadata.xlsx
+++ b/charts_download/explorers/econ_metadata.xlsx
@@ -4164,7 +4164,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -4185,14 +4185,14 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Panama</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -4213,14 +4213,14 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Peru</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -4241,14 +4241,14 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>PLW</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -4269,14 +4269,14 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Palau</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>PLW</t>
+          <t>PNG</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -4297,14 +4297,14 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Palau</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PNG</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -4325,14 +4325,14 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Poland</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>PRI</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Puerto Rico</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PRI</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -4381,14 +4381,14 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>PRY</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -4409,14 +4409,14 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Paraguay</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PRY</t>
+          <t>QAT</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -4437,14 +4437,14 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Qatar</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>QAT</t>
+          <t>ROU</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -4465,14 +4465,14 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -4493,14 +4493,14 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -4521,14 +4521,14 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Rwanda</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>SAU</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -4549,14 +4549,14 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>SDN</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -4577,14 +4577,14 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Sudan</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>SEN</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -4605,14 +4605,14 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Senegal</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -4633,14 +4633,14 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Singapore</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -4661,14 +4661,14 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>SLE</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -4689,14 +4689,14 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SLE</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -4717,14 +4717,14 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>El Salvador</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>SMR</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -4745,14 +4745,14 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>San Marino</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SMR</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -4773,14 +4773,14 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Somalia</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -4801,14 +4801,14 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Serbia</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -4829,14 +4829,14 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>South Sudan</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>STP</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -4857,14 +4857,14 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>South Sudan</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>STP</t>
+          <t>SUR</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -4885,14 +4885,14 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Suriname</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SUR</t>
+          <t>SVK</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -4913,14 +4913,14 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Slovakia</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -4941,14 +4941,14 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Slovenia</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -4969,14 +4969,14 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>SWZ</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Eswatini</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>SYC</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -5025,14 +5025,14 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Seychelles</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SYC</t>
+          <t>TCD</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -5053,14 +5053,14 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Chad</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>TGO</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -5081,14 +5081,14 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Togo</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>TGO</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -5109,14 +5109,14 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -5137,14 +5137,14 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tajikistan</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -5165,14 +5165,14 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -5193,14 +5193,14 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -5221,14 +5221,14 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Tonga</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>TTO</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -5249,14 +5249,14 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Tonga</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>TTO</t>
+          <t>TUN</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -5277,14 +5277,14 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Tunisia</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -5305,14 +5305,14 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Türkiye</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>TUV</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -5333,14 +5333,14 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Tuvalu</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>TUV</t>
+          <t>TWN</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -5361,14 +5361,14 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Tuvalu</t>
+          <t>Taiwan</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>TWN</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -5389,14 +5389,14 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Tanzania</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -5417,14 +5417,14 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Uganda</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>URY</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -5445,14 +5445,14 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -5473,14 +5473,14 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UVK</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -5501,14 +5501,14 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>UVK</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>UVK</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -5529,14 +5529,14 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>UVK</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>VCT</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -5557,14 +5557,14 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>St. Vincent and the Grenadines</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>VCT</t>
+          <t>VEN</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -5585,14 +5585,14 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>St. Vincent and the Grenadines</t>
+          <t>Venezuela</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>VEN</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -5613,14 +5613,14 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Vietnam</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>VUT</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Vanuatu</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>VUT</t>
+          <t>WBG</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -5669,14 +5669,14 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Vanuatu</t>
+          <t>WBG</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>WBG</t>
+          <t>WSM</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -5697,14 +5697,14 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>WBG</t>
+          <t>Samoa</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>WSM</t>
+          <t>YEM</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -5725,14 +5725,14 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>Yemen</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>YEM</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -5753,14 +5753,14 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>South Africa</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>ZMB</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -5781,14 +5781,14 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Zambia</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ZMB</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -5809,14 +5809,14 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ZWE</t>
+          <t>ABW</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>GDP per capita (USD)</t>
+          <t>GDP growth (%)</t>
         </is>
       </c>
       <c r="D193" t="b">
@@ -5837,14 +5837,14 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Aruba</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ABW</t>
+          <t>AGO</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -5865,14 +5865,14 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Angola</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>AGO</t>
+          <t>ALB</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -5893,14 +5893,14 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Albania</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>AND</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -5921,14 +5921,14 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Andorra</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>ARE</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -5949,14 +5949,14 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -5977,14 +5977,14 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Argentina</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -6005,14 +6005,14 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Armenia</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>ATG</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -6033,14 +6033,14 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Antigua and Barbuda</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ATG</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -6061,14 +6061,14 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Antigua and Barbuda</t>
+          <t>Australia</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -6089,14 +6089,14 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -6117,14 +6117,14 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>BDI</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -6145,14 +6145,14 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Burundi</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>BDI</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -6173,14 +6173,14 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -6201,14 +6201,14 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Benin</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>BEN</t>
+          <t>BFA</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -6229,14 +6229,14 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>BFA</t>
+          <t>BGD</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -6257,14 +6257,14 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Bangladesh</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>BGD</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Bulgaria</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>BHR</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -6313,14 +6313,14 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Bahrain</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>BHR</t>
+          <t>BHS</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -6341,14 +6341,14 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Bahamas</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BIH</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -6369,14 +6369,14 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>BIH</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -6397,14 +6397,14 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Belarus</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -6425,14 +6425,14 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Belize</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>BOL</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -6453,14 +6453,14 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Bolivia</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>BOL</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -6481,14 +6481,14 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Brazil</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>BRA</t>
+          <t>BRB</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -6509,14 +6509,14 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Barbados</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>BRN</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -6537,14 +6537,14 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>BRN</t>
+          <t>BTN</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -6565,14 +6565,14 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Brunei Darussalam</t>
+          <t>Bhutan</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>BTN</t>
+          <t>BWA</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -6593,14 +6593,14 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Botswana</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>CAF</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -6621,14 +6621,14 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Central African Republic</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>CAF</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -6649,14 +6649,14 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Canada</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -6677,14 +6677,14 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>CHL</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -6705,14 +6705,14 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Chile</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>CHN</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -6733,14 +6733,14 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>China</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>CIV</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -6761,14 +6761,14 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Cote d'Ivoire</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>CIV</t>
+          <t>CMR</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -6789,14 +6789,14 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Cameroon</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>COD</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -6817,14 +6817,14 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>DR Congo</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>COD</t>
+          <t>COG</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -6845,14 +6845,14 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>DR Congo</t>
+          <t>Congo Republic</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>COG</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -6873,14 +6873,14 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Congo Republic</t>
+          <t>Colombia</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>COM</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -6901,14 +6901,14 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Comoros</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>CPV</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>CPV</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -6957,14 +6957,14 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>CYP</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -6985,14 +6985,14 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Cyprus</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>CYP</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -7013,14 +7013,14 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Czech Republic</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -7041,14 +7041,14 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>DJI</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -7069,14 +7069,14 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Djibouti</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>DJI</t>
+          <t>DMA</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -7097,14 +7097,14 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Dominica</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>DMA</t>
+          <t>DNK</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -7125,14 +7125,14 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -7153,14 +7153,14 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>DZA</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -7181,14 +7181,14 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Algeria</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>ECU</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -7209,14 +7209,14 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ECU</t>
+          <t>EGY</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -7237,14 +7237,14 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Egypt</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>ERI</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -7265,14 +7265,14 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Eritrea</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ERI</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -7293,14 +7293,14 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -7321,14 +7321,14 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Estonia</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>ETH</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -7349,14 +7349,14 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Ethiopia</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>FIN</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -7377,14 +7377,14 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Finland</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FJI</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -7405,14 +7405,14 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Fiji</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -7433,14 +7433,14 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>France</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>FSM</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -7461,14 +7461,14 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Micronesia, Fed. Sts.</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>FSM</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -7489,14 +7489,14 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Micronesia, Fed. Sts.</t>
+          <t>Gabon</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>GAB</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -7517,14 +7517,14 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -7545,14 +7545,14 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Georgia</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>GHA</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Ghana</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>GHA</t>
+          <t>GIN</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -7601,14 +7601,14 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Guinea</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>GIN</t>
+          <t>GMB</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -7629,14 +7629,14 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Gambia</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>GNB</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -7657,14 +7657,14 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>GNB</t>
+          <t>GNQ</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -7685,14 +7685,14 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>GNQ</t>
+          <t>GRC</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -7713,14 +7713,14 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>GRC</t>
+          <t>GRD</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -7741,14 +7741,14 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Grenada</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>GRD</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -7769,14 +7769,14 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Guatemala</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>GUY</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -7797,14 +7797,14 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Guyana</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>GUY</t>
+          <t>HKG</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -7825,14 +7825,14 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Hong Kong</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>HKG</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -7853,14 +7853,14 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Honduras</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HRV</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -7881,14 +7881,14 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>HRV</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -7909,14 +7909,14 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Haiti</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>HUN</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -7937,14 +7937,14 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Hungary</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -7965,14 +7965,14 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -7993,14 +7993,14 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>IRL</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -8021,14 +8021,14 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Ireland</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>IRN</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -8049,14 +8049,14 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Iran</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>IRN</t>
+          <t>IRQ</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -8077,14 +8077,14 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Iraq</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>IRQ</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -8105,14 +8105,14 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Iceland</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ISL</t>
+          <t>ISR</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -8133,14 +8133,14 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Israel</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ISR</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -8161,14 +8161,14 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -8189,14 +8189,14 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Jamaica</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>JOR</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Jordan</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>JOR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -8245,14 +8245,14 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -8273,14 +8273,14 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -8301,14 +8301,14 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Kenya</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -8329,14 +8329,14 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Kyrgyz Republic</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -8357,14 +8357,14 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Cambodia</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>KIR</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -8385,14 +8385,14 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Kiribati</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>KIR</t>
+          <t>KNA</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -8413,14 +8413,14 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Kiribati</t>
+          <t>St. Kitts and Nevis</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>KNA</t>
+          <t>KOR</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -8441,14 +8441,14 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>St. Kitts and Nevis</t>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>KWT</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -8469,14 +8469,14 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Kuwait</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>KWT</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -8497,14 +8497,14 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Laos</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>LBR</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -8525,14 +8525,14 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Liberia</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>LBR</t>
+          <t>LBY</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -8553,14 +8553,14 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Libya</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>LCA</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -8581,14 +8581,14 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>St. Lucia</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>LKA</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -8609,14 +8609,14 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>St. Lucia</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>LKA</t>
+          <t>LSO</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -8637,14 +8637,14 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Lesotho</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -8665,14 +8665,14 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Lithuania</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -8693,14 +8693,14 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Luxembourg</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -8721,14 +8721,14 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Latvia</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>MAC</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -8749,14 +8749,14 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Macau</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>MAC</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -8777,14 +8777,14 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Morocco</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -8805,14 +8805,14 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Moldova</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -8833,14 +8833,14 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Madagascar</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MDV</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Maldives</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>MDV</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -8889,14 +8889,14 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Mexico</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MHL</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -8917,14 +8917,14 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Marshall Islands</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>MHL</t>
+          <t>MKD</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -8945,14 +8945,14 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Marshall Islands</t>
+          <t>North Macedonia</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>MKD</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -8973,14 +8973,14 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Mali</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>MLT</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -9001,14 +9001,14 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Malta</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>MLT</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -9029,14 +9029,14 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Myanmar</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MNE</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -9057,14 +9057,14 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Montenegro</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>MNE</t>
+          <t>MNG</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -9085,14 +9085,14 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Mongolia</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -9113,14 +9113,14 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Mozambique</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MRT</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -9141,14 +9141,14 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Mauritania</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MUS</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -9169,14 +9169,14 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Mauritius</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>MUS</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -9197,14 +9197,14 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Malawi</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MYS</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -9225,14 +9225,14 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Malaysia</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>MYS</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -9253,14 +9253,14 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Namibia</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -9281,14 +9281,14 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Niger</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>NGA</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -9309,14 +9309,14 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Nigeria</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -9337,14 +9337,14 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Nicaragua</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -9365,14 +9365,14 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -9393,14 +9393,14 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Norway</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>NPL</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -9421,14 +9421,14 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Nepal</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>NRU</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -9449,14 +9449,14 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Nauru</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>NRU</t>
+          <t>NZL</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -9477,14 +9477,14 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Nauru</t>
+          <t>New Zealand</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>OMN</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -9505,14 +9505,14 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Oman</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>OMN</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -9533,14 +9533,14 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Pakistan</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -9561,14 +9561,14 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Panama</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -9589,14 +9589,14 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Peru</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -9617,14 +9617,14 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>PLW</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -9645,14 +9645,14 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Palau</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>PLW</t>
+          <t>PNG</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -9673,14 +9673,14 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Palau</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>PNG</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -9701,14 +9701,14 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Poland</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>PRI</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -9729,14 +9729,14 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Puerto Rico</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>PRI</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -9757,14 +9757,14 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>PRY</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -9785,14 +9785,14 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Paraguay</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>PRY</t>
+          <t>QAT</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -9813,14 +9813,14 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Qatar</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>QAT</t>
+          <t>ROU</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -9841,14 +9841,14 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -9869,14 +9869,14 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -9897,14 +9897,14 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Rwanda</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>SAU</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -9925,14 +9925,14 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>SDN</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -9953,14 +9953,14 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Sudan</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>SEN</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -9981,14 +9981,14 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Senegal</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -10009,14 +10009,14 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Singapore</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -10037,14 +10037,14 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>SLE</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -10065,14 +10065,14 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>SLE</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -10093,14 +10093,14 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>El Salvador</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>SMR</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -10121,14 +10121,14 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>San Marino</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>SMR</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -10149,14 +10149,14 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Somalia</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -10177,14 +10177,14 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Serbia</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -10205,14 +10205,14 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>South Sudan</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>STP</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -10233,14 +10233,14 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>South Sudan</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>STP</t>
+          <t>SUR</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -10261,14 +10261,14 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Suriname</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>SUR</t>
+          <t>SVK</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -10289,14 +10289,14 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Slovakia</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -10317,14 +10317,14 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Slovenia</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -10345,14 +10345,14 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>SWZ</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -10373,14 +10373,14 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Eswatini</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>SYC</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -10401,14 +10401,14 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Seychelles</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>SYC</t>
+          <t>TCD</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -10429,14 +10429,14 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Chad</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>TGO</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -10457,14 +10457,14 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Togo</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>TGO</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -10485,14 +10485,14 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -10513,14 +10513,14 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tajikistan</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -10541,14 +10541,14 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -10569,14 +10569,14 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -10597,14 +10597,14 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Tonga</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>TTO</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -10625,14 +10625,14 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Tonga</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>TTO</t>
+          <t>TUN</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -10653,14 +10653,14 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Tunisia</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -10681,14 +10681,14 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Türkiye</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>TUV</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -10709,14 +10709,14 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Tuvalu</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>TUV</t>
+          <t>TWN</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -10737,14 +10737,14 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Tuvalu</t>
+          <t>Taiwan</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>TWN</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -10765,14 +10765,14 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Tanzania</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -10793,14 +10793,14 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Uganda</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -10821,14 +10821,14 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Ukraine</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>URY</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -10849,14 +10849,14 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -10877,14 +10877,14 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UVK</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -10905,14 +10905,14 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>UVK</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>UVK</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -10933,14 +10933,14 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>UVK</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>VCT</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -10961,14 +10961,14 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>St. Vincent and the Grenadines</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>VCT</t>
+          <t>VEN</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -10980,7 +10980,7 @@
         </is>
       </c>
       <c r="D377" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -10989,14 +10989,14 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>St. Vincent and the Grenadines</t>
+          <t>Venezuela</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>VEN</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -11017,14 +11017,14 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Vietnam</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>VUT</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -11045,14 +11045,14 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Vanuatu</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>VUT</t>
+          <t>WBG</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -11073,14 +11073,14 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Vanuatu</t>
+          <t>WBG</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>WBG</t>
+          <t>WSM</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -11101,14 +11101,14 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>WBG</t>
+          <t>Samoa</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>WSM</t>
+          <t>YEM</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -11129,14 +11129,14 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>Yemen</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>YEM</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -11157,14 +11157,14 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>South Africa</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>ZMB</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -11185,14 +11185,14 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Zambia</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ZMB</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -11213,14 +11213,14 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ZWE</t>
+          <t>ABW</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>GDP growth (%)</t>
+          <t>Unemployment rate (%)</t>
         </is>
       </c>
       <c r="D386" t="b">
@@ -11241,14 +11241,14 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Aruba</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ABW</t>
+          <t>ALB</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -11269,14 +11269,14 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Albania</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>AND</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -11297,14 +11297,14 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Andorra</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -11325,14 +11325,14 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Argentina</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -11353,14 +11353,14 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Armenia</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -11381,14 +11381,14 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Australia</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -11409,14 +11409,14 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -11437,14 +11437,14 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -11465,14 +11465,14 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -11493,14 +11493,14 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bulgaria</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>BHR</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -11521,14 +11521,14 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Bahrain</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>BHR</t>
+          <t>BHS</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -11549,14 +11549,14 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Bahamas</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>BIH</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -11577,14 +11577,14 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>BIH</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -11605,14 +11605,14 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Belarus</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -11633,14 +11633,14 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Belize</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>BOL</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -11661,14 +11661,14 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Bolivia</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>BOL</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -11689,14 +11689,14 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Brazil</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>BRA</t>
+          <t>BRB</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -11717,14 +11717,14 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Barbados</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>BRN</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -11745,14 +11745,14 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>BRN</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -11773,14 +11773,14 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Brunei Darussalam</t>
+          <t>Canada</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -11801,14 +11801,14 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>CHL</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -11829,14 +11829,14 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Chile</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>CHN</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -11857,14 +11857,14 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>China</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -11885,14 +11885,14 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Colombia</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>CPV</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -11913,14 +11913,14 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>CPV</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -11941,14 +11941,14 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>CYP</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -11969,14 +11969,14 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Cyprus</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>CYP</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -11997,14 +11997,14 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Czech Republic</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -12025,14 +12025,14 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>DNK</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -12053,14 +12053,14 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -12081,14 +12081,14 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>DZA</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -12109,7 +12109,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Algeria</t>
         </is>
       </c>
     </row>
@@ -15448,7 +15448,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>ECU</t>
+          <t>EGY</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -15469,14 +15469,14 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Egypt</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>ERI</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -15497,14 +15497,14 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Eritrea</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>ERI</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -15525,14 +15525,14 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -15553,14 +15553,14 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Estonia</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>ETH</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -15581,14 +15581,14 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Ethiopia</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>FIN</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -15609,14 +15609,14 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Finland</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FJI</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -15637,14 +15637,14 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Fiji</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -15665,14 +15665,14 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>France</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>FSM</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -15693,14 +15693,14 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Micronesia, Fed. Sts.</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>FSM</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -15721,14 +15721,14 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>Micronesia, Fed. Sts.</t>
+          <t>Gabon</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>GAB</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -15749,14 +15749,14 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -15777,14 +15777,14 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Georgia</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>GHA</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -15805,14 +15805,14 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Ghana</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>GHA</t>
+          <t>GIN</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -15833,14 +15833,14 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Guinea</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>GIN</t>
+          <t>GMB</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -15861,14 +15861,14 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Gambia</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>GNB</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -15889,14 +15889,14 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>GNB</t>
+          <t>GNQ</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -15917,14 +15917,14 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>GNQ</t>
+          <t>GRC</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -15945,14 +15945,14 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>GRC</t>
+          <t>GRD</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -15973,14 +15973,14 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Grenada</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>GRD</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -16001,14 +16001,14 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Guatemala</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>GUY</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -16029,14 +16029,14 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Guyana</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>GUY</t>
+          <t>HKG</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -16057,14 +16057,14 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Hong Kong</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>HKG</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -16085,7 +16085,7 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Honduras</t>
         </is>
       </c>
     </row>
@@ -20768,7 +20768,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>ECU</t>
+          <t>EGY</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -20789,14 +20789,14 @@
       </c>
       <c r="F727" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Egypt</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>ERI</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -20817,14 +20817,14 @@
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Eritrea</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>ERI</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -20845,14 +20845,14 @@
       </c>
       <c r="F729" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -20873,14 +20873,14 @@
       </c>
       <c r="F730" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Estonia</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>ETH</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -20901,14 +20901,14 @@
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Ethiopia</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>FIN</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -20929,14 +20929,14 @@
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Finland</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FJI</t>
         </is>
       </c>
       <c r="B733" t="n">
@@ -20957,14 +20957,14 @@
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Fiji</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="B734" t="n">
@@ -20985,14 +20985,14 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>France</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>FSM</t>
         </is>
       </c>
       <c r="B735" t="n">
@@ -21013,14 +21013,14 @@
       </c>
       <c r="F735" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Micronesia, Fed. Sts.</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>FSM</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B736" t="n">
@@ -21041,14 +21041,14 @@
       </c>
       <c r="F736" t="inlineStr">
         <is>
-          <t>Micronesia, Fed. Sts.</t>
+          <t>Gabon</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>GAB</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="B737" t="n">
@@ -21069,14 +21069,14 @@
       </c>
       <c r="F737" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="B738" t="n">
@@ -21097,14 +21097,14 @@
       </c>
       <c r="F738" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Georgia</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>GHA</t>
         </is>
       </c>
       <c r="B739" t="n">
@@ -21125,14 +21125,14 @@
       </c>
       <c r="F739" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Ghana</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>GHA</t>
+          <t>GIN</t>
         </is>
       </c>
       <c r="B740" t="n">
@@ -21153,14 +21153,14 @@
       </c>
       <c r="F740" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Guinea</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>GIN</t>
+          <t>GMB</t>
         </is>
       </c>
       <c r="B741" t="n">
@@ -21181,14 +21181,14 @@
       </c>
       <c r="F741" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Gambia</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>GNB</t>
         </is>
       </c>
       <c r="B742" t="n">
@@ -21209,14 +21209,14 @@
       </c>
       <c r="F742" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>GNB</t>
+          <t>GNQ</t>
         </is>
       </c>
       <c r="B743" t="n">
@@ -21237,14 +21237,14 @@
       </c>
       <c r="F743" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>GNQ</t>
+          <t>GRC</t>
         </is>
       </c>
       <c r="B744" t="n">
@@ -21265,14 +21265,14 @@
       </c>
       <c r="F744" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>GRC</t>
+          <t>GRD</t>
         </is>
       </c>
       <c r="B745" t="n">
@@ -21293,14 +21293,14 @@
       </c>
       <c r="F745" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Grenada</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>GRD</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="B746" t="n">
@@ -21321,14 +21321,14 @@
       </c>
       <c r="F746" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Guatemala</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>GUY</t>
         </is>
       </c>
       <c r="B747" t="n">
@@ -21349,14 +21349,14 @@
       </c>
       <c r="F747" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Guyana</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>GUY</t>
+          <t>HKG</t>
         </is>
       </c>
       <c r="B748" t="n">
@@ -21377,14 +21377,14 @@
       </c>
       <c r="F748" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Hong Kong</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>HKG</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="B749" t="n">
@@ -21405,7 +21405,7 @@
       </c>
       <c r="F749" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Honduras</t>
         </is>
       </c>
     </row>

--- a/charts_download/explorers/econ_metadata.xlsx
+++ b/charts_download/explorers/econ_metadata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1519"/>
+  <dimension ref="A1:F1518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31916,7 +31916,7 @@
         </is>
       </c>
       <c r="B1144" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
@@ -31968,7 +31968,7 @@
         </is>
       </c>
       <c r="B1146" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
@@ -31994,7 +31994,7 @@
         </is>
       </c>
       <c r="B1147" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
@@ -32046,7 +32046,7 @@
         </is>
       </c>
       <c r="B1149" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         </is>
       </c>
       <c r="B1152" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         </is>
       </c>
       <c r="B1156" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
@@ -32332,7 +32332,7 @@
         </is>
       </c>
       <c r="B1160" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
@@ -32358,7 +32358,7 @@
         </is>
       </c>
       <c r="B1161" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
@@ -32462,7 +32462,7 @@
         </is>
       </c>
       <c r="B1165" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         </is>
       </c>
       <c r="B1173" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
@@ -32748,7 +32748,7 @@
         </is>
       </c>
       <c r="B1176" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         </is>
       </c>
       <c r="B1177" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         </is>
       </c>
       <c r="B1178" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
@@ -32826,7 +32826,7 @@
         </is>
       </c>
       <c r="B1179" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         </is>
       </c>
       <c r="B1181" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
@@ -32904,7 +32904,7 @@
         </is>
       </c>
       <c r="B1182" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         </is>
       </c>
       <c r="B1185" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
@@ -33008,7 +33008,7 @@
         </is>
       </c>
       <c r="B1186" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         </is>
       </c>
       <c r="B1187" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
@@ -33060,7 +33060,7 @@
         </is>
       </c>
       <c r="B1188" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         </is>
       </c>
       <c r="B1189" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
@@ -33164,7 +33164,7 @@
         </is>
       </c>
       <c r="B1192" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         </is>
       </c>
       <c r="B1194" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         </is>
       </c>
       <c r="B1197" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
@@ -33320,7 +33320,7 @@
         </is>
       </c>
       <c r="B1198" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
@@ -33398,7 +33398,7 @@
         </is>
       </c>
       <c r="B1201" t="n">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         </is>
       </c>
       <c r="B1203" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
@@ -33528,7 +33528,7 @@
         </is>
       </c>
       <c r="B1206" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         </is>
       </c>
       <c r="B1208" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
@@ -33632,7 +33632,7 @@
         </is>
       </c>
       <c r="B1210" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         </is>
       </c>
       <c r="B1212" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
@@ -33736,7 +33736,7 @@
         </is>
       </c>
       <c r="B1214" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
@@ -33866,7 +33866,7 @@
         </is>
       </c>
       <c r="B1219" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
@@ -34204,7 +34204,7 @@
         </is>
       </c>
       <c r="B1232" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
@@ -34230,7 +34230,7 @@
         </is>
       </c>
       <c r="B1233" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         </is>
       </c>
       <c r="B1234" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         </is>
       </c>
       <c r="B1238" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="B1239" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1239" t="inlineStr">
         <is>
@@ -34412,7 +34412,7 @@
         </is>
       </c>
       <c r="B1240" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1240" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         </is>
       </c>
       <c r="B1242" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C1242" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         </is>
       </c>
       <c r="B1248" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C1248" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         </is>
       </c>
       <c r="B1250" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1250" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         </is>
       </c>
       <c r="B1258" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C1258" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         </is>
       </c>
       <c r="B1263" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1263" t="inlineStr">
         <is>
@@ -35140,7 +35140,7 @@
         </is>
       </c>
       <c r="B1268" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C1268" t="inlineStr">
         <is>
@@ -35166,7 +35166,7 @@
         </is>
       </c>
       <c r="B1269" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1269" t="inlineStr">
         <is>
@@ -35192,7 +35192,7 @@
         </is>
       </c>
       <c r="B1270" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C1270" t="inlineStr">
         <is>
@@ -35244,7 +35244,7 @@
         </is>
       </c>
       <c r="B1272" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C1272" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         </is>
       </c>
       <c r="B1273" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1273" t="inlineStr">
         <is>
@@ -35296,7 +35296,7 @@
         </is>
       </c>
       <c r="B1274" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1274" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         </is>
       </c>
       <c r="B1276" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1276" t="inlineStr">
         <is>
@@ -35556,7 +35556,7 @@
         </is>
       </c>
       <c r="B1284" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C1284" t="inlineStr">
         <is>
@@ -35578,11 +35578,11 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="B1285" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C1285" t="inlineStr">
         <is>
@@ -35597,18 +35597,18 @@
       </c>
       <c r="F1285" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Serbia</t>
         </is>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="B1286" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C1286" t="inlineStr">
         <is>
@@ -35623,18 +35623,18 @@
       </c>
       <c r="F1286" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>South Sudan</t>
         </is>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>SSF</t>
         </is>
       </c>
       <c r="B1287" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C1287" t="inlineStr">
         <is>
@@ -35649,18 +35649,18 @@
       </c>
       <c r="F1287" t="inlineStr">
         <is>
-          <t>South Sudan</t>
+          <t>SSF</t>
         </is>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>SSF</t>
+          <t>STP</t>
         </is>
       </c>
       <c r="B1288" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C1288" t="inlineStr">
         <is>
@@ -35675,18 +35675,18 @@
       </c>
       <c r="F1288" t="inlineStr">
         <is>
-          <t>SSF</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>STP</t>
+          <t>SUR</t>
         </is>
       </c>
       <c r="B1289" t="n">
-        <v>2017</v>
+        <v>1999</v>
       </c>
       <c r="C1289" t="inlineStr">
         <is>
@@ -35701,18 +35701,18 @@
       </c>
       <c r="F1289" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Suriname</t>
         </is>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>SUR</t>
+          <t>SVK</t>
         </is>
       </c>
       <c r="B1290" t="n">
-        <v>1999</v>
+        <v>2019</v>
       </c>
       <c r="C1290" t="inlineStr">
         <is>
@@ -35727,18 +35727,18 @@
       </c>
       <c r="F1290" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Slovakia</t>
         </is>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="B1291" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1291" t="inlineStr">
         <is>
@@ -35753,18 +35753,18 @@
       </c>
       <c r="F1291" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Slovenia</t>
         </is>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="B1292" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1292" t="inlineStr">
         <is>
@@ -35779,18 +35779,18 @@
       </c>
       <c r="F1292" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>SWZ</t>
         </is>
       </c>
       <c r="B1293" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C1293" t="inlineStr">
         <is>
@@ -35805,18 +35805,18 @@
       </c>
       <c r="F1293" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Eswatini</t>
         </is>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>SYC</t>
         </is>
       </c>
       <c r="B1294" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C1294" t="inlineStr">
         <is>
@@ -35831,18 +35831,18 @@
       </c>
       <c r="F1294" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Seychelles</t>
         </is>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>SYC</t>
+          <t>SYR</t>
         </is>
       </c>
       <c r="B1295" t="n">
-        <v>2018</v>
+        <v>2003</v>
       </c>
       <c r="C1295" t="inlineStr">
         <is>
@@ -35857,18 +35857,18 @@
       </c>
       <c r="F1295" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Syria</t>
         </is>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>SYR</t>
+          <t>TCD</t>
         </is>
       </c>
       <c r="B1296" t="n">
-        <v>2003</v>
+        <v>2018</v>
       </c>
       <c r="C1296" t="inlineStr">
         <is>
@@ -35883,14 +35883,14 @@
       </c>
       <c r="F1296" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Chad</t>
         </is>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>TGO</t>
         </is>
       </c>
       <c r="B1297" t="n">
@@ -35909,18 +35909,18 @@
       </c>
       <c r="F1297" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Togo</t>
         </is>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>TGO</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="B1298" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C1298" t="inlineStr">
         <is>
@@ -35935,18 +35935,18 @@
       </c>
       <c r="F1298" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="B1299" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C1299" t="inlineStr">
         <is>
@@ -35961,18 +35961,18 @@
       </c>
       <c r="F1299" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tajikistan</t>
         </is>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="B1300" t="n">
-        <v>2015</v>
+        <v>1998</v>
       </c>
       <c r="C1300" t="inlineStr">
         <is>
@@ -35987,18 +35987,18 @@
       </c>
       <c r="F1300" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="B1301" t="n">
-        <v>1998</v>
+        <v>2014</v>
       </c>
       <c r="C1301" t="inlineStr">
         <is>
@@ -36013,18 +36013,18 @@
       </c>
       <c r="F1301" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="B1302" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C1302" t="inlineStr">
         <is>
@@ -36039,18 +36039,18 @@
       </c>
       <c r="F1302" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Tonga</t>
         </is>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>TTO</t>
         </is>
       </c>
       <c r="B1303" t="n">
-        <v>2015</v>
+        <v>1992</v>
       </c>
       <c r="C1303" t="inlineStr">
         <is>
@@ -36065,18 +36065,18 @@
       </c>
       <c r="F1303" t="inlineStr">
         <is>
-          <t>Tonga</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>TTO</t>
+          <t>TUN</t>
         </is>
       </c>
       <c r="B1304" t="n">
-        <v>1992</v>
+        <v>2015</v>
       </c>
       <c r="C1304" t="inlineStr">
         <is>
@@ -36091,18 +36091,18 @@
       </c>
       <c r="F1304" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Tunisia</t>
         </is>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B1305" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C1305" t="inlineStr">
         <is>
@@ -36117,18 +36117,18 @@
       </c>
       <c r="F1305" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Türkiye</t>
         </is>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>TUV</t>
         </is>
       </c>
       <c r="B1306" t="n">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C1306" t="inlineStr">
         <is>
@@ -36143,18 +36143,18 @@
       </c>
       <c r="F1306" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Tuvalu</t>
         </is>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>TUV</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="B1307" t="n">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C1307" t="inlineStr">
         <is>
@@ -36169,18 +36169,18 @@
       </c>
       <c r="F1307" t="inlineStr">
         <is>
-          <t>Tuvalu</t>
+          <t>Tanzania</t>
         </is>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="B1308" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C1308" t="inlineStr">
         <is>
@@ -36195,18 +36195,18 @@
       </c>
       <c r="F1308" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Uganda</t>
         </is>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="B1309" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1309" t="inlineStr">
         <is>
@@ -36221,18 +36221,18 @@
       </c>
       <c r="F1309" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Ukraine</t>
         </is>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="B1310" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C1310" t="inlineStr">
         <is>
@@ -36247,18 +36247,18 @@
       </c>
       <c r="F1310" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>UMC</t>
         </is>
       </c>
     </row>
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>URY</t>
         </is>
       </c>
       <c r="B1311" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C1311" t="inlineStr">
         <is>
@@ -36273,14 +36273,14 @@
       </c>
       <c r="F1311" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B1312" t="n">
@@ -36299,18 +36299,18 @@
       </c>
       <c r="F1312" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="B1313" t="n">
-        <v>2019</v>
+        <v>2003</v>
       </c>
       <c r="C1313" t="inlineStr">
         <is>
@@ -36325,18 +36325,18 @@
       </c>
       <c r="F1313" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
     </row>
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>VEN</t>
         </is>
       </c>
       <c r="B1314" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="C1314" t="inlineStr">
         <is>
@@ -36351,18 +36351,18 @@
       </c>
       <c r="F1314" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Venezuela</t>
         </is>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>VEN</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="B1315" t="n">
-        <v>2006</v>
+        <v>2020</v>
       </c>
       <c r="C1315" t="inlineStr">
         <is>
@@ -36377,18 +36377,18 @@
       </c>
       <c r="F1315" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Vietnam</t>
         </is>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>VUT</t>
         </is>
       </c>
       <c r="B1316" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C1316" t="inlineStr">
         <is>
@@ -36403,14 +36403,14 @@
       </c>
       <c r="F1316" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Vanuatu</t>
         </is>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>VUT</t>
+          <t>WLD</t>
         </is>
       </c>
       <c r="B1317" t="n">
@@ -36429,18 +36429,18 @@
       </c>
       <c r="F1317" t="inlineStr">
         <is>
-          <t>Vanuatu</t>
+          <t>WLD</t>
         </is>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>WLD</t>
+          <t>WSM</t>
         </is>
       </c>
       <c r="B1318" t="n">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="C1318" t="inlineStr">
         <is>
@@ -36455,18 +36455,18 @@
       </c>
       <c r="F1318" t="inlineStr">
         <is>
-          <t>WLD</t>
+          <t>Samoa</t>
         </is>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>WSM</t>
+          <t>XKX</t>
         </is>
       </c>
       <c r="B1319" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C1319" t="inlineStr">
         <is>
@@ -36481,18 +36481,18 @@
       </c>
       <c r="F1319" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>Kosovo</t>
         </is>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>XKX</t>
+          <t>YEM</t>
         </is>
       </c>
       <c r="B1320" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C1320" t="inlineStr">
         <is>
@@ -36507,14 +36507,14 @@
       </c>
       <c r="F1320" t="inlineStr">
         <is>
-          <t>Kosovo</t>
+          <t>Yemen</t>
         </is>
       </c>
     </row>
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>YEM</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="B1321" t="n">
@@ -36533,18 +36533,18 @@
       </c>
       <c r="F1321" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>South Africa</t>
         </is>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>ZMB</t>
         </is>
       </c>
       <c r="B1322" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C1322" t="inlineStr">
         <is>
@@ -36559,18 +36559,18 @@
       </c>
       <c r="F1322" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Zambia</t>
         </is>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>ZMB</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="B1323" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C1323" t="inlineStr">
         <is>
@@ -36585,40 +36585,40 @@
       </c>
       <c r="F1323" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>ZWE</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="B1324" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C1324" t="inlineStr">
         <is>
-          <t>Poverty rate (%)</t>
+          <t>Human Development Index</t>
         </is>
       </c>
       <c r="D1324" t="inlineStr"/>
       <c r="E1324" t="inlineStr">
         <is>
-          <t>World Bank Open Data</t>
+          <t>UNDP Human Development Report</t>
         </is>
       </c>
       <c r="F1324" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="B1325" t="n">
@@ -36637,14 +36637,14 @@
       </c>
       <c r="F1325" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Norway</t>
         </is>
       </c>
     </row>
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="B1326" t="n">
@@ -36663,14 +36663,14 @@
       </c>
       <c r="F1326" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Iceland</t>
         </is>
       </c>
     </row>
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>ISL</t>
+          <t>HKG</t>
         </is>
       </c>
       <c r="B1327" t="n">
@@ -36689,14 +36689,14 @@
       </c>
       <c r="F1327" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Hong Kong</t>
         </is>
       </c>
     </row>
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>HKG</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="B1328" t="n">
@@ -36715,14 +36715,14 @@
       </c>
       <c r="F1328" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Australia</t>
         </is>
       </c>
     </row>
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>DNK</t>
         </is>
       </c>
       <c r="B1329" t="n">
@@ -36741,14 +36741,14 @@
       </c>
       <c r="F1329" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="B1330" t="n">
@@ -36767,14 +36767,14 @@
       </c>
       <c r="F1330" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>IRL</t>
         </is>
       </c>
       <c r="B1331" t="n">
@@ -36793,14 +36793,14 @@
       </c>
       <c r="F1331" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ireland</t>
         </is>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="B1332" t="n">
@@ -36819,14 +36819,14 @@
       </c>
       <c r="F1332" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="B1333" t="n">
@@ -36845,14 +36845,14 @@
       </c>
       <c r="F1333" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>FIN</t>
         </is>
       </c>
       <c r="B1334" t="n">
@@ -36871,14 +36871,14 @@
       </c>
       <c r="F1334" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Finland</t>
         </is>
       </c>
     </row>
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="B1335" t="n">
@@ -36897,14 +36897,14 @@
       </c>
       <c r="F1335" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Singapore</t>
         </is>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B1336" t="n">
@@ -36923,14 +36923,14 @@
       </c>
       <c r="F1336" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>NZL</t>
         </is>
       </c>
       <c r="B1337" t="n">
@@ -36949,14 +36949,14 @@
       </c>
       <c r="F1337" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>New Zealand</t>
         </is>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="B1338" t="n">
@@ -36975,14 +36975,14 @@
       </c>
       <c r="F1338" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Canada</t>
         </is>
       </c>
     </row>
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>LIE</t>
         </is>
       </c>
       <c r="B1339" t="n">
@@ -37001,14 +37001,14 @@
       </c>
       <c r="F1339" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Liechtenstein</t>
         </is>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="inlineStr">
         <is>
-          <t>LIE</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="B1340" t="n">
@@ -37027,14 +37027,14 @@
       </c>
       <c r="F1340" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Luxembourg</t>
         </is>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="B1341" t="n">
@@ -37053,14 +37053,14 @@
       </c>
       <c r="F1341" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="B1342" t="n">
@@ -37079,14 +37079,14 @@
       </c>
       <c r="F1342" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>KOR</t>
         </is>
       </c>
       <c r="B1343" t="n">
@@ -37105,14 +37105,14 @@
       </c>
       <c r="F1343" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B1344" t="n">
@@ -37131,14 +37131,14 @@
       </c>
       <c r="F1344" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>ISR</t>
         </is>
       </c>
       <c r="B1345" t="n">
@@ -37157,14 +37157,14 @@
       </c>
       <c r="F1345" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Israel</t>
         </is>
       </c>
     </row>
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>ISR</t>
+          <t>MLT</t>
         </is>
       </c>
       <c r="B1346" t="n">
@@ -37183,14 +37183,14 @@
       </c>
       <c r="F1346" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Malta</t>
         </is>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>MLT</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="B1347" t="n">
@@ -37209,14 +37209,14 @@
       </c>
       <c r="F1347" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Slovenia</t>
         </is>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="B1348" t="n">
@@ -37235,14 +37235,14 @@
       </c>
       <c r="F1348" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>ARE</t>
         </is>
       </c>
       <c r="B1349" t="n">
@@ -37261,14 +37261,14 @@
       </c>
       <c r="F1349" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="B1350" t="n">
@@ -37287,14 +37287,14 @@
       </c>
       <c r="F1350" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="B1351" t="n">
@@ -37313,14 +37313,14 @@
       </c>
       <c r="F1351" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>CYP</t>
         </is>
       </c>
       <c r="B1352" t="n">
@@ -37339,14 +37339,14 @@
       </c>
       <c r="F1352" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Cyprus</t>
         </is>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>CYP</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="B1353" t="n">
@@ -37365,14 +37365,14 @@
       </c>
       <c r="F1353" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="B1354" t="n">
@@ -37391,14 +37391,14 @@
       </c>
       <c r="F1354" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Estonia</t>
         </is>
       </c>
     </row>
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="B1355" t="n">
@@ -37417,14 +37417,14 @@
       </c>
       <c r="F1355" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
     </row>
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>GRC</t>
         </is>
       </c>
       <c r="B1356" t="n">
@@ -37443,14 +37443,14 @@
       </c>
       <c r="F1356" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>GRC</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="B1357" t="n">
@@ -37469,14 +37469,14 @@
       </c>
       <c r="F1357" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Poland</t>
         </is>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>BHR</t>
         </is>
       </c>
       <c r="B1358" t="n">
@@ -37495,14 +37495,14 @@
       </c>
       <c r="F1358" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Bahrain</t>
         </is>
       </c>
     </row>
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>BHR</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="B1359" t="n">
@@ -37521,14 +37521,14 @@
       </c>
       <c r="F1359" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Lithuania</t>
         </is>
       </c>
     </row>
     <row r="1360">
       <c r="A1360" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>SAU</t>
         </is>
       </c>
       <c r="B1360" t="n">
@@ -37547,14 +37547,14 @@
       </c>
       <c r="F1360" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
     </row>
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="B1361" t="n">
@@ -37573,14 +37573,14 @@
       </c>
       <c r="F1361" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="B1362" t="n">
@@ -37599,14 +37599,14 @@
       </c>
       <c r="F1362" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Latvia</t>
         </is>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>AND</t>
         </is>
       </c>
       <c r="B1363" t="n">
@@ -37625,14 +37625,14 @@
       </c>
       <c r="F1363" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Andorra</t>
         </is>
       </c>
     </row>
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>HRV</t>
         </is>
       </c>
       <c r="B1364" t="n">
@@ -37651,14 +37651,14 @@
       </c>
       <c r="F1364" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
     <row r="1365">
       <c r="A1365" t="inlineStr">
         <is>
-          <t>HRV</t>
+          <t>CHL</t>
         </is>
       </c>
       <c r="B1365" t="n">
@@ -37677,14 +37677,14 @@
       </c>
       <c r="F1365" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Chile</t>
         </is>
       </c>
     </row>
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>QAT</t>
         </is>
       </c>
       <c r="B1366" t="n">
@@ -37703,14 +37703,14 @@
       </c>
       <c r="F1366" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Qatar</t>
         </is>
       </c>
     </row>
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>QAT</t>
+          <t>SMR</t>
         </is>
       </c>
       <c r="B1367" t="n">
@@ -37729,14 +37729,14 @@
       </c>
       <c r="F1367" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>San Marino</t>
         </is>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>SMR</t>
+          <t>SVK</t>
         </is>
       </c>
       <c r="B1368" t="n">
@@ -37755,14 +37755,14 @@
       </c>
       <c r="F1368" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Slovakia</t>
         </is>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>HUN</t>
         </is>
       </c>
       <c r="B1369" t="n">
@@ -37781,14 +37781,14 @@
       </c>
       <c r="F1369" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Hungary</t>
         </is>
       </c>
     </row>
     <row r="1370">
       <c r="A1370" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="B1370" t="n">
@@ -37807,14 +37807,14 @@
       </c>
       <c r="F1370" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Argentina</t>
         </is>
       </c>
     </row>
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B1371" t="n">
@@ -37833,14 +37833,14 @@
       </c>
       <c r="F1371" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Türkiye</t>
         </is>
       </c>
     </row>
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>MNE</t>
         </is>
       </c>
       <c r="B1372" t="n">
@@ -37859,14 +37859,14 @@
       </c>
       <c r="F1372" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Montenegro</t>
         </is>
       </c>
     </row>
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>MNE</t>
+          <t>KWT</t>
         </is>
       </c>
       <c r="B1373" t="n">
@@ -37885,14 +37885,14 @@
       </c>
       <c r="F1373" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Kuwait</t>
         </is>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>KWT</t>
+          <t>BRN</t>
         </is>
       </c>
       <c r="B1374" t="n">
@@ -37911,14 +37911,14 @@
       </c>
       <c r="F1374" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
     </row>
     <row r="1375">
       <c r="A1375" t="inlineStr">
         <is>
-          <t>BRN</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="B1375" t="n">
@@ -37937,14 +37937,14 @@
       </c>
       <c r="F1375" t="inlineStr">
         <is>
-          <t>Brunei Darussalam</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>ROU</t>
         </is>
       </c>
       <c r="B1376" t="n">
@@ -37963,14 +37963,14 @@
       </c>
       <c r="F1376" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>OMN</t>
         </is>
       </c>
       <c r="B1377" t="n">
@@ -37989,14 +37989,14 @@
       </c>
       <c r="F1377" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Oman</t>
         </is>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>OMN</t>
+          <t>BHS</t>
         </is>
       </c>
       <c r="B1378" t="n">
@@ -38015,14 +38015,14 @@
       </c>
       <c r="F1378" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Bahamas</t>
         </is>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="B1379" t="n">
@@ -38041,14 +38041,14 @@
       </c>
       <c r="F1379" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
     </row>
     <row r="1380">
       <c r="A1380" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>TTO</t>
         </is>
       </c>
       <c r="B1380" t="n">
@@ -38067,14 +38067,14 @@
       </c>
       <c r="F1380" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
     </row>
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>TTO</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="B1381" t="n">
@@ -38093,14 +38093,14 @@
       </c>
       <c r="F1381" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>URY</t>
         </is>
       </c>
       <c r="B1382" t="n">
@@ -38119,14 +38119,14 @@
       </c>
       <c r="F1382" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="B1383" t="n">
@@ -38145,14 +38145,14 @@
       </c>
       <c r="F1383" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Belarus</t>
         </is>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="B1384" t="n">
@@ -38171,14 +38171,14 @@
       </c>
       <c r="F1384" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Panama</t>
         </is>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>MYS</t>
         </is>
       </c>
       <c r="B1385" t="n">
@@ -38197,14 +38197,14 @@
       </c>
       <c r="F1385" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Malaysia</t>
         </is>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>MYS</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="B1386" t="n">
@@ -38223,14 +38223,14 @@
       </c>
       <c r="F1386" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Georgia</t>
         </is>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>MUS</t>
         </is>
       </c>
       <c r="B1387" t="n">
@@ -38249,14 +38249,14 @@
       </c>
       <c r="F1387" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Mauritius</t>
         </is>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>MUS</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="B1388" t="n">
@@ -38275,14 +38275,14 @@
       </c>
       <c r="F1388" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Serbia</t>
         </is>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="B1389" t="n">
@@ -38301,14 +38301,14 @@
       </c>
       <c r="F1389" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>ALB</t>
         </is>
       </c>
       <c r="B1390" t="n">
@@ -38327,14 +38327,14 @@
       </c>
       <c r="F1390" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Albania</t>
         </is>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="B1391" t="n">
@@ -38353,14 +38353,14 @@
       </c>
       <c r="F1391" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Bulgaria</t>
         </is>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>GRD</t>
         </is>
       </c>
       <c r="B1392" t="n">
@@ -38379,14 +38379,14 @@
       </c>
       <c r="F1392" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Grenada</t>
         </is>
       </c>
     </row>
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>GRD</t>
+          <t>BRB</t>
         </is>
       </c>
       <c r="B1393" t="n">
@@ -38405,14 +38405,14 @@
       </c>
       <c r="F1393" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Barbados</t>
         </is>
       </c>
     </row>
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>ATG</t>
         </is>
       </c>
       <c r="B1394" t="n">
@@ -38431,14 +38431,14 @@
       </c>
       <c r="F1394" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Antigua and Barbuda</t>
         </is>
       </c>
     </row>
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>ATG</t>
+          <t>SYC</t>
         </is>
       </c>
       <c r="B1395" t="n">
@@ -38457,14 +38457,14 @@
       </c>
       <c r="F1395" t="inlineStr">
         <is>
-          <t>Antigua and Barbuda</t>
+          <t>Seychelles</t>
         </is>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>SYC</t>
+          <t>LKA</t>
         </is>
       </c>
       <c r="B1396" t="n">
@@ -38483,14 +38483,14 @@
       </c>
       <c r="F1396" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
     </row>
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>LKA</t>
+          <t>BIH</t>
         </is>
       </c>
       <c r="B1397" t="n">
@@ -38509,14 +38509,14 @@
       </c>
       <c r="F1397" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
     </row>
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>BIH</t>
+          <t>KNA</t>
         </is>
       </c>
       <c r="B1398" t="n">
@@ -38535,14 +38535,14 @@
       </c>
       <c r="F1398" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>St. Kitts and Nevis</t>
         </is>
       </c>
     </row>
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>KNA</t>
+          <t>IRN</t>
         </is>
       </c>
       <c r="B1399" t="n">
@@ -38561,14 +38561,14 @@
       </c>
       <c r="F1399" t="inlineStr">
         <is>
-          <t>St. Kitts and Nevis</t>
+          <t>Iran</t>
         </is>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>IRN</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="B1400" t="n">
@@ -38587,14 +38587,14 @@
       </c>
       <c r="F1400" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Ukraine</t>
         </is>
       </c>
     </row>
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>MKD</t>
         </is>
       </c>
       <c r="B1401" t="n">
@@ -38613,14 +38613,14 @@
       </c>
       <c r="F1401" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>North Macedonia</t>
         </is>
       </c>
     </row>
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>MKD</t>
+          <t>CHN</t>
         </is>
       </c>
       <c r="B1402" t="n">
@@ -38639,14 +38639,14 @@
       </c>
       <c r="F1402" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>China</t>
         </is>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="B1403" t="n">
@@ -38665,14 +38665,14 @@
       </c>
       <c r="F1403" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="B1404" t="n">
@@ -38691,14 +38691,14 @@
       </c>
       <c r="F1404" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Moldova</t>
         </is>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>PLW</t>
         </is>
       </c>
       <c r="B1405" t="n">
@@ -38717,14 +38717,14 @@
       </c>
       <c r="F1405" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Palau</t>
         </is>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>PLW</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="B1406" t="n">
@@ -38743,14 +38743,14 @@
       </c>
       <c r="F1406" t="inlineStr">
         <is>
-          <t>Palau</t>
+          <t>Cuba</t>
         </is>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="B1407" t="n">
@@ -38769,14 +38769,14 @@
       </c>
       <c r="F1407" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Peru</t>
         </is>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="B1408" t="n">
@@ -38795,14 +38795,14 @@
       </c>
       <c r="F1408" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Armenia</t>
         </is>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="B1409" t="n">
@@ -38821,14 +38821,14 @@
       </c>
       <c r="F1409" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Mexico</t>
         </is>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="B1410" t="n">
@@ -38847,14 +38847,14 @@
       </c>
       <c r="F1410" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Brazil</t>
         </is>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>BRA</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="B1411" t="n">
@@ -38873,14 +38873,14 @@
       </c>
       <c r="F1411" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Colombia</t>
         </is>
       </c>
     </row>
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>VCT</t>
         </is>
       </c>
       <c r="B1412" t="n">
@@ -38899,14 +38899,14 @@
       </c>
       <c r="F1412" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>St. Vincent and the Grenadines</t>
         </is>
       </c>
     </row>
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>VCT</t>
+          <t>MDV</t>
         </is>
       </c>
       <c r="B1413" t="n">
@@ -38925,14 +38925,14 @@
       </c>
       <c r="F1413" t="inlineStr">
         <is>
-          <t>St. Vincent and the Grenadines</t>
+          <t>Maldives</t>
         </is>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>MDV</t>
+          <t>DZA</t>
         </is>
       </c>
       <c r="B1414" t="n">
@@ -38951,14 +38951,14 @@
       </c>
       <c r="F1414" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Algeria</t>
         </is>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="B1415" t="n">
@@ -38977,14 +38977,14 @@
       </c>
       <c r="F1415" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="B1416" t="n">
@@ -39003,14 +39003,14 @@
       </c>
       <c r="F1416" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Tonga</t>
         </is>
       </c>
     </row>
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="B1417" t="n">
@@ -39029,14 +39029,14 @@
       </c>
       <c r="F1417" t="inlineStr">
         <is>
-          <t>Tonga</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
     </row>
     <row r="1418">
       <c r="A1418" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>ECU</t>
         </is>
       </c>
       <c r="B1418" t="n">
@@ -39055,14 +39055,14 @@
       </c>
       <c r="F1418" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="inlineStr">
         <is>
-          <t>ECU</t>
+          <t>MNG</t>
         </is>
       </c>
       <c r="B1419" t="n">
@@ -39081,14 +39081,14 @@
       </c>
       <c r="F1419" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Mongolia</t>
         </is>
       </c>
     </row>
     <row r="1420">
       <c r="A1420" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>EGY</t>
         </is>
       </c>
       <c r="B1420" t="n">
@@ -39107,14 +39107,14 @@
       </c>
       <c r="F1420" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Egypt</t>
         </is>
       </c>
     </row>
     <row r="1421">
       <c r="A1421" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>TUN</t>
         </is>
       </c>
       <c r="B1421" t="n">
@@ -39133,14 +39133,14 @@
       </c>
       <c r="F1421" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Tunisia</t>
         </is>
       </c>
     </row>
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>FJI</t>
         </is>
       </c>
       <c r="B1422" t="n">
@@ -39159,14 +39159,14 @@
       </c>
       <c r="F1422" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Fiji</t>
         </is>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>SUR</t>
         </is>
       </c>
       <c r="B1423" t="n">
@@ -39185,14 +39185,14 @@
       </c>
       <c r="F1423" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Suriname</t>
         </is>
       </c>
     </row>
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>SUR</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="B1424" t="n">
@@ -39211,14 +39211,14 @@
       </c>
       <c r="F1424" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
     </row>
     <row r="1425">
       <c r="A1425" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>DMA</t>
         </is>
       </c>
       <c r="B1425" t="n">
@@ -39237,14 +39237,14 @@
       </c>
       <c r="F1425" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Dominica</t>
         </is>
       </c>
     </row>
     <row r="1426">
       <c r="A1426" t="inlineStr">
         <is>
-          <t>DMA</t>
+          <t>JOR</t>
         </is>
       </c>
       <c r="B1426" t="n">
@@ -39263,14 +39263,14 @@
       </c>
       <c r="F1426" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Jordan</t>
         </is>
       </c>
     </row>
     <row r="1427">
       <c r="A1427" t="inlineStr">
         <is>
-          <t>JOR</t>
+          <t>LBY</t>
         </is>
       </c>
       <c r="B1427" t="n">
@@ -39289,14 +39289,14 @@
       </c>
       <c r="F1427" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Libya</t>
         </is>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>PRY</t>
         </is>
       </c>
       <c r="B1428" t="n">
@@ -39315,14 +39315,14 @@
       </c>
       <c r="F1428" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Paraguay</t>
         </is>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>PRY</t>
+          <t>PSE</t>
         </is>
       </c>
       <c r="B1429" t="n">
@@ -39341,14 +39341,14 @@
       </c>
       <c r="F1429" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Palestine</t>
         </is>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>PSE</t>
+          <t>LCA</t>
         </is>
       </c>
       <c r="B1430" t="n">
@@ -39367,14 +39367,14 @@
       </c>
       <c r="F1430" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>St. Lucia</t>
         </is>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>GUY</t>
         </is>
       </c>
       <c r="B1431" t="n">
@@ -39393,14 +39393,14 @@
       </c>
       <c r="F1431" t="inlineStr">
         <is>
-          <t>St. Lucia</t>
+          <t>Guyana</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>GUY</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="B1432" t="n">
@@ -39419,14 +39419,14 @@
       </c>
       <c r="F1432" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>South Africa</t>
         </is>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="B1433" t="n">
@@ -39445,14 +39445,14 @@
       </c>
       <c r="F1433" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Jamaica</t>
         </is>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>WSM</t>
         </is>
       </c>
       <c r="B1434" t="n">
@@ -39471,14 +39471,14 @@
       </c>
       <c r="F1434" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Samoa</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>WSM</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B1435" t="n">
@@ -39497,14 +39497,14 @@
       </c>
       <c r="F1435" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>Gabon</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>GAB</t>
+          <t>LBN</t>
         </is>
       </c>
       <c r="B1436" t="n">
@@ -39523,14 +39523,14 @@
       </c>
       <c r="F1436" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Lebanon</t>
         </is>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>LBN</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="B1437" t="n">
@@ -39549,14 +39549,14 @@
       </c>
       <c r="F1437" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="B1438" t="n">
@@ -39575,14 +39575,14 @@
       </c>
       <c r="F1438" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Vietnam</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B1439" t="n">
@@ -39601,14 +39601,14 @@
       </c>
       <c r="F1439" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>BWA</t>
         </is>
       </c>
       <c r="B1440" t="n">
@@ -39627,14 +39627,14 @@
       </c>
       <c r="F1440" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Botswana</t>
         </is>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>BOL</t>
         </is>
       </c>
       <c r="B1441" t="n">
@@ -39653,14 +39653,14 @@
       </c>
       <c r="F1441" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Bolivia</t>
         </is>
       </c>
     </row>
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>BOL</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="B1442" t="n">
@@ -39679,14 +39679,14 @@
       </c>
       <c r="F1442" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Kyrgyz Republic</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>VEN</t>
         </is>
       </c>
       <c r="B1443" t="n">
@@ -39705,14 +39705,14 @@
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Venezuela</t>
         </is>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>VEN</t>
+          <t>IRQ</t>
         </is>
       </c>
       <c r="B1444" t="n">
@@ -39731,14 +39731,14 @@
       </c>
       <c r="F1444" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Iraq</t>
         </is>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>IRQ</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="B1445" t="n">
@@ -39757,14 +39757,14 @@
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Tajikistan</t>
         </is>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="B1446" t="n">
@@ -39783,14 +39783,14 @@
       </c>
       <c r="F1446" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Belize</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="B1447" t="n">
@@ -39809,14 +39809,14 @@
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Morocco</t>
         </is>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="B1448" t="n">
@@ -39835,14 +39835,14 @@
       </c>
       <c r="F1448" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>El Salvador</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="B1449" t="n">
@@ -39861,14 +39861,14 @@
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Nicaragua</t>
         </is>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>BTN</t>
         </is>
       </c>
       <c r="B1450" t="n">
@@ -39887,14 +39887,14 @@
       </c>
       <c r="F1450" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Bhutan</t>
         </is>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>BTN</t>
+          <t>CPV</t>
         </is>
       </c>
       <c r="B1451" t="n">
@@ -39913,14 +39913,14 @@
       </c>
       <c r="F1451" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>CPV</t>
+          <t>BGD</t>
         </is>
       </c>
       <c r="B1452" t="n">
@@ -39939,14 +39939,14 @@
       </c>
       <c r="F1452" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Bangladesh</t>
         </is>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>BGD</t>
+          <t>TUV</t>
         </is>
       </c>
       <c r="B1453" t="n">
@@ -39965,14 +39965,14 @@
       </c>
       <c r="F1453" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Tuvalu</t>
         </is>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>TUV</t>
+          <t>MHL</t>
         </is>
       </c>
       <c r="B1454" t="n">
@@ -39991,14 +39991,14 @@
       </c>
       <c r="F1454" t="inlineStr">
         <is>
-          <t>Tuvalu</t>
+          <t>Marshall Islands</t>
         </is>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>MHL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B1455" t="n">
@@ -40017,14 +40017,14 @@
       </c>
       <c r="F1455" t="inlineStr">
         <is>
-          <t>Marshall Islands</t>
+          <t>India</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>GHA</t>
         </is>
       </c>
       <c r="B1456" t="n">
@@ -40043,14 +40043,14 @@
       </c>
       <c r="F1456" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Ghana</t>
         </is>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>GHA</t>
+          <t>FSM</t>
         </is>
       </c>
       <c r="B1457" t="n">
@@ -40069,14 +40069,14 @@
       </c>
       <c r="F1457" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Micronesia, Fed. Sts.</t>
         </is>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>FSM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="B1458" t="n">
@@ -40095,14 +40095,14 @@
       </c>
       <c r="F1458" t="inlineStr">
         <is>
-          <t>Micronesia, Fed. Sts.</t>
+          <t>Guatemala</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>KIR</t>
         </is>
       </c>
       <c r="B1459" t="n">
@@ -40121,14 +40121,14 @@
       </c>
       <c r="F1459" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Kiribati</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>KIR</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="B1460" t="n">
@@ -40147,14 +40147,14 @@
       </c>
       <c r="F1460" t="inlineStr">
         <is>
-          <t>Kiribati</t>
+          <t>Honduras</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>STP</t>
         </is>
       </c>
       <c r="B1461" t="n">
@@ -40173,14 +40173,14 @@
       </c>
       <c r="F1461" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>STP</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="B1462" t="n">
@@ -40199,14 +40199,14 @@
       </c>
       <c r="F1462" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Namibia</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="B1463" t="n">
@@ -40225,14 +40225,14 @@
       </c>
       <c r="F1463" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Laos</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="B1464" t="n">
@@ -40251,14 +40251,14 @@
       </c>
       <c r="F1464" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>VUT</t>
         </is>
       </c>
       <c r="B1465" t="n">
@@ -40277,14 +40277,14 @@
       </c>
       <c r="F1465" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Vanuatu</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>VUT</t>
+          <t>NPL</t>
         </is>
       </c>
       <c r="B1466" t="n">
@@ -40303,14 +40303,14 @@
       </c>
       <c r="F1466" t="inlineStr">
         <is>
-          <t>Vanuatu</t>
+          <t>Nepal</t>
         </is>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>SWZ</t>
         </is>
       </c>
       <c r="B1467" t="n">
@@ -40329,14 +40329,14 @@
       </c>
       <c r="F1467" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Eswatini</t>
         </is>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>GNQ</t>
         </is>
       </c>
       <c r="B1468" t="n">
@@ -40355,14 +40355,14 @@
       </c>
       <c r="F1468" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
     </row>
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>GNQ</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="B1469" t="n">
@@ -40381,14 +40381,14 @@
       </c>
       <c r="F1469" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Cambodia</t>
         </is>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="B1470" t="n">
@@ -40407,14 +40407,14 @@
       </c>
       <c r="F1470" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>ZWE</t>
+          <t>AGO</t>
         </is>
       </c>
       <c r="B1471" t="n">
@@ -40433,14 +40433,14 @@
       </c>
       <c r="F1471" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Angola</t>
         </is>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>AGO</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="B1472" t="n">
@@ -40459,14 +40459,14 @@
       </c>
       <c r="F1472" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Myanmar</t>
         </is>
       </c>
     </row>
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>SYR</t>
         </is>
       </c>
       <c r="B1473" t="n">
@@ -40485,14 +40485,14 @@
       </c>
       <c r="F1473" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Syria</t>
         </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>SYR</t>
+          <t>CMR</t>
         </is>
       </c>
       <c r="B1474" t="n">
@@ -40511,14 +40511,14 @@
       </c>
       <c r="F1474" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Cameroon</t>
         </is>
       </c>
     </row>
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="B1475" t="n">
@@ -40537,14 +40537,14 @@
       </c>
       <c r="F1475" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Kenya</t>
         </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>COG</t>
         </is>
       </c>
       <c r="B1476" t="n">
@@ -40563,14 +40563,14 @@
       </c>
       <c r="F1476" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Congo Republic</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>COG</t>
+          <t>ZMB</t>
         </is>
       </c>
       <c r="B1477" t="n">
@@ -40589,14 +40589,14 @@
       </c>
       <c r="F1477" t="inlineStr">
         <is>
-          <t>Congo Republic</t>
+          <t>Zambia</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>ZMB</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="B1478" t="n">
@@ -40615,14 +40615,14 @@
       </c>
       <c r="F1478" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>COM</t>
         </is>
       </c>
       <c r="B1479" t="n">
@@ -40641,14 +40641,14 @@
       </c>
       <c r="F1479" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Comoros</t>
         </is>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>PNG</t>
         </is>
       </c>
       <c r="B1480" t="n">
@@ -40667,14 +40667,14 @@
       </c>
       <c r="F1480" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>PNG</t>
+          <t>MRT</t>
         </is>
       </c>
       <c r="B1481" t="n">
@@ -40693,14 +40693,14 @@
       </c>
       <c r="F1481" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Mauritania</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>CIV</t>
         </is>
       </c>
       <c r="B1482" t="n">
@@ -40719,14 +40719,14 @@
       </c>
       <c r="F1482" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Cote d'Ivoire</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>CIV</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="B1483" t="n">
@@ -40745,14 +40745,14 @@
       </c>
       <c r="F1483" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Tanzania</t>
         </is>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="B1484" t="n">
@@ -40771,14 +40771,14 @@
       </c>
       <c r="F1484" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Pakistan</t>
         </is>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>TGO</t>
         </is>
       </c>
       <c r="B1485" t="n">
@@ -40797,14 +40797,14 @@
       </c>
       <c r="F1485" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Togo</t>
         </is>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>TGO</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="B1486" t="n">
@@ -40823,14 +40823,14 @@
       </c>
       <c r="F1486" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Haiti</t>
         </is>
       </c>
     </row>
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>NGA</t>
         </is>
       </c>
       <c r="B1487" t="n">
@@ -40849,14 +40849,14 @@
       </c>
       <c r="F1487" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Nigeria</t>
         </is>
       </c>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="B1488" t="n">
@@ -40875,14 +40875,14 @@
       </c>
       <c r="F1488" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Rwanda</t>
         </is>
       </c>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="B1489" t="n">
@@ -40901,14 +40901,14 @@
       </c>
       <c r="F1489" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Benin</t>
         </is>
       </c>
     </row>
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>BEN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="B1490" t="n">
@@ -40927,14 +40927,14 @@
       </c>
       <c r="F1490" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Uganda</t>
         </is>
       </c>
     </row>
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSO</t>
         </is>
       </c>
       <c r="B1491" t="n">
@@ -40953,14 +40953,14 @@
       </c>
       <c r="F1491" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Lesotho</t>
         </is>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="B1492" t="n">
@@ -40979,14 +40979,14 @@
       </c>
       <c r="F1492" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Malawi</t>
         </is>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>SEN</t>
         </is>
       </c>
       <c r="B1493" t="n">
@@ -41005,14 +41005,14 @@
       </c>
       <c r="F1493" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Senegal</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>DJI</t>
         </is>
       </c>
       <c r="B1494" t="n">
@@ -41031,14 +41031,14 @@
       </c>
       <c r="F1494" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Djibouti</t>
         </is>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>DJI</t>
+          <t>SDN</t>
         </is>
       </c>
       <c r="B1495" t="n">
@@ -41057,14 +41057,14 @@
       </c>
       <c r="F1495" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Sudan</t>
         </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="B1496" t="n">
@@ -41083,14 +41083,14 @@
       </c>
       <c r="F1496" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Madagascar</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>GMB</t>
         </is>
       </c>
       <c r="B1497" t="n">
@@ -41109,14 +41109,14 @@
       </c>
       <c r="F1497" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Gambia</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>ETH</t>
         </is>
       </c>
       <c r="B1498" t="n">
@@ -41135,14 +41135,14 @@
       </c>
       <c r="F1498" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Ethiopia</t>
         </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>ERI</t>
         </is>
       </c>
       <c r="B1499" t="n">
@@ -41161,14 +41161,14 @@
       </c>
       <c r="F1499" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Eritrea</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>ERI</t>
+          <t>GNB</t>
         </is>
       </c>
       <c r="B1500" t="n">
@@ -41187,14 +41187,14 @@
       </c>
       <c r="F1500" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>GNB</t>
+          <t>LBR</t>
         </is>
       </c>
       <c r="B1501" t="n">
@@ -41213,14 +41213,14 @@
       </c>
       <c r="F1501" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Liberia</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>LBR</t>
+          <t>COD</t>
         </is>
       </c>
       <c r="B1502" t="n">
@@ -41239,14 +41239,14 @@
       </c>
       <c r="F1502" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>DR Congo</t>
         </is>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>COD</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="B1503" t="n">
@@ -41265,14 +41265,14 @@
       </c>
       <c r="F1503" t="inlineStr">
         <is>
-          <t>DR Congo</t>
+          <t>Afghanistan</t>
         </is>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>SLE</t>
         </is>
       </c>
       <c r="B1504" t="n">
@@ -41291,14 +41291,14 @@
       </c>
       <c r="F1504" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>SLE</t>
+          <t>GIN</t>
         </is>
       </c>
       <c r="B1505" t="n">
@@ -41317,14 +41317,14 @@
       </c>
       <c r="F1505" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Guinea</t>
         </is>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>GIN</t>
+          <t>YEM</t>
         </is>
       </c>
       <c r="B1506" t="n">
@@ -41343,14 +41343,14 @@
       </c>
       <c r="F1506" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Yemen</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>YEM</t>
+          <t>BFA</t>
         </is>
       </c>
       <c r="B1507" t="n">
@@ -41369,14 +41369,14 @@
       </c>
       <c r="F1507" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>BFA</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="B1508" t="n">
@@ -41395,14 +41395,14 @@
       </c>
       <c r="F1508" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Mozambique</t>
         </is>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="B1509" t="n">
@@ -41421,14 +41421,14 @@
       </c>
       <c r="F1509" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Mali</t>
         </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>BDI</t>
         </is>
       </c>
       <c r="B1510" t="n">
@@ -41447,14 +41447,14 @@
       </c>
       <c r="F1510" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Burundi</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>BDI</t>
+          <t>CAF</t>
         </is>
       </c>
       <c r="B1511" t="n">
@@ -41473,14 +41473,14 @@
       </c>
       <c r="F1511" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Central African Republic</t>
         </is>
       </c>
     </row>
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>CAF</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B1512" t="n">
@@ -41499,14 +41499,14 @@
       </c>
       <c r="F1512" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Niger</t>
         </is>
       </c>
     </row>
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>TCD</t>
         </is>
       </c>
       <c r="B1513" t="n">
@@ -41525,14 +41525,14 @@
       </c>
       <c r="F1513" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Chad</t>
         </is>
       </c>
     </row>
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="B1514" t="n">
@@ -41551,14 +41551,14 @@
       </c>
       <c r="F1514" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>South Sudan</t>
         </is>
       </c>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>PRK</t>
         </is>
       </c>
       <c r="B1515" t="n">
@@ -41577,14 +41577,14 @@
       </c>
       <c r="F1515" t="inlineStr">
         <is>
-          <t>South Sudan</t>
+          <t>North Korea</t>
         </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>PRK</t>
+          <t>MCO</t>
         </is>
       </c>
       <c r="B1516" t="n">
@@ -41603,14 +41603,14 @@
       </c>
       <c r="F1516" t="inlineStr">
         <is>
-          <t>North Korea</t>
+          <t>Monaco</t>
         </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>NRU</t>
         </is>
       </c>
       <c r="B1517" t="n">
@@ -41629,14 +41629,14 @@
       </c>
       <c r="F1517" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Nauru</t>
         </is>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>NRU</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="B1518" t="n">
@@ -41654,32 +41654,6 @@
         </is>
       </c>
       <c r="F1518" t="inlineStr">
-        <is>
-          <t>Nauru</t>
-        </is>
-      </c>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="inlineStr">
-        <is>
-          <t>SOM</t>
-        </is>
-      </c>
-      <c r="B1519" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C1519" t="inlineStr">
-        <is>
-          <t>Human Development Index</t>
-        </is>
-      </c>
-      <c r="D1519" t="inlineStr"/>
-      <c r="E1519" t="inlineStr">
-        <is>
-          <t>UNDP Human Development Report</t>
-        </is>
-      </c>
-      <c r="F1519" t="inlineStr">
         <is>
           <t>Somalia</t>
         </is>

--- a/charts_download/explorers/econ_metadata.xlsx
+++ b/charts_download/explorers/econ_metadata.xlsx
@@ -25000,7 +25000,7 @@
         </is>
       </c>
       <c r="B878" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C878" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="B879" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C879" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         </is>
       </c>
       <c r="B880" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C880" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         </is>
       </c>
       <c r="B881" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C881" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         </is>
       </c>
       <c r="B882" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C882" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         </is>
       </c>
       <c r="B883" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C883" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         </is>
       </c>
       <c r="B884" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C884" t="inlineStr">
         <is>
@@ -25182,7 +25182,7 @@
         </is>
       </c>
       <c r="B885" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C885" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         </is>
       </c>
       <c r="B886" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C886" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         </is>
       </c>
       <c r="B887" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C887" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         </is>
       </c>
       <c r="B888" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C888" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         </is>
       </c>
       <c r="B889" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C889" t="inlineStr">
         <is>
@@ -25312,7 +25312,7 @@
         </is>
       </c>
       <c r="B890" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C890" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         </is>
       </c>
       <c r="B891" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C891" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         </is>
       </c>
       <c r="B892" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C892" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B893" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C893" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         </is>
       </c>
       <c r="B894" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C894" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         </is>
       </c>
       <c r="B895" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C895" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         </is>
       </c>
       <c r="B896" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C896" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         </is>
       </c>
       <c r="B897" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C897" t="inlineStr">
         <is>
@@ -25520,7 +25520,7 @@
         </is>
       </c>
       <c r="B898" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C898" t="inlineStr">
         <is>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B899" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C899" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         </is>
       </c>
       <c r="B900" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C900" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         </is>
       </c>
       <c r="B901" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C901" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         </is>
       </c>
       <c r="B902" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C902" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         </is>
       </c>
       <c r="B903" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C903" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         </is>
       </c>
       <c r="B904" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C904" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         </is>
       </c>
       <c r="B905" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C905" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         </is>
       </c>
       <c r="B906" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C906" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         </is>
       </c>
       <c r="B907" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C907" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         </is>
       </c>
       <c r="B908" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C908" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         </is>
       </c>
       <c r="B909" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C909" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         </is>
       </c>
       <c r="B910" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C910" t="inlineStr">
         <is>
@@ -25858,7 +25858,7 @@
         </is>
       </c>
       <c r="B911" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C911" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         </is>
       </c>
       <c r="B912" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C912" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         </is>
       </c>
       <c r="B913" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C913" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         </is>
       </c>
       <c r="B914" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C914" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         </is>
       </c>
       <c r="B915" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C915" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         </is>
       </c>
       <c r="B916" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C916" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         </is>
       </c>
       <c r="B917" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C917" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         </is>
       </c>
       <c r="B918" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C918" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="B919" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C919" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         </is>
       </c>
       <c r="B920" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C920" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         </is>
       </c>
       <c r="B921" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C921" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         </is>
       </c>
       <c r="B922" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C922" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         </is>
       </c>
       <c r="B923" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C923" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="B924" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C924" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         </is>
       </c>
       <c r="B925" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C925" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         </is>
       </c>
       <c r="B926" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C926" t="inlineStr">
         <is>
@@ -26274,7 +26274,7 @@
         </is>
       </c>
       <c r="B927" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C927" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         </is>
       </c>
       <c r="B928" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C928" t="inlineStr">
         <is>
@@ -26326,7 +26326,7 @@
         </is>
       </c>
       <c r="B929" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C929" t="inlineStr">
         <is>
@@ -26352,7 +26352,7 @@
         </is>
       </c>
       <c r="B930" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C930" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         </is>
       </c>
       <c r="B931" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C931" t="inlineStr">
         <is>
@@ -26404,7 +26404,7 @@
         </is>
       </c>
       <c r="B932" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C932" t="inlineStr">
         <is>
@@ -26430,7 +26430,7 @@
         </is>
       </c>
       <c r="B933" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C933" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         </is>
       </c>
       <c r="B934" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C934" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         </is>
       </c>
       <c r="B935" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C935" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         </is>
       </c>
       <c r="B936" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C936" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         </is>
       </c>
       <c r="B937" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C937" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         </is>
       </c>
       <c r="B938" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C938" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         </is>
       </c>
       <c r="B939" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C939" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         </is>
       </c>
       <c r="B940" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C940" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         </is>
       </c>
       <c r="B941" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C941" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         </is>
       </c>
       <c r="B942" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C942" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         </is>
       </c>
       <c r="B943" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C943" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         </is>
       </c>
       <c r="B944" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C944" t="inlineStr">
         <is>
@@ -26742,7 +26742,7 @@
         </is>
       </c>
       <c r="B945" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C945" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         </is>
       </c>
       <c r="B946" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C946" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         </is>
       </c>
       <c r="B947" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C947" t="inlineStr">
         <is>
@@ -26820,7 +26820,7 @@
         </is>
       </c>
       <c r="B948" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C948" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="B949" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C949" t="inlineStr">
         <is>
@@ -26872,7 +26872,7 @@
         </is>
       </c>
       <c r="B950" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C950" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         </is>
       </c>
       <c r="B951" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C951" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         </is>
       </c>
       <c r="B952" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C952" t="inlineStr">
         <is>
@@ -26950,7 +26950,7 @@
         </is>
       </c>
       <c r="B953" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C953" t="inlineStr">
         <is>
@@ -26976,7 +26976,7 @@
         </is>
       </c>
       <c r="B954" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C954" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         </is>
       </c>
       <c r="B955" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C955" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         </is>
       </c>
       <c r="B956" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C956" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         </is>
       </c>
       <c r="B957" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C957" t="inlineStr">
         <is>
@@ -27080,7 +27080,7 @@
         </is>
       </c>
       <c r="B958" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C958" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="B959" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C959" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         </is>
       </c>
       <c r="B960" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C960" t="inlineStr">
         <is>
@@ -27158,7 +27158,7 @@
         </is>
       </c>
       <c r="B961" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C961" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         </is>
       </c>
       <c r="B962" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C962" t="inlineStr">
         <is>
@@ -27210,7 +27210,7 @@
         </is>
       </c>
       <c r="B963" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C963" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         </is>
       </c>
       <c r="B964" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C964" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         </is>
       </c>
       <c r="B965" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C965" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         </is>
       </c>
       <c r="B966" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C966" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         </is>
       </c>
       <c r="B967" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C967" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         </is>
       </c>
       <c r="B968" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C968" t="inlineStr">
         <is>
@@ -27366,7 +27366,7 @@
         </is>
       </c>
       <c r="B969" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C969" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         </is>
       </c>
       <c r="B970" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C970" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         </is>
       </c>
       <c r="B971" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C971" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         </is>
       </c>
       <c r="B972" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C972" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         </is>
       </c>
       <c r="B973" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C973" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="B974" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C974" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         </is>
       </c>
       <c r="B975" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C975" t="inlineStr">
         <is>
@@ -27548,7 +27548,7 @@
         </is>
       </c>
       <c r="B976" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C976" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         </is>
       </c>
       <c r="B977" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C977" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         </is>
       </c>
       <c r="B978" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C978" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         </is>
       </c>
       <c r="B979" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C979" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         </is>
       </c>
       <c r="B980" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C980" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         </is>
       </c>
       <c r="B981" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C981" t="inlineStr">
         <is>
@@ -27704,7 +27704,7 @@
         </is>
       </c>
       <c r="B982" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C982" t="inlineStr">
         <is>
@@ -27730,7 +27730,7 @@
         </is>
       </c>
       <c r="B983" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C983" t="inlineStr">
         <is>
@@ -27756,7 +27756,7 @@
         </is>
       </c>
       <c r="B984" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C984" t="inlineStr">
         <is>
@@ -27782,7 +27782,7 @@
         </is>
       </c>
       <c r="B985" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C985" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         </is>
       </c>
       <c r="B986" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C986" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         </is>
       </c>
       <c r="B987" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C987" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         </is>
       </c>
       <c r="B988" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C988" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         </is>
       </c>
       <c r="B989" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C989" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         </is>
       </c>
       <c r="B990" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C990" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         </is>
       </c>
       <c r="B991" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C991" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         </is>
       </c>
       <c r="B992" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C992" t="inlineStr">
         <is>
@@ -27990,7 +27990,7 @@
         </is>
       </c>
       <c r="B993" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C993" t="inlineStr">
         <is>
@@ -28016,7 +28016,7 @@
         </is>
       </c>
       <c r="B994" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C994" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         </is>
       </c>
       <c r="B995" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C995" t="inlineStr">
         <is>
@@ -28068,7 +28068,7 @@
         </is>
       </c>
       <c r="B996" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C996" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         </is>
       </c>
       <c r="B997" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C997" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         </is>
       </c>
       <c r="B998" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C998" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="B999" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C999" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         </is>
       </c>
       <c r="B1000" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1000" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         </is>
       </c>
       <c r="B1001" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1001" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         </is>
       </c>
       <c r="B1002" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1002" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         </is>
       </c>
       <c r="B1003" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1003" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         </is>
       </c>
       <c r="B1004" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1004" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         </is>
       </c>
       <c r="B1005" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1005" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         </is>
       </c>
       <c r="B1006" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1006" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         </is>
       </c>
       <c r="B1007" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1007" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         </is>
       </c>
       <c r="B1008" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1008" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         </is>
       </c>
       <c r="B1009" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1009" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         </is>
       </c>
       <c r="B1010" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1010" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         </is>
       </c>
       <c r="B1011" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1011" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         </is>
       </c>
       <c r="B1012" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1012" t="inlineStr">
         <is>
@@ -28510,7 +28510,7 @@
         </is>
       </c>
       <c r="B1013" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1013" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         </is>
       </c>
       <c r="B1014" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1014" t="inlineStr">
         <is>
@@ -28562,7 +28562,7 @@
         </is>
       </c>
       <c r="B1015" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1015" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         </is>
       </c>
       <c r="B1016" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1016" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         </is>
       </c>
       <c r="B1017" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1017" t="inlineStr">
         <is>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B1018" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1018" t="inlineStr">
         <is>
@@ -28666,7 +28666,7 @@
         </is>
       </c>
       <c r="B1019" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1019" t="inlineStr">
         <is>
@@ -28692,7 +28692,7 @@
         </is>
       </c>
       <c r="B1020" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1020" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         </is>
       </c>
       <c r="B1021" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1021" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         </is>
       </c>
       <c r="B1022" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1022" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         </is>
       </c>
       <c r="B1023" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1023" t="inlineStr">
         <is>
@@ -28796,7 +28796,7 @@
         </is>
       </c>
       <c r="B1024" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1024" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         </is>
       </c>
       <c r="B1025" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1025" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         </is>
       </c>
       <c r="B1026" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1026" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         </is>
       </c>
       <c r="B1027" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1027" t="inlineStr">
         <is>
@@ -28900,7 +28900,7 @@
         </is>
       </c>
       <c r="B1028" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1028" t="inlineStr">
         <is>
@@ -28926,7 +28926,7 @@
         </is>
       </c>
       <c r="B1029" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1029" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         </is>
       </c>
       <c r="B1030" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1030" t="inlineStr">
         <is>
@@ -28978,7 +28978,7 @@
         </is>
       </c>
       <c r="B1031" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1031" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
         </is>
       </c>
       <c r="B1032" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1032" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         </is>
       </c>
       <c r="B1033" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1033" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         </is>
       </c>
       <c r="B1034" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1034" t="inlineStr">
         <is>
@@ -29082,7 +29082,7 @@
         </is>
       </c>
       <c r="B1035" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1035" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         </is>
       </c>
       <c r="B1036" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1036" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         </is>
       </c>
       <c r="B1037" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1037" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         </is>
       </c>
       <c r="B1038" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1038" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="B1039" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1039" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         </is>
       </c>
       <c r="B1040" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1040" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         </is>
       </c>
       <c r="B1041" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1041" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         </is>
       </c>
       <c r="B1042" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1042" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         </is>
       </c>
       <c r="B1043" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1043" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         </is>
       </c>
       <c r="B1044" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1044" t="inlineStr">
         <is>
@@ -29342,7 +29342,7 @@
         </is>
       </c>
       <c r="B1045" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1045" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         </is>
       </c>
       <c r="B1046" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1046" t="inlineStr">
         <is>
@@ -29394,7 +29394,7 @@
         </is>
       </c>
       <c r="B1047" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1047" t="inlineStr">
         <is>
@@ -29420,7 +29420,7 @@
         </is>
       </c>
       <c r="B1048" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1048" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         </is>
       </c>
       <c r="B1049" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1049" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         </is>
       </c>
       <c r="B1050" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1050" t="inlineStr">
         <is>
@@ -29498,7 +29498,7 @@
         </is>
       </c>
       <c r="B1051" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1051" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         </is>
       </c>
       <c r="B1052" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1052" t="inlineStr">
         <is>
@@ -29550,7 +29550,7 @@
         </is>
       </c>
       <c r="B1053" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1053" t="inlineStr">
         <is>
@@ -29576,7 +29576,7 @@
         </is>
       </c>
       <c r="B1054" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1054" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         </is>
       </c>
       <c r="B1055" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1055" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         </is>
       </c>
       <c r="B1056" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1056" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         </is>
       </c>
       <c r="B1057" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1057" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         </is>
       </c>
       <c r="B1058" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1058" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         </is>
       </c>
       <c r="B1059" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1059" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         </is>
       </c>
       <c r="B1060" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1060" t="inlineStr">
         <is>
@@ -29758,7 +29758,7 @@
         </is>
       </c>
       <c r="B1061" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1061" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         </is>
       </c>
       <c r="B1062" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1062" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         </is>
       </c>
       <c r="B1063" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1063" t="inlineStr">
         <is>
@@ -29836,7 +29836,7 @@
         </is>
       </c>
       <c r="B1064" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1064" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         </is>
       </c>
       <c r="B1065" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1065" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         </is>
       </c>
       <c r="B1066" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1066" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         </is>
       </c>
       <c r="B1067" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1067" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         </is>
       </c>
       <c r="B1068" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1068" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         </is>
       </c>
       <c r="B1069" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1069" t="inlineStr">
         <is>
@@ -29992,7 +29992,7 @@
         </is>
       </c>
       <c r="B1070" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1070" t="inlineStr">
         <is>
@@ -30018,7 +30018,7 @@
         </is>
       </c>
       <c r="B1071" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1071" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         </is>
       </c>
       <c r="B1072" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1072" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         </is>
       </c>
       <c r="B1073" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1073" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         </is>
       </c>
       <c r="B1074" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1074" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         </is>
       </c>
       <c r="B1075" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1075" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         </is>
       </c>
       <c r="B1076" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1076" t="inlineStr">
         <is>
@@ -30174,7 +30174,7 @@
         </is>
       </c>
       <c r="B1077" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1077" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         </is>
       </c>
       <c r="B1078" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1078" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="B1079" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1079" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         </is>
       </c>
       <c r="B1080" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1080" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         </is>
       </c>
       <c r="B1081" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1081" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         </is>
       </c>
       <c r="B1082" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1082" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         </is>
       </c>
       <c r="B1083" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1083" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         </is>
       </c>
       <c r="B1084" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1084" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         </is>
       </c>
       <c r="B1085" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1085" t="inlineStr">
         <is>
@@ -30408,7 +30408,7 @@
         </is>
       </c>
       <c r="B1086" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1086" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         </is>
       </c>
       <c r="B1087" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1087" t="inlineStr">
         <is>
@@ -30460,7 +30460,7 @@
         </is>
       </c>
       <c r="B1088" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1088" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         </is>
       </c>
       <c r="B1089" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1089" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         </is>
       </c>
       <c r="B1090" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1090" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         </is>
       </c>
       <c r="B1091" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1091" t="inlineStr">
         <is>
@@ -30564,7 +30564,7 @@
         </is>
       </c>
       <c r="B1092" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1092" t="inlineStr">
         <is>
@@ -30590,7 +30590,7 @@
         </is>
       </c>
       <c r="B1093" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1093" t="inlineStr">
         <is>
@@ -30616,7 +30616,7 @@
         </is>
       </c>
       <c r="B1094" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1094" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         </is>
       </c>
       <c r="B1095" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1095" t="inlineStr">
         <is>
@@ -30668,7 +30668,7 @@
         </is>
       </c>
       <c r="B1096" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1096" t="inlineStr">
         <is>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B1097" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1097" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         </is>
       </c>
       <c r="B1098" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1098" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         </is>
       </c>
       <c r="B1099" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1099" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         </is>
       </c>
       <c r="B1100" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1100" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         </is>
       </c>
       <c r="B1101" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1101" t="inlineStr">
         <is>
@@ -30824,7 +30824,7 @@
         </is>
       </c>
       <c r="B1102" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1102" t="inlineStr">
         <is>
@@ -30850,7 +30850,7 @@
         </is>
       </c>
       <c r="B1103" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1103" t="inlineStr">
         <is>
@@ -30876,7 +30876,7 @@
         </is>
       </c>
       <c r="B1104" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1104" t="inlineStr">
         <is>
@@ -30902,7 +30902,7 @@
         </is>
       </c>
       <c r="B1105" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1105" t="inlineStr">
         <is>
@@ -30928,7 +30928,7 @@
         </is>
       </c>
       <c r="B1106" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1106" t="inlineStr">
         <is>
@@ -30954,7 +30954,7 @@
         </is>
       </c>
       <c r="B1107" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1107" t="inlineStr">
         <is>
@@ -30980,7 +30980,7 @@
         </is>
       </c>
       <c r="B1108" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1108" t="inlineStr">
         <is>
@@ -31006,7 +31006,7 @@
         </is>
       </c>
       <c r="B1109" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1109" t="inlineStr">
         <is>
@@ -31032,7 +31032,7 @@
         </is>
       </c>
       <c r="B1110" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1110" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         </is>
       </c>
       <c r="B1111" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1111" t="inlineStr">
         <is>
@@ -31084,7 +31084,7 @@
         </is>
       </c>
       <c r="B1112" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1112" t="inlineStr">
         <is>
@@ -31110,7 +31110,7 @@
         </is>
       </c>
       <c r="B1113" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1113" t="inlineStr">
         <is>
@@ -31136,7 +31136,7 @@
         </is>
       </c>
       <c r="B1114" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1114" t="inlineStr">
         <is>
@@ -31162,7 +31162,7 @@
         </is>
       </c>
       <c r="B1115" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1115" t="inlineStr">
         <is>
@@ -31188,7 +31188,7 @@
         </is>
       </c>
       <c r="B1116" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1116" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         </is>
       </c>
       <c r="B1117" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1117" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         </is>
       </c>
       <c r="B1118" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1118" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="B1119" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1119" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         </is>
       </c>
       <c r="B1120" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1120" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         </is>
       </c>
       <c r="B1121" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1121" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         </is>
       </c>
       <c r="B1122" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1122" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         </is>
       </c>
       <c r="B1123" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1123" t="inlineStr">
         <is>
@@ -31396,7 +31396,7 @@
         </is>
       </c>
       <c r="B1124" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1124" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         </is>
       </c>
       <c r="B1125" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1125" t="inlineStr">
         <is>
@@ -31448,7 +31448,7 @@
         </is>
       </c>
       <c r="B1126" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1126" t="inlineStr">
         <is>
@@ -31474,7 +31474,7 @@
         </is>
       </c>
       <c r="B1127" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1127" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         </is>
       </c>
       <c r="B1128" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
@@ -31526,7 +31526,7 @@
         </is>
       </c>
       <c r="B1129" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
@@ -31552,7 +31552,7 @@
         </is>
       </c>
       <c r="B1130" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
@@ -31578,7 +31578,7 @@
         </is>
       </c>
       <c r="B1131" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         </is>
       </c>
       <c r="B1132" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         </is>
       </c>
       <c r="B1133" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         </is>
       </c>
       <c r="B1134" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
@@ -31682,7 +31682,7 @@
         </is>
       </c>
       <c r="B1135" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         </is>
       </c>
       <c r="B1136" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         </is>
       </c>
       <c r="B1137" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
@@ -31760,7 +31760,7 @@
         </is>
       </c>
       <c r="B1138" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         </is>
       </c>
       <c r="B1139" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         </is>
       </c>
       <c r="B1140" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
@@ -31838,7 +31838,7 @@
         </is>
       </c>
       <c r="B1141" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         </is>
       </c>
       <c r="B1142" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1142" t="inlineStr">
         <is>

--- a/charts_download/explorers/econ_metadata.xlsx
+++ b/charts_download/explorers/econ_metadata.xlsx
@@ -32202,7 +32202,7 @@
         </is>
       </c>
       <c r="B1155" t="n">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
@@ -32384,7 +32384,7 @@
         </is>
       </c>
       <c r="B1162" t="n">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
@@ -32436,7 +32436,7 @@
         </is>
       </c>
       <c r="B1164" t="n">
-        <v>2008</v>
+        <v>2021</v>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
@@ -32462,7 +32462,7 @@
         </is>
       </c>
       <c r="B1165" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         </is>
       </c>
       <c r="B1168" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
@@ -32748,7 +32748,7 @@
         </is>
       </c>
       <c r="B1176" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         </is>
       </c>
       <c r="B1184" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
@@ -33008,7 +33008,7 @@
         </is>
       </c>
       <c r="B1186" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
@@ -33528,7 +33528,7 @@
         </is>
       </c>
       <c r="B1206" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
@@ -33710,7 +33710,7 @@
         </is>
       </c>
       <c r="B1213" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
@@ -33996,7 +33996,7 @@
         </is>
       </c>
       <c r="B1224" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C1224" t="inlineStr">
         <is>
@@ -34230,7 +34230,7 @@
         </is>
       </c>
       <c r="B1233" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
@@ -34282,7 +34282,7 @@
         </is>
       </c>
       <c r="B1235" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
@@ -34308,7 +34308,7 @@
         </is>
       </c>
       <c r="B1236" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1236" t="inlineStr">
         <is>
@@ -34776,7 +34776,7 @@
         </is>
       </c>
       <c r="B1254" t="n">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C1254" t="inlineStr">
         <is>
@@ -35296,7 +35296,7 @@
         </is>
       </c>
       <c r="B1274" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1274" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="B1279" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C1279" t="inlineStr">
         <is>
@@ -35556,7 +35556,7 @@
         </is>
       </c>
       <c r="B1284" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1284" t="inlineStr">
         <is>
@@ -36232,7 +36232,7 @@
         </is>
       </c>
       <c r="B1310" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1310" t="inlineStr">
         <is>
@@ -36284,7 +36284,7 @@
         </is>
       </c>
       <c r="B1312" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1312" t="inlineStr">
         <is>

--- a/charts_download/explorers/econ_metadata.xlsx
+++ b/charts_download/explorers/econ_metadata.xlsx
@@ -1665,7 +1665,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
     </row>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
     </row>
@@ -20817,7 +20817,7 @@
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
     </row>
@@ -26447,7 +26447,7 @@
       </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
     </row>
@@ -27071,7 +27071,7 @@
       </c>
       <c r="F957" t="inlineStr">
         <is>
-          <t>Faeroe Islands</t>
+          <t>Faroe Islands</t>
         </is>
       </c>
     </row>
@@ -32843,7 +32843,7 @@
       </c>
       <c r="F1179" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
     </row>
@@ -37445,7 +37445,7 @@
       </c>
       <c r="F1356" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
     </row>

--- a/charts_download/explorers/econ_metadata.xlsx
+++ b/charts_download/explorers/econ_metadata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1518"/>
+  <dimension ref="A1:F1519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31968,7 +31968,7 @@
         </is>
       </c>
       <c r="B1146" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
@@ -31994,7 +31994,7 @@
         </is>
       </c>
       <c r="B1147" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
@@ -32046,7 +32046,7 @@
         </is>
       </c>
       <c r="B1149" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
@@ -32098,7 +32098,7 @@
         </is>
       </c>
       <c r="B1151" t="n">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         </is>
       </c>
       <c r="B1152" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         </is>
       </c>
       <c r="B1153" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         </is>
       </c>
       <c r="B1154" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         </is>
       </c>
       <c r="B1156" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
@@ -32358,7 +32358,7 @@
         </is>
       </c>
       <c r="B1161" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
@@ -32488,7 +32488,7 @@
         </is>
       </c>
       <c r="B1166" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         </is>
       </c>
       <c r="B1167" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
@@ -32566,7 +32566,7 @@
         </is>
       </c>
       <c r="B1169" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         </is>
       </c>
       <c r="B1170" t="n">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
@@ -32618,7 +32618,7 @@
         </is>
       </c>
       <c r="B1171" t="n">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         </is>
       </c>
       <c r="B1173" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         </is>
       </c>
       <c r="B1177" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         </is>
       </c>
       <c r="B1178" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         </is>
       </c>
       <c r="B1181" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
@@ -32904,7 +32904,7 @@
         </is>
       </c>
       <c r="B1182" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         </is>
       </c>
       <c r="B1184" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         </is>
       </c>
       <c r="B1185" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
@@ -33060,7 +33060,7 @@
         </is>
       </c>
       <c r="B1188" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         </is>
       </c>
       <c r="B1189" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
@@ -33164,7 +33164,7 @@
         </is>
       </c>
       <c r="B1192" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         </is>
       </c>
       <c r="B1194" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         </is>
       </c>
       <c r="B1197" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         </is>
       </c>
       <c r="B1202" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         </is>
       </c>
       <c r="B1203" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
@@ -33472,11 +33472,11 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>GRD</t>
         </is>
       </c>
       <c r="B1204" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
@@ -33491,18 +33491,18 @@
       </c>
       <c r="F1204" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Grenada</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>GUY</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="B1205" t="n">
-        <v>1998</v>
+        <v>2014</v>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
@@ -33517,18 +33517,18 @@
       </c>
       <c r="F1205" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Guatemala</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>HIC</t>
+          <t>GUY</t>
         </is>
       </c>
       <c r="B1206" t="n">
-        <v>2020</v>
+        <v>1998</v>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
@@ -33543,18 +33543,18 @@
       </c>
       <c r="F1206" t="inlineStr">
         <is>
-          <t>HIC</t>
+          <t>Guyana</t>
         </is>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HIC</t>
         </is>
       </c>
       <c r="B1207" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
@@ -33569,18 +33569,18 @@
       </c>
       <c r="F1207" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>HIC</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>HRV</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="B1208" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
@@ -33595,18 +33595,18 @@
       </c>
       <c r="F1208" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Honduras</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>HRV</t>
         </is>
       </c>
       <c r="B1209" t="n">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
@@ -33621,18 +33621,18 @@
       </c>
       <c r="F1209" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="B1210" t="n">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
@@ -33647,18 +33647,18 @@
       </c>
       <c r="F1210" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Haiti</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>IDA</t>
+          <t>HUN</t>
         </is>
       </c>
       <c r="B1211" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
@@ -33673,18 +33673,18 @@
       </c>
       <c r="F1211" t="inlineStr">
         <is>
-          <t>IDA</t>
+          <t>Hungary</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IDA</t>
         </is>
       </c>
       <c r="B1212" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
@@ -33699,18 +33699,18 @@
       </c>
       <c r="F1212" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>IDA</t>
         </is>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="B1213" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
@@ -33725,18 +33725,18 @@
       </c>
       <c r="F1213" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B1214" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
@@ -33751,18 +33751,18 @@
       </c>
       <c r="F1214" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>India</t>
         </is>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>IRN</t>
+          <t>IRL</t>
         </is>
       </c>
       <c r="B1215" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
@@ -33777,18 +33777,18 @@
       </c>
       <c r="F1215" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Ireland</t>
         </is>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>IRQ</t>
+          <t>IRN</t>
         </is>
       </c>
       <c r="B1216" t="n">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
@@ -33803,18 +33803,18 @@
       </c>
       <c r="F1216" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Iran</t>
         </is>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>ISL</t>
+          <t>IRQ</t>
         </is>
       </c>
       <c r="B1217" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
@@ -33829,18 +33829,18 @@
       </c>
       <c r="F1217" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Iraq</t>
         </is>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>ISR</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="B1218" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
@@ -33855,18 +33855,18 @@
       </c>
       <c r="F1218" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Iceland</t>
         </is>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>ISR</t>
         </is>
       </c>
       <c r="B1219" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
@@ -33881,18 +33881,18 @@
       </c>
       <c r="F1219" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Israel</t>
         </is>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="B1220" t="n">
-        <v>2004</v>
+        <v>2021</v>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
@@ -33907,18 +33907,18 @@
       </c>
       <c r="F1220" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>JOR</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="B1221" t="n">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
@@ -33933,18 +33933,18 @@
       </c>
       <c r="F1221" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Jamaica</t>
         </is>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>JOR</t>
         </is>
       </c>
       <c r="B1222" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
@@ -33959,18 +33959,18 @@
       </c>
       <c r="F1222" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Jordan</t>
         </is>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="B1223" t="n">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
@@ -33985,14 +33985,14 @@
       </c>
       <c r="F1223" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="B1224" t="n">
@@ -34011,18 +34011,18 @@
       </c>
       <c r="F1224" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="B1225" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
@@ -34037,18 +34037,18 @@
       </c>
       <c r="F1225" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Kenya</t>
         </is>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>KIR</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="B1226" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C1226" t="inlineStr">
         <is>
@@ -34063,18 +34063,18 @@
       </c>
       <c r="F1226" t="inlineStr">
         <is>
-          <t>Kiribati</t>
+          <t>Kyrgyz Republic</t>
         </is>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>KIR</t>
         </is>
       </c>
       <c r="B1227" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C1227" t="inlineStr">
         <is>
@@ -34089,18 +34089,18 @@
       </c>
       <c r="F1227" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Kiribati</t>
         </is>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>KOR</t>
         </is>
       </c>
       <c r="B1228" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
@@ -34115,18 +34115,18 @@
       </c>
       <c r="F1228" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>LBN</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="B1229" t="n">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
@@ -34141,18 +34141,18 @@
       </c>
       <c r="F1229" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Laos</t>
         </is>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>LBR</t>
+          <t>LBN</t>
         </is>
       </c>
       <c r="B1230" t="n">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C1230" t="inlineStr">
         <is>
@@ -34167,14 +34167,14 @@
       </c>
       <c r="F1230" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Lebanon</t>
         </is>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>LBR</t>
         </is>
       </c>
       <c r="B1231" t="n">
@@ -34193,18 +34193,18 @@
       </c>
       <c r="F1231" t="inlineStr">
         <is>
-          <t>St. Lucia</t>
+          <t>Liberia</t>
         </is>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>LCN</t>
+          <t>LCA</t>
         </is>
       </c>
       <c r="B1232" t="n">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
@@ -34219,18 +34219,18 @@
       </c>
       <c r="F1232" t="inlineStr">
         <is>
-          <t>LCN</t>
+          <t>St. Lucia</t>
         </is>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>LIC</t>
+          <t>LCN</t>
         </is>
       </c>
       <c r="B1233" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
@@ -34245,18 +34245,18 @@
       </c>
       <c r="F1233" t="inlineStr">
         <is>
-          <t>LIC</t>
+          <t>LCN</t>
         </is>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>LKA</t>
+          <t>LIC</t>
         </is>
       </c>
       <c r="B1234" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
@@ -34271,18 +34271,18 @@
       </c>
       <c r="F1234" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>LIC</t>
         </is>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>LMC</t>
+          <t>LKA</t>
         </is>
       </c>
       <c r="B1235" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
@@ -34297,18 +34297,18 @@
       </c>
       <c r="F1235" t="inlineStr">
         <is>
-          <t>LMC</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>LMY</t>
+          <t>LMC</t>
         </is>
       </c>
       <c r="B1236" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C1236" t="inlineStr">
         <is>
@@ -34323,18 +34323,18 @@
       </c>
       <c r="F1236" t="inlineStr">
         <is>
-          <t>LMY</t>
+          <t>LMC</t>
         </is>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>LMY</t>
         </is>
       </c>
       <c r="B1237" t="n">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
@@ -34349,18 +34349,18 @@
       </c>
       <c r="F1237" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>LMY</t>
         </is>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>LSO</t>
         </is>
       </c>
       <c r="B1238" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
@@ -34375,18 +34375,18 @@
       </c>
       <c r="F1238" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Lesotho</t>
         </is>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="B1239" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1239" t="inlineStr">
         <is>
@@ -34401,18 +34401,18 @@
       </c>
       <c r="F1239" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Lithuania</t>
         </is>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="B1240" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1240" t="inlineStr">
         <is>
@@ -34427,18 +34427,18 @@
       </c>
       <c r="F1240" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Luxembourg</t>
         </is>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="B1241" t="n">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="C1241" t="inlineStr">
         <is>
@@ -34453,18 +34453,18 @@
       </c>
       <c r="F1241" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Latvia</t>
         </is>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="B1242" t="n">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="C1242" t="inlineStr">
         <is>
@@ -34479,18 +34479,18 @@
       </c>
       <c r="F1242" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Morocco</t>
         </is>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="B1243" t="n">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="C1243" t="inlineStr">
         <is>
@@ -34505,18 +34505,18 @@
       </c>
       <c r="F1243" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Moldova</t>
         </is>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>MDV</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="B1244" t="n">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="C1244" t="inlineStr">
         <is>
@@ -34531,18 +34531,18 @@
       </c>
       <c r="F1244" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Madagascar</t>
         </is>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>MEA</t>
+          <t>MDV</t>
         </is>
       </c>
       <c r="B1245" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C1245" t="inlineStr">
         <is>
@@ -34557,18 +34557,18 @@
       </c>
       <c r="F1245" t="inlineStr">
         <is>
-          <t>MEA</t>
+          <t>Maldives</t>
         </is>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MEA</t>
         </is>
       </c>
       <c r="B1246" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C1246" t="inlineStr">
         <is>
@@ -34583,18 +34583,18 @@
       </c>
       <c r="F1246" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>MEA</t>
         </is>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>MHL</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="B1247" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C1247" t="inlineStr">
         <is>
@@ -34609,14 +34609,14 @@
       </c>
       <c r="F1247" t="inlineStr">
         <is>
-          <t>Marshall Islands</t>
+          <t>Mexico</t>
         </is>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>MKD</t>
+          <t>MHL</t>
         </is>
       </c>
       <c r="B1248" t="n">
@@ -34635,18 +34635,18 @@
       </c>
       <c r="F1248" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Marshall Islands</t>
         </is>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>MKD</t>
         </is>
       </c>
       <c r="B1249" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C1249" t="inlineStr">
         <is>
@@ -34661,18 +34661,18 @@
       </c>
       <c r="F1249" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>North Macedonia</t>
         </is>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>MLT</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="B1250" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1250" t="inlineStr">
         <is>
@@ -34687,18 +34687,18 @@
       </c>
       <c r="F1250" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Mali</t>
         </is>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MLT</t>
         </is>
       </c>
       <c r="B1251" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C1251" t="inlineStr">
         <is>
@@ -34713,18 +34713,18 @@
       </c>
       <c r="F1251" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Malta</t>
         </is>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>MNE</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="B1252" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C1252" t="inlineStr">
         <is>
@@ -34739,18 +34739,18 @@
       </c>
       <c r="F1252" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Myanmar</t>
         </is>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>MNE</t>
         </is>
       </c>
       <c r="B1253" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C1253" t="inlineStr">
         <is>
@@ -34765,18 +34765,18 @@
       </c>
       <c r="F1253" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Montenegro</t>
         </is>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MNG</t>
         </is>
       </c>
       <c r="B1254" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C1254" t="inlineStr">
         <is>
@@ -34791,18 +34791,18 @@
       </c>
       <c r="F1254" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Mongolia</t>
         </is>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="B1255" t="n">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C1255" t="inlineStr">
         <is>
@@ -34817,18 +34817,18 @@
       </c>
       <c r="F1255" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Mozambique</t>
         </is>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>MUS</t>
+          <t>MRT</t>
         </is>
       </c>
       <c r="B1256" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C1256" t="inlineStr">
         <is>
@@ -34843,18 +34843,18 @@
       </c>
       <c r="F1256" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Mauritania</t>
         </is>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MUS</t>
         </is>
       </c>
       <c r="B1257" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C1257" t="inlineStr">
         <is>
@@ -34869,18 +34869,18 @@
       </c>
       <c r="F1257" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Mauritius</t>
         </is>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>MYS</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="B1258" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C1258" t="inlineStr">
         <is>
@@ -34895,18 +34895,18 @@
       </c>
       <c r="F1258" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Malawi</t>
         </is>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>MYS</t>
         </is>
       </c>
       <c r="B1259" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C1259" t="inlineStr">
         <is>
@@ -34921,18 +34921,18 @@
       </c>
       <c r="F1259" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Malaysia</t>
         </is>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="B1260" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C1260" t="inlineStr">
         <is>
@@ -34947,18 +34947,18 @@
       </c>
       <c r="F1260" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Namibia</t>
         </is>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B1261" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C1261" t="inlineStr">
         <is>
@@ -34973,18 +34973,18 @@
       </c>
       <c r="F1261" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Niger</t>
         </is>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>NGA</t>
         </is>
       </c>
       <c r="B1262" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C1262" t="inlineStr">
         <is>
@@ -34999,18 +34999,18 @@
       </c>
       <c r="F1262" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Nigeria</t>
         </is>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="B1263" t="n">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="C1263" t="inlineStr">
         <is>
@@ -35025,18 +35025,18 @@
       </c>
       <c r="F1263" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Nicaragua</t>
         </is>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="B1264" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C1264" t="inlineStr">
         <is>
@@ -35051,18 +35051,18 @@
       </c>
       <c r="F1264" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="B1265" t="n">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C1265" t="inlineStr">
         <is>
@@ -35077,18 +35077,18 @@
       </c>
       <c r="F1265" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Norway</t>
         </is>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>NRU</t>
+          <t>NPL</t>
         </is>
       </c>
       <c r="B1266" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C1266" t="inlineStr">
         <is>
@@ -35103,18 +35103,18 @@
       </c>
       <c r="F1266" t="inlineStr">
         <is>
-          <t>Nauru</t>
+          <t>Nepal</t>
         </is>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>NRU</t>
         </is>
       </c>
       <c r="B1267" t="n">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="C1267" t="inlineStr">
         <is>
@@ -35129,18 +35129,18 @@
       </c>
       <c r="F1267" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Nauru</t>
         </is>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="B1268" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="C1268" t="inlineStr">
         <is>
@@ -35155,18 +35155,18 @@
       </c>
       <c r="F1268" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Pakistan</t>
         </is>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="B1269" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C1269" t="inlineStr">
         <is>
@@ -35181,18 +35181,18 @@
       </c>
       <c r="F1269" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Panama</t>
         </is>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="B1270" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1270" t="inlineStr">
         <is>
@@ -35207,18 +35207,18 @@
       </c>
       <c r="F1270" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Peru</t>
         </is>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>PNG</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B1271" t="n">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="C1271" t="inlineStr">
         <is>
@@ -35233,18 +35233,18 @@
       </c>
       <c r="F1271" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>PNG</t>
         </is>
       </c>
       <c r="B1272" t="n">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="C1272" t="inlineStr">
         <is>
@@ -35259,18 +35259,18 @@
       </c>
       <c r="F1272" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="B1273" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1273" t="inlineStr">
         <is>
@@ -35285,18 +35285,18 @@
       </c>
       <c r="F1273" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>PRY</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="B1274" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C1274" t="inlineStr">
         <is>
@@ -35311,18 +35311,18 @@
       </c>
       <c r="F1274" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>PSE</t>
+          <t>PRY</t>
         </is>
       </c>
       <c r="B1275" t="n">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="C1275" t="inlineStr">
         <is>
@@ -35337,18 +35337,18 @@
       </c>
       <c r="F1275" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Paraguay</t>
         </is>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>PSE</t>
         </is>
       </c>
       <c r="B1276" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C1276" t="inlineStr">
         <is>
@@ -35363,18 +35363,18 @@
       </c>
       <c r="F1276" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Palestine</t>
         </is>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>ROU</t>
         </is>
       </c>
       <c r="B1277" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1277" t="inlineStr">
         <is>
@@ -35389,18 +35389,18 @@
       </c>
       <c r="F1277" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="B1278" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C1278" t="inlineStr">
         <is>
@@ -35415,18 +35415,18 @@
       </c>
       <c r="F1278" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="B1279" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C1279" t="inlineStr">
         <is>
@@ -35441,18 +35441,18 @@
       </c>
       <c r="F1279" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>Rwanda</t>
         </is>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="B1280" t="n">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="C1280" t="inlineStr">
         <is>
@@ -35467,18 +35467,18 @@
       </c>
       <c r="F1280" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>SAS</t>
         </is>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>SDN</t>
         </is>
       </c>
       <c r="B1281" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C1281" t="inlineStr">
         <is>
@@ -35493,18 +35493,18 @@
       </c>
       <c r="F1281" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Sudan</t>
         </is>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>SEN</t>
         </is>
       </c>
       <c r="B1282" t="n">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="C1282" t="inlineStr">
         <is>
@@ -35519,18 +35519,18 @@
       </c>
       <c r="F1282" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Senegal</t>
         </is>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>SLE</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="B1283" t="n">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="C1283" t="inlineStr">
         <is>
@@ -35545,18 +35545,18 @@
       </c>
       <c r="F1283" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>SLE</t>
         </is>
       </c>
       <c r="B1284" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C1284" t="inlineStr">
         <is>
@@ -35571,18 +35571,18 @@
       </c>
       <c r="F1284" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="B1285" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C1285" t="inlineStr">
         <is>
@@ -35597,18 +35597,18 @@
       </c>
       <c r="F1285" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>El Salvador</t>
         </is>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="B1286" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C1286" t="inlineStr">
         <is>
@@ -35623,18 +35623,18 @@
       </c>
       <c r="F1286" t="inlineStr">
         <is>
-          <t>South Sudan</t>
+          <t>Serbia</t>
         </is>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>SSF</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="B1287" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C1287" t="inlineStr">
         <is>
@@ -35649,18 +35649,18 @@
       </c>
       <c r="F1287" t="inlineStr">
         <is>
-          <t>SSF</t>
+          <t>South Sudan</t>
         </is>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>STP</t>
+          <t>SSF</t>
         </is>
       </c>
       <c r="B1288" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C1288" t="inlineStr">
         <is>
@@ -35675,18 +35675,18 @@
       </c>
       <c r="F1288" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>SSF</t>
         </is>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>SUR</t>
+          <t>STP</t>
         </is>
       </c>
       <c r="B1289" t="n">
-        <v>1999</v>
+        <v>2017</v>
       </c>
       <c r="C1289" t="inlineStr">
         <is>
@@ -35701,18 +35701,18 @@
       </c>
       <c r="F1289" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>SUR</t>
         </is>
       </c>
       <c r="B1290" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C1290" t="inlineStr">
         <is>
@@ -35727,18 +35727,18 @@
       </c>
       <c r="F1290" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Suriname</t>
         </is>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>SVK</t>
         </is>
       </c>
       <c r="B1291" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1291" t="inlineStr">
         <is>
@@ -35753,18 +35753,18 @@
       </c>
       <c r="F1291" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="B1292" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1292" t="inlineStr">
         <is>
@@ -35779,18 +35779,18 @@
       </c>
       <c r="F1292" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="B1293" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C1293" t="inlineStr">
         <is>
@@ -35805,18 +35805,18 @@
       </c>
       <c r="F1293" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>SYC</t>
+          <t>SWZ</t>
         </is>
       </c>
       <c r="B1294" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C1294" t="inlineStr">
         <is>
@@ -35831,18 +35831,18 @@
       </c>
       <c r="F1294" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Eswatini</t>
         </is>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>SYR</t>
+          <t>SYC</t>
         </is>
       </c>
       <c r="B1295" t="n">
-        <v>2003</v>
+        <v>2018</v>
       </c>
       <c r="C1295" t="inlineStr">
         <is>
@@ -35857,18 +35857,18 @@
       </c>
       <c r="F1295" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Seychelles</t>
         </is>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>SYR</t>
         </is>
       </c>
       <c r="B1296" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C1296" t="inlineStr">
         <is>
@@ -35883,18 +35883,18 @@
       </c>
       <c r="F1296" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Syria</t>
         </is>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>TGO</t>
+          <t>TCD</t>
         </is>
       </c>
       <c r="B1297" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C1297" t="inlineStr">
         <is>
@@ -35909,14 +35909,14 @@
       </c>
       <c r="F1297" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Chad</t>
         </is>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TGO</t>
         </is>
       </c>
       <c r="B1298" t="n">
@@ -35935,18 +35935,18 @@
       </c>
       <c r="F1298" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Togo</t>
         </is>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="B1299" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C1299" t="inlineStr">
         <is>
@@ -35961,18 +35961,18 @@
       </c>
       <c r="F1299" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="B1300" t="n">
-        <v>1998</v>
+        <v>2015</v>
       </c>
       <c r="C1300" t="inlineStr">
         <is>
@@ -35987,18 +35987,18 @@
       </c>
       <c r="F1300" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Tajikistan</t>
         </is>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="B1301" t="n">
-        <v>2014</v>
+        <v>1998</v>
       </c>
       <c r="C1301" t="inlineStr">
         <is>
@@ -36013,18 +36013,18 @@
       </c>
       <c r="F1301" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="B1302" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C1302" t="inlineStr">
         <is>
@@ -36039,18 +36039,18 @@
       </c>
       <c r="F1302" t="inlineStr">
         <is>
-          <t>Tonga</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>TTO</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="B1303" t="n">
-        <v>1992</v>
+        <v>2021</v>
       </c>
       <c r="C1303" t="inlineStr">
         <is>
@@ -36065,18 +36065,18 @@
       </c>
       <c r="F1303" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Tonga</t>
         </is>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>TTO</t>
         </is>
       </c>
       <c r="B1304" t="n">
-        <v>2015</v>
+        <v>1992</v>
       </c>
       <c r="C1304" t="inlineStr">
         <is>
@@ -36091,18 +36091,18 @@
       </c>
       <c r="F1304" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>TUN</t>
         </is>
       </c>
       <c r="B1305" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C1305" t="inlineStr">
         <is>
@@ -36117,18 +36117,18 @@
       </c>
       <c r="F1305" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Tunisia</t>
         </is>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>TUV</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B1306" t="n">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="C1306" t="inlineStr">
         <is>
@@ -36143,18 +36143,18 @@
       </c>
       <c r="F1306" t="inlineStr">
         <is>
-          <t>Tuvalu</t>
+          <t>Türkiye</t>
         </is>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>TUV</t>
         </is>
       </c>
       <c r="B1307" t="n">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="C1307" t="inlineStr">
         <is>
@@ -36169,18 +36169,18 @@
       </c>
       <c r="F1307" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tuvalu</t>
         </is>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="B1308" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C1308" t="inlineStr">
         <is>
@@ -36195,18 +36195,18 @@
       </c>
       <c r="F1308" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Tanzania</t>
         </is>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="B1309" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C1309" t="inlineStr">
         <is>
@@ -36221,14 +36221,14 @@
       </c>
       <c r="F1309" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Uganda</t>
         </is>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="B1310" t="n">
@@ -36247,18 +36247,18 @@
       </c>
       <c r="F1310" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>Ukraine</t>
         </is>
       </c>
     </row>
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="B1311" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1311" t="inlineStr">
         <is>
@@ -36273,18 +36273,18 @@
       </c>
       <c r="F1311" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>UMC</t>
         </is>
       </c>
     </row>
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>URY</t>
         </is>
       </c>
       <c r="B1312" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1312" t="inlineStr">
         <is>
@@ -36299,18 +36299,18 @@
       </c>
       <c r="F1312" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B1313" t="n">
-        <v>2003</v>
+        <v>2021</v>
       </c>
       <c r="C1313" t="inlineStr">
         <is>
@@ -36325,18 +36325,18 @@
       </c>
       <c r="F1313" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>VEN</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="B1314" t="n">
-        <v>2006</v>
+        <v>2022</v>
       </c>
       <c r="C1314" t="inlineStr">
         <is>
@@ -36351,18 +36351,18 @@
       </c>
       <c r="F1314" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>VEN</t>
         </is>
       </c>
       <c r="B1315" t="n">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="C1315" t="inlineStr">
         <is>
@@ -36377,18 +36377,18 @@
       </c>
       <c r="F1315" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Venezuela</t>
         </is>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>VUT</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="B1316" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C1316" t="inlineStr">
         <is>
@@ -36403,14 +36403,14 @@
       </c>
       <c r="F1316" t="inlineStr">
         <is>
-          <t>Vanuatu</t>
+          <t>Vietnam</t>
         </is>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>WLD</t>
+          <t>VUT</t>
         </is>
       </c>
       <c r="B1317" t="n">
@@ -36429,18 +36429,18 @@
       </c>
       <c r="F1317" t="inlineStr">
         <is>
-          <t>WLD</t>
+          <t>Vanuatu</t>
         </is>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>WSM</t>
+          <t>WLD</t>
         </is>
       </c>
       <c r="B1318" t="n">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="C1318" t="inlineStr">
         <is>
@@ -36455,18 +36455,18 @@
       </c>
       <c r="F1318" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>WLD</t>
         </is>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>XKX</t>
+          <t>WSM</t>
         </is>
       </c>
       <c r="B1319" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C1319" t="inlineStr">
         <is>
@@ -36481,18 +36481,18 @@
       </c>
       <c r="F1319" t="inlineStr">
         <is>
-          <t>Kosovo</t>
+          <t>Samoa</t>
         </is>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>YEM</t>
+          <t>XKX</t>
         </is>
       </c>
       <c r="B1320" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C1320" t="inlineStr">
         <is>
@@ -36507,14 +36507,14 @@
       </c>
       <c r="F1320" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Kosovo</t>
         </is>
       </c>
     </row>
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>YEM</t>
         </is>
       </c>
       <c r="B1321" t="n">
@@ -36533,18 +36533,18 @@
       </c>
       <c r="F1321" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Yemen</t>
         </is>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>ZMB</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="B1322" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C1322" t="inlineStr">
         <is>
@@ -36559,18 +36559,18 @@
       </c>
       <c r="F1322" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>South Africa</t>
         </is>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>ZWE</t>
+          <t>ZMB</t>
         </is>
       </c>
       <c r="B1323" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C1323" t="inlineStr">
         <is>
@@ -36585,40 +36585,40 @@
       </c>
       <c r="F1323" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Zambia</t>
         </is>
       </c>
     </row>
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="B1324" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C1324" t="inlineStr">
         <is>
-          <t>Human Development Index</t>
+          <t>Poverty rate (%)</t>
         </is>
       </c>
       <c r="D1324" t="inlineStr"/>
       <c r="E1324" t="inlineStr">
         <is>
-          <t>UNDP Human Development Report</t>
+          <t>World Bank Open Data</t>
         </is>
       </c>
       <c r="F1324" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="B1325" t="n">
@@ -36637,14 +36637,14 @@
       </c>
       <c r="F1325" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>ISL</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="B1326" t="n">
@@ -36663,14 +36663,14 @@
       </c>
       <c r="F1326" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Norway</t>
         </is>
       </c>
     </row>
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>HKG</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="B1327" t="n">
@@ -36689,14 +36689,14 @@
       </c>
       <c r="F1327" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Iceland</t>
         </is>
       </c>
     </row>
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>HKG</t>
         </is>
       </c>
       <c r="B1328" t="n">
@@ -36715,14 +36715,14 @@
       </c>
       <c r="F1328" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Hong Kong</t>
         </is>
       </c>
     </row>
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="B1329" t="n">
@@ -36741,14 +36741,14 @@
       </c>
       <c r="F1329" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Australia</t>
         </is>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>DNK</t>
         </is>
       </c>
       <c r="B1330" t="n">
@@ -36767,14 +36767,14 @@
       </c>
       <c r="F1330" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="B1331" t="n">
@@ -36793,14 +36793,14 @@
       </c>
       <c r="F1331" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>IRL</t>
         </is>
       </c>
       <c r="B1332" t="n">
@@ -36819,14 +36819,14 @@
       </c>
       <c r="F1332" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Ireland</t>
         </is>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="B1333" t="n">
@@ -36845,14 +36845,14 @@
       </c>
       <c r="F1333" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="B1334" t="n">
@@ -36871,14 +36871,14 @@
       </c>
       <c r="F1334" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>FIN</t>
         </is>
       </c>
       <c r="B1335" t="n">
@@ -36897,14 +36897,14 @@
       </c>
       <c r="F1335" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Finland</t>
         </is>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="B1336" t="n">
@@ -36923,14 +36923,14 @@
       </c>
       <c r="F1336" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Singapore</t>
         </is>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B1337" t="n">
@@ -36949,14 +36949,14 @@
       </c>
       <c r="F1337" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>NZL</t>
         </is>
       </c>
       <c r="B1338" t="n">
@@ -36975,14 +36975,14 @@
       </c>
       <c r="F1338" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>New Zealand</t>
         </is>
       </c>
     </row>
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>LIE</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="B1339" t="n">
@@ -37001,14 +37001,14 @@
       </c>
       <c r="F1339" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Canada</t>
         </is>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>LIE</t>
         </is>
       </c>
       <c r="B1340" t="n">
@@ -37027,14 +37027,14 @@
       </c>
       <c r="F1340" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Liechtenstein</t>
         </is>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="B1341" t="n">
@@ -37053,14 +37053,14 @@
       </c>
       <c r="F1341" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Luxembourg</t>
         </is>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="B1342" t="n">
@@ -37079,14 +37079,14 @@
       </c>
       <c r="F1342" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="B1343" t="n">
@@ -37105,14 +37105,14 @@
       </c>
       <c r="F1343" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>KOR</t>
         </is>
       </c>
       <c r="B1344" t="n">
@@ -37131,14 +37131,14 @@
       </c>
       <c r="F1344" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>ISR</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B1345" t="n">
@@ -37157,14 +37157,14 @@
       </c>
       <c r="F1345" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>MLT</t>
+          <t>ISR</t>
         </is>
       </c>
       <c r="B1346" t="n">
@@ -37183,14 +37183,14 @@
       </c>
       <c r="F1346" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Israel</t>
         </is>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>MLT</t>
         </is>
       </c>
       <c r="B1347" t="n">
@@ -37209,14 +37209,14 @@
       </c>
       <c r="F1347" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Malta</t>
         </is>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="B1348" t="n">
@@ -37235,14 +37235,14 @@
       </c>
       <c r="F1348" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Slovenia</t>
         </is>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="B1349" t="n">
@@ -37261,14 +37261,14 @@
       </c>
       <c r="F1349" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>ARE</t>
         </is>
       </c>
       <c r="B1350" t="n">
@@ -37287,14 +37287,14 @@
       </c>
       <c r="F1350" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
     </row>
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="B1351" t="n">
@@ -37313,14 +37313,14 @@
       </c>
       <c r="F1351" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>CYP</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="B1352" t="n">
@@ -37339,14 +37339,14 @@
       </c>
       <c r="F1352" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>France</t>
         </is>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>CYP</t>
         </is>
       </c>
       <c r="B1353" t="n">
@@ -37365,14 +37365,14 @@
       </c>
       <c r="F1353" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Cyprus</t>
         </is>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="B1354" t="n">
@@ -37391,14 +37391,14 @@
       </c>
       <c r="F1354" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="B1355" t="n">
@@ -37417,14 +37417,14 @@
       </c>
       <c r="F1355" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Estonia</t>
         </is>
       </c>
     </row>
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>GRC</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="B1356" t="n">
@@ -37443,14 +37443,14 @@
       </c>
       <c r="F1356" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Czechia</t>
         </is>
       </c>
     </row>
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>GRC</t>
         </is>
       </c>
       <c r="B1357" t="n">
@@ -37469,14 +37469,14 @@
       </c>
       <c r="F1357" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>BHR</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="B1358" t="n">
@@ -37495,14 +37495,14 @@
       </c>
       <c r="F1358" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Poland</t>
         </is>
       </c>
     </row>
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>BHR</t>
         </is>
       </c>
       <c r="B1359" t="n">
@@ -37521,14 +37521,14 @@
       </c>
       <c r="F1359" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Bahrain</t>
         </is>
       </c>
     </row>
     <row r="1360">
       <c r="A1360" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="B1360" t="n">
@@ -37547,14 +37547,14 @@
       </c>
       <c r="F1360" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Lithuania</t>
         </is>
       </c>
     </row>
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>SAU</t>
         </is>
       </c>
       <c r="B1361" t="n">
@@ -37573,14 +37573,14 @@
       </c>
       <c r="F1361" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="B1362" t="n">
@@ -37599,14 +37599,14 @@
       </c>
       <c r="F1362" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="B1363" t="n">
@@ -37625,14 +37625,14 @@
       </c>
       <c r="F1363" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Latvia</t>
         </is>
       </c>
     </row>
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>HRV</t>
+          <t>AND</t>
         </is>
       </c>
       <c r="B1364" t="n">
@@ -37651,14 +37651,14 @@
       </c>
       <c r="F1364" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Andorra</t>
         </is>
       </c>
     </row>
     <row r="1365">
       <c r="A1365" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>HRV</t>
         </is>
       </c>
       <c r="B1365" t="n">
@@ -37677,14 +37677,14 @@
       </c>
       <c r="F1365" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>QAT</t>
+          <t>CHL</t>
         </is>
       </c>
       <c r="B1366" t="n">
@@ -37703,14 +37703,14 @@
       </c>
       <c r="F1366" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Chile</t>
         </is>
       </c>
     </row>
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>SMR</t>
+          <t>QAT</t>
         </is>
       </c>
       <c r="B1367" t="n">
@@ -37729,14 +37729,14 @@
       </c>
       <c r="F1367" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Qatar</t>
         </is>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>SMR</t>
         </is>
       </c>
       <c r="B1368" t="n">
@@ -37755,14 +37755,14 @@
       </c>
       <c r="F1368" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>San Marino</t>
         </is>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>SVK</t>
         </is>
       </c>
       <c r="B1369" t="n">
@@ -37781,14 +37781,14 @@
       </c>
       <c r="F1369" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
     </row>
     <row r="1370">
       <c r="A1370" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>HUN</t>
         </is>
       </c>
       <c r="B1370" t="n">
@@ -37807,14 +37807,14 @@
       </c>
       <c r="F1370" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Hungary</t>
         </is>
       </c>
     </row>
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="B1371" t="n">
@@ -37833,14 +37833,14 @@
       </c>
       <c r="F1371" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Argentina</t>
         </is>
       </c>
     </row>
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>MNE</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B1372" t="n">
@@ -37859,14 +37859,14 @@
       </c>
       <c r="F1372" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Türkiye</t>
         </is>
       </c>
     </row>
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>KWT</t>
+          <t>MNE</t>
         </is>
       </c>
       <c r="B1373" t="n">
@@ -37885,14 +37885,14 @@
       </c>
       <c r="F1373" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Montenegro</t>
         </is>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>BRN</t>
+          <t>KWT</t>
         </is>
       </c>
       <c r="B1374" t="n">
@@ -37911,14 +37911,14 @@
       </c>
       <c r="F1374" t="inlineStr">
         <is>
-          <t>Brunei Darussalam</t>
+          <t>Kuwait</t>
         </is>
       </c>
     </row>
     <row r="1375">
       <c r="A1375" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>BRN</t>
         </is>
       </c>
       <c r="B1375" t="n">
@@ -37937,14 +37937,14 @@
       </c>
       <c r="F1375" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="B1376" t="n">
@@ -37963,14 +37963,14 @@
       </c>
       <c r="F1376" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>OMN</t>
+          <t>ROU</t>
         </is>
       </c>
       <c r="B1377" t="n">
@@ -37989,14 +37989,14 @@
       </c>
       <c r="F1377" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>OMN</t>
         </is>
       </c>
       <c r="B1378" t="n">
@@ -38015,14 +38015,14 @@
       </c>
       <c r="F1378" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Oman</t>
         </is>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>BHS</t>
         </is>
       </c>
       <c r="B1379" t="n">
@@ -38041,14 +38041,14 @@
       </c>
       <c r="F1379" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Bahamas</t>
         </is>
       </c>
     </row>
     <row r="1380">
       <c r="A1380" t="inlineStr">
         <is>
-          <t>TTO</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="B1380" t="n">
@@ -38067,14 +38067,14 @@
       </c>
       <c r="F1380" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
     </row>
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>TTO</t>
         </is>
       </c>
       <c r="B1381" t="n">
@@ -38093,14 +38093,14 @@
       </c>
       <c r="F1381" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
     </row>
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="B1382" t="n">
@@ -38119,14 +38119,14 @@
       </c>
       <c r="F1382" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>URY</t>
         </is>
       </c>
       <c r="B1383" t="n">
@@ -38145,14 +38145,14 @@
       </c>
       <c r="F1383" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="B1384" t="n">
@@ -38171,14 +38171,14 @@
       </c>
       <c r="F1384" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Belarus</t>
         </is>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>MYS</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="B1385" t="n">
@@ -38197,14 +38197,14 @@
       </c>
       <c r="F1385" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Panama</t>
         </is>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>MYS</t>
         </is>
       </c>
       <c r="B1386" t="n">
@@ -38223,14 +38223,14 @@
       </c>
       <c r="F1386" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Malaysia</t>
         </is>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>MUS</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="B1387" t="n">
@@ -38249,14 +38249,14 @@
       </c>
       <c r="F1387" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Georgia</t>
         </is>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>MUS</t>
         </is>
       </c>
       <c r="B1388" t="n">
@@ -38275,14 +38275,14 @@
       </c>
       <c r="F1388" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Mauritius</t>
         </is>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="B1389" t="n">
@@ -38301,14 +38301,14 @@
       </c>
       <c r="F1389" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Serbia</t>
         </is>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="B1390" t="n">
@@ -38327,14 +38327,14 @@
       </c>
       <c r="F1390" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>ALB</t>
         </is>
       </c>
       <c r="B1391" t="n">
@@ -38353,14 +38353,14 @@
       </c>
       <c r="F1391" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Albania</t>
         </is>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>GRD</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="B1392" t="n">
@@ -38379,14 +38379,14 @@
       </c>
       <c r="F1392" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Bulgaria</t>
         </is>
       </c>
     </row>
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>GRD</t>
         </is>
       </c>
       <c r="B1393" t="n">
@@ -38405,14 +38405,14 @@
       </c>
       <c r="F1393" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Grenada</t>
         </is>
       </c>
     </row>
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>ATG</t>
+          <t>BRB</t>
         </is>
       </c>
       <c r="B1394" t="n">
@@ -38431,14 +38431,14 @@
       </c>
       <c r="F1394" t="inlineStr">
         <is>
-          <t>Antigua and Barbuda</t>
+          <t>Barbados</t>
         </is>
       </c>
     </row>
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>SYC</t>
+          <t>ATG</t>
         </is>
       </c>
       <c r="B1395" t="n">
@@ -38457,14 +38457,14 @@
       </c>
       <c r="F1395" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Antigua and Barbuda</t>
         </is>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>LKA</t>
+          <t>SYC</t>
         </is>
       </c>
       <c r="B1396" t="n">
@@ -38483,14 +38483,14 @@
       </c>
       <c r="F1396" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Seychelles</t>
         </is>
       </c>
     </row>
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>BIH</t>
+          <t>LKA</t>
         </is>
       </c>
       <c r="B1397" t="n">
@@ -38509,14 +38509,14 @@
       </c>
       <c r="F1397" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
     </row>
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>KNA</t>
+          <t>BIH</t>
         </is>
       </c>
       <c r="B1398" t="n">
@@ -38535,14 +38535,14 @@
       </c>
       <c r="F1398" t="inlineStr">
         <is>
-          <t>St. Kitts and Nevis</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
     </row>
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>IRN</t>
+          <t>KNA</t>
         </is>
       </c>
       <c r="B1399" t="n">
@@ -38561,14 +38561,14 @@
       </c>
       <c r="F1399" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>St. Kitts and Nevis</t>
         </is>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>IRN</t>
         </is>
       </c>
       <c r="B1400" t="n">
@@ -38587,14 +38587,14 @@
       </c>
       <c r="F1400" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Iran</t>
         </is>
       </c>
     </row>
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>MKD</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="B1401" t="n">
@@ -38613,14 +38613,14 @@
       </c>
       <c r="F1401" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ukraine</t>
         </is>
       </c>
     </row>
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>MKD</t>
         </is>
       </c>
       <c r="B1402" t="n">
@@ -38639,14 +38639,14 @@
       </c>
       <c r="F1402" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>North Macedonia</t>
         </is>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>CHN</t>
         </is>
       </c>
       <c r="B1403" t="n">
@@ -38665,14 +38665,14 @@
       </c>
       <c r="F1403" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>China</t>
         </is>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="B1404" t="n">
@@ -38691,14 +38691,14 @@
       </c>
       <c r="F1404" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>PLW</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="B1405" t="n">
@@ -38717,14 +38717,14 @@
       </c>
       <c r="F1405" t="inlineStr">
         <is>
-          <t>Palau</t>
+          <t>Moldova</t>
         </is>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>PLW</t>
         </is>
       </c>
       <c r="B1406" t="n">
@@ -38743,14 +38743,14 @@
       </c>
       <c r="F1406" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Palau</t>
         </is>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="B1407" t="n">
@@ -38769,14 +38769,14 @@
       </c>
       <c r="F1407" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Cuba</t>
         </is>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="B1408" t="n">
@@ -38795,14 +38795,14 @@
       </c>
       <c r="F1408" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Peru</t>
         </is>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="B1409" t="n">
@@ -38821,14 +38821,14 @@
       </c>
       <c r="F1409" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Armenia</t>
         </is>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>BRA</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="B1410" t="n">
@@ -38847,14 +38847,14 @@
       </c>
       <c r="F1410" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Mexico</t>
         </is>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="B1411" t="n">
@@ -38873,14 +38873,14 @@
       </c>
       <c r="F1411" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Brazil</t>
         </is>
       </c>
     </row>
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>VCT</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="B1412" t="n">
@@ -38899,14 +38899,14 @@
       </c>
       <c r="F1412" t="inlineStr">
         <is>
-          <t>St. Vincent and the Grenadines</t>
+          <t>Colombia</t>
         </is>
       </c>
     </row>
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>MDV</t>
+          <t>VCT</t>
         </is>
       </c>
       <c r="B1413" t="n">
@@ -38925,14 +38925,14 @@
       </c>
       <c r="F1413" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>St. Vincent and the Grenadines</t>
         </is>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>MDV</t>
         </is>
       </c>
       <c r="B1414" t="n">
@@ -38951,14 +38951,14 @@
       </c>
       <c r="F1414" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Maldives</t>
         </is>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>DZA</t>
         </is>
       </c>
       <c r="B1415" t="n">
@@ -38977,14 +38977,14 @@
       </c>
       <c r="F1415" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Algeria</t>
         </is>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="B1416" t="n">
@@ -39003,14 +39003,14 @@
       </c>
       <c r="F1416" t="inlineStr">
         <is>
-          <t>Tonga</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
     </row>
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="B1417" t="n">
@@ -39029,14 +39029,14 @@
       </c>
       <c r="F1417" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Tonga</t>
         </is>
       </c>
     </row>
     <row r="1418">
       <c r="A1418" t="inlineStr">
         <is>
-          <t>ECU</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="B1418" t="n">
@@ -39055,14 +39055,14 @@
       </c>
       <c r="F1418" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>ECU</t>
         </is>
       </c>
       <c r="B1419" t="n">
@@ -39081,14 +39081,14 @@
       </c>
       <c r="F1419" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
     <row r="1420">
       <c r="A1420" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>MNG</t>
         </is>
       </c>
       <c r="B1420" t="n">
@@ -39107,14 +39107,14 @@
       </c>
       <c r="F1420" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Mongolia</t>
         </is>
       </c>
     </row>
     <row r="1421">
       <c r="A1421" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>EGY</t>
         </is>
       </c>
       <c r="B1421" t="n">
@@ -39133,14 +39133,14 @@
       </c>
       <c r="F1421" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Egypt</t>
         </is>
       </c>
     </row>
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>TUN</t>
         </is>
       </c>
       <c r="B1422" t="n">
@@ -39159,14 +39159,14 @@
       </c>
       <c r="F1422" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Tunisia</t>
         </is>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>SUR</t>
+          <t>FJI</t>
         </is>
       </c>
       <c r="B1423" t="n">
@@ -39185,14 +39185,14 @@
       </c>
       <c r="F1423" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Fiji</t>
         </is>
       </c>
     </row>
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>SUR</t>
         </is>
       </c>
       <c r="B1424" t="n">
@@ -39211,14 +39211,14 @@
       </c>
       <c r="F1424" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Suriname</t>
         </is>
       </c>
     </row>
     <row r="1425">
       <c r="A1425" t="inlineStr">
         <is>
-          <t>DMA</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="B1425" t="n">
@@ -39237,14 +39237,14 @@
       </c>
       <c r="F1425" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
     </row>
     <row r="1426">
       <c r="A1426" t="inlineStr">
         <is>
-          <t>JOR</t>
+          <t>DMA</t>
         </is>
       </c>
       <c r="B1426" t="n">
@@ -39263,14 +39263,14 @@
       </c>
       <c r="F1426" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Dominica</t>
         </is>
       </c>
     </row>
     <row r="1427">
       <c r="A1427" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>JOR</t>
         </is>
       </c>
       <c r="B1427" t="n">
@@ -39289,14 +39289,14 @@
       </c>
       <c r="F1427" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Jordan</t>
         </is>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>PRY</t>
+          <t>LBY</t>
         </is>
       </c>
       <c r="B1428" t="n">
@@ -39315,14 +39315,14 @@
       </c>
       <c r="F1428" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Libya</t>
         </is>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>PSE</t>
+          <t>PRY</t>
         </is>
       </c>
       <c r="B1429" t="n">
@@ -39341,14 +39341,14 @@
       </c>
       <c r="F1429" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Paraguay</t>
         </is>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>PSE</t>
         </is>
       </c>
       <c r="B1430" t="n">
@@ -39367,14 +39367,14 @@
       </c>
       <c r="F1430" t="inlineStr">
         <is>
-          <t>St. Lucia</t>
+          <t>Palestine</t>
         </is>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>GUY</t>
+          <t>LCA</t>
         </is>
       </c>
       <c r="B1431" t="n">
@@ -39393,14 +39393,14 @@
       </c>
       <c r="F1431" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>St. Lucia</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>GUY</t>
         </is>
       </c>
       <c r="B1432" t="n">
@@ -39419,14 +39419,14 @@
       </c>
       <c r="F1432" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Guyana</t>
         </is>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="B1433" t="n">
@@ -39445,14 +39445,14 @@
       </c>
       <c r="F1433" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>South Africa</t>
         </is>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>WSM</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="B1434" t="n">
@@ -39471,14 +39471,14 @@
       </c>
       <c r="F1434" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>Jamaica</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>GAB</t>
+          <t>WSM</t>
         </is>
       </c>
       <c r="B1435" t="n">
@@ -39497,14 +39497,14 @@
       </c>
       <c r="F1435" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Samoa</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>LBN</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B1436" t="n">
@@ -39523,14 +39523,14 @@
       </c>
       <c r="F1436" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Gabon</t>
         </is>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>LBN</t>
         </is>
       </c>
       <c r="B1437" t="n">
@@ -39549,14 +39549,14 @@
       </c>
       <c r="F1437" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Lebanon</t>
         </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="B1438" t="n">
@@ -39575,14 +39575,14 @@
       </c>
       <c r="F1438" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="B1439" t="n">
@@ -39601,14 +39601,14 @@
       </c>
       <c r="F1439" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Vietnam</t>
         </is>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B1440" t="n">
@@ -39627,14 +39627,14 @@
       </c>
       <c r="F1440" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>BOL</t>
+          <t>BWA</t>
         </is>
       </c>
       <c r="B1441" t="n">
@@ -39653,14 +39653,14 @@
       </c>
       <c r="F1441" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Botswana</t>
         </is>
       </c>
     </row>
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>BOL</t>
         </is>
       </c>
       <c r="B1442" t="n">
@@ -39679,14 +39679,14 @@
       </c>
       <c r="F1442" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Bolivia</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>VEN</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="B1443" t="n">
@@ -39705,14 +39705,14 @@
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Kyrgyz Republic</t>
         </is>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>IRQ</t>
+          <t>VEN</t>
         </is>
       </c>
       <c r="B1444" t="n">
@@ -39731,14 +39731,14 @@
       </c>
       <c r="F1444" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Venezuela</t>
         </is>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>IRQ</t>
         </is>
       </c>
       <c r="B1445" t="n">
@@ -39757,14 +39757,14 @@
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Iraq</t>
         </is>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="B1446" t="n">
@@ -39783,14 +39783,14 @@
       </c>
       <c r="F1446" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Tajikistan</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="B1447" t="n">
@@ -39809,14 +39809,14 @@
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Belize</t>
         </is>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="B1448" t="n">
@@ -39835,14 +39835,14 @@
       </c>
       <c r="F1448" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Morocco</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="B1449" t="n">
@@ -39861,14 +39861,14 @@
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>El Salvador</t>
         </is>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>BTN</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="B1450" t="n">
@@ -39887,14 +39887,14 @@
       </c>
       <c r="F1450" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Nicaragua</t>
         </is>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>CPV</t>
+          <t>BTN</t>
         </is>
       </c>
       <c r="B1451" t="n">
@@ -39913,14 +39913,14 @@
       </c>
       <c r="F1451" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Bhutan</t>
         </is>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>BGD</t>
+          <t>CPV</t>
         </is>
       </c>
       <c r="B1452" t="n">
@@ -39939,14 +39939,14 @@
       </c>
       <c r="F1452" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>TUV</t>
+          <t>BGD</t>
         </is>
       </c>
       <c r="B1453" t="n">
@@ -39965,14 +39965,14 @@
       </c>
       <c r="F1453" t="inlineStr">
         <is>
-          <t>Tuvalu</t>
+          <t>Bangladesh</t>
         </is>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>MHL</t>
+          <t>TUV</t>
         </is>
       </c>
       <c r="B1454" t="n">
@@ -39991,14 +39991,14 @@
       </c>
       <c r="F1454" t="inlineStr">
         <is>
-          <t>Marshall Islands</t>
+          <t>Tuvalu</t>
         </is>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MHL</t>
         </is>
       </c>
       <c r="B1455" t="n">
@@ -40017,14 +40017,14 @@
       </c>
       <c r="F1455" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Marshall Islands</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>GHA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B1456" t="n">
@@ -40043,14 +40043,14 @@
       </c>
       <c r="F1456" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>India</t>
         </is>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>FSM</t>
+          <t>GHA</t>
         </is>
       </c>
       <c r="B1457" t="n">
@@ -40069,14 +40069,14 @@
       </c>
       <c r="F1457" t="inlineStr">
         <is>
-          <t>Micronesia, Fed. Sts.</t>
+          <t>Ghana</t>
         </is>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>FSM</t>
         </is>
       </c>
       <c r="B1458" t="n">
@@ -40095,14 +40095,14 @@
       </c>
       <c r="F1458" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Micronesia, Fed. Sts.</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>KIR</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="B1459" t="n">
@@ -40121,14 +40121,14 @@
       </c>
       <c r="F1459" t="inlineStr">
         <is>
-          <t>Kiribati</t>
+          <t>Guatemala</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>KIR</t>
         </is>
       </c>
       <c r="B1460" t="n">
@@ -40147,14 +40147,14 @@
       </c>
       <c r="F1460" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Kiribati</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>STP</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="B1461" t="n">
@@ -40173,14 +40173,14 @@
       </c>
       <c r="F1461" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Honduras</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>STP</t>
         </is>
       </c>
       <c r="B1462" t="n">
@@ -40199,14 +40199,14 @@
       </c>
       <c r="F1462" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="B1463" t="n">
@@ -40225,14 +40225,14 @@
       </c>
       <c r="F1463" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Namibia</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="B1464" t="n">
@@ -40251,14 +40251,14 @@
       </c>
       <c r="F1464" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Laos</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>VUT</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="B1465" t="n">
@@ -40277,14 +40277,14 @@
       </c>
       <c r="F1465" t="inlineStr">
         <is>
-          <t>Vanuatu</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>VUT</t>
         </is>
       </c>
       <c r="B1466" t="n">
@@ -40303,14 +40303,14 @@
       </c>
       <c r="F1466" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Vanuatu</t>
         </is>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>NPL</t>
         </is>
       </c>
       <c r="B1467" t="n">
@@ -40329,14 +40329,14 @@
       </c>
       <c r="F1467" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Nepal</t>
         </is>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>GNQ</t>
+          <t>SWZ</t>
         </is>
       </c>
       <c r="B1468" t="n">
@@ -40355,14 +40355,14 @@
       </c>
       <c r="F1468" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Eswatini</t>
         </is>
       </c>
     </row>
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>GNQ</t>
         </is>
       </c>
       <c r="B1469" t="n">
@@ -40381,14 +40381,14 @@
       </c>
       <c r="F1469" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>ZWE</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="B1470" t="n">
@@ -40407,14 +40407,14 @@
       </c>
       <c r="F1470" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Cambodia</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>AGO</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="B1471" t="n">
@@ -40433,14 +40433,14 @@
       </c>
       <c r="F1471" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>AGO</t>
         </is>
       </c>
       <c r="B1472" t="n">
@@ -40459,14 +40459,14 @@
       </c>
       <c r="F1472" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Angola</t>
         </is>
       </c>
     </row>
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>SYR</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="B1473" t="n">
@@ -40485,14 +40485,14 @@
       </c>
       <c r="F1473" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Myanmar</t>
         </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>SYR</t>
         </is>
       </c>
       <c r="B1474" t="n">
@@ -40511,14 +40511,14 @@
       </c>
       <c r="F1474" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Syria</t>
         </is>
       </c>
     </row>
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>CMR</t>
         </is>
       </c>
       <c r="B1475" t="n">
@@ -40537,14 +40537,14 @@
       </c>
       <c r="F1475" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Cameroon</t>
         </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>COG</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="B1476" t="n">
@@ -40563,14 +40563,14 @@
       </c>
       <c r="F1476" t="inlineStr">
         <is>
-          <t>Congo Republic</t>
+          <t>Kenya</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>ZMB</t>
+          <t>COG</t>
         </is>
       </c>
       <c r="B1477" t="n">
@@ -40589,14 +40589,14 @@
       </c>
       <c r="F1477" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Congo Republic</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>ZMB</t>
         </is>
       </c>
       <c r="B1478" t="n">
@@ -40615,14 +40615,14 @@
       </c>
       <c r="F1478" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Zambia</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="B1479" t="n">
@@ -40641,14 +40641,14 @@
       </c>
       <c r="F1479" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>PNG</t>
+          <t>COM</t>
         </is>
       </c>
       <c r="B1480" t="n">
@@ -40667,14 +40667,14 @@
       </c>
       <c r="F1480" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Comoros</t>
         </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>PNG</t>
         </is>
       </c>
       <c r="B1481" t="n">
@@ -40693,14 +40693,14 @@
       </c>
       <c r="F1481" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>CIV</t>
+          <t>MRT</t>
         </is>
       </c>
       <c r="B1482" t="n">
@@ -40719,14 +40719,14 @@
       </c>
       <c r="F1482" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Mauritania</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>CIV</t>
         </is>
       </c>
       <c r="B1483" t="n">
@@ -40745,14 +40745,14 @@
       </c>
       <c r="F1483" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Cote d'Ivoire</t>
         </is>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="B1484" t="n">
@@ -40771,14 +40771,14 @@
       </c>
       <c r="F1484" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Tanzania</t>
         </is>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>TGO</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="B1485" t="n">
@@ -40797,14 +40797,14 @@
       </c>
       <c r="F1485" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Pakistan</t>
         </is>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>TGO</t>
         </is>
       </c>
       <c r="B1486" t="n">
@@ -40823,14 +40823,14 @@
       </c>
       <c r="F1486" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Togo</t>
         </is>
       </c>
     </row>
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="B1487" t="n">
@@ -40849,14 +40849,14 @@
       </c>
       <c r="F1487" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Haiti</t>
         </is>
       </c>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>NGA</t>
         </is>
       </c>
       <c r="B1488" t="n">
@@ -40875,14 +40875,14 @@
       </c>
       <c r="F1488" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Nigeria</t>
         </is>
       </c>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>BEN</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="B1489" t="n">
@@ -40901,14 +40901,14 @@
       </c>
       <c r="F1489" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Rwanda</t>
         </is>
       </c>
     </row>
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="B1490" t="n">
@@ -40927,14 +40927,14 @@
       </c>
       <c r="F1490" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Benin</t>
         </is>
       </c>
     </row>
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="B1491" t="n">
@@ -40953,14 +40953,14 @@
       </c>
       <c r="F1491" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Uganda</t>
         </is>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>LSO</t>
         </is>
       </c>
       <c r="B1492" t="n">
@@ -40979,14 +40979,14 @@
       </c>
       <c r="F1492" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Lesotho</t>
         </is>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="B1493" t="n">
@@ -41005,14 +41005,14 @@
       </c>
       <c r="F1493" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Malawi</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>DJI</t>
+          <t>SEN</t>
         </is>
       </c>
       <c r="B1494" t="n">
@@ -41031,14 +41031,14 @@
       </c>
       <c r="F1494" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Senegal</t>
         </is>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>DJI</t>
         </is>
       </c>
       <c r="B1495" t="n">
@@ -41057,14 +41057,14 @@
       </c>
       <c r="F1495" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Djibouti</t>
         </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>SDN</t>
         </is>
       </c>
       <c r="B1496" t="n">
@@ -41083,14 +41083,14 @@
       </c>
       <c r="F1496" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Sudan</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="B1497" t="n">
@@ -41109,14 +41109,14 @@
       </c>
       <c r="F1497" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Madagascar</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>GMB</t>
         </is>
       </c>
       <c r="B1498" t="n">
@@ -41135,14 +41135,14 @@
       </c>
       <c r="F1498" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Gambia</t>
         </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>ERI</t>
+          <t>ETH</t>
         </is>
       </c>
       <c r="B1499" t="n">
@@ -41161,14 +41161,14 @@
       </c>
       <c r="F1499" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Ethiopia</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>GNB</t>
+          <t>ERI</t>
         </is>
       </c>
       <c r="B1500" t="n">
@@ -41187,14 +41187,14 @@
       </c>
       <c r="F1500" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Eritrea</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>LBR</t>
+          <t>GNB</t>
         </is>
       </c>
       <c r="B1501" t="n">
@@ -41213,14 +41213,14 @@
       </c>
       <c r="F1501" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>COD</t>
+          <t>LBR</t>
         </is>
       </c>
       <c r="B1502" t="n">
@@ -41239,14 +41239,14 @@
       </c>
       <c r="F1502" t="inlineStr">
         <is>
-          <t>DR Congo</t>
+          <t>Liberia</t>
         </is>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>COD</t>
         </is>
       </c>
       <c r="B1503" t="n">
@@ -41265,14 +41265,14 @@
       </c>
       <c r="F1503" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>DR Congo</t>
         </is>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>SLE</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="B1504" t="n">
@@ -41291,14 +41291,14 @@
       </c>
       <c r="F1504" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Afghanistan</t>
         </is>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>GIN</t>
+          <t>SLE</t>
         </is>
       </c>
       <c r="B1505" t="n">
@@ -41317,14 +41317,14 @@
       </c>
       <c r="F1505" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>YEM</t>
+          <t>GIN</t>
         </is>
       </c>
       <c r="B1506" t="n">
@@ -41343,14 +41343,14 @@
       </c>
       <c r="F1506" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Guinea</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>BFA</t>
+          <t>YEM</t>
         </is>
       </c>
       <c r="B1507" t="n">
@@ -41369,14 +41369,14 @@
       </c>
       <c r="F1507" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Yemen</t>
         </is>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>BFA</t>
         </is>
       </c>
       <c r="B1508" t="n">
@@ -41395,14 +41395,14 @@
       </c>
       <c r="F1508" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="B1509" t="n">
@@ -41421,14 +41421,14 @@
       </c>
       <c r="F1509" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Mozambique</t>
         </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>BDI</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="B1510" t="n">
@@ -41447,14 +41447,14 @@
       </c>
       <c r="F1510" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Mali</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>CAF</t>
+          <t>BDI</t>
         </is>
       </c>
       <c r="B1511" t="n">
@@ -41473,14 +41473,14 @@
       </c>
       <c r="F1511" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Burundi</t>
         </is>
       </c>
     </row>
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>CAF</t>
         </is>
       </c>
       <c r="B1512" t="n">
@@ -41499,14 +41499,14 @@
       </c>
       <c r="F1512" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Central African Republic</t>
         </is>
       </c>
     </row>
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B1513" t="n">
@@ -41525,14 +41525,14 @@
       </c>
       <c r="F1513" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Niger</t>
         </is>
       </c>
     </row>
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>TCD</t>
         </is>
       </c>
       <c r="B1514" t="n">
@@ -41551,14 +41551,14 @@
       </c>
       <c r="F1514" t="inlineStr">
         <is>
-          <t>South Sudan</t>
+          <t>Chad</t>
         </is>
       </c>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>PRK</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="B1515" t="n">
@@ -41577,14 +41577,14 @@
       </c>
       <c r="F1515" t="inlineStr">
         <is>
-          <t>North Korea</t>
+          <t>South Sudan</t>
         </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>PRK</t>
         </is>
       </c>
       <c r="B1516" t="n">
@@ -41603,14 +41603,14 @@
       </c>
       <c r="F1516" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>North Korea</t>
         </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>NRU</t>
+          <t>MCO</t>
         </is>
       </c>
       <c r="B1517" t="n">
@@ -41629,14 +41629,14 @@
       </c>
       <c r="F1517" t="inlineStr">
         <is>
-          <t>Nauru</t>
+          <t>Monaco</t>
         </is>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>NRU</t>
         </is>
       </c>
       <c r="B1518" t="n">
@@ -41654,6 +41654,32 @@
         </is>
       </c>
       <c r="F1518" t="inlineStr">
+        <is>
+          <t>Nauru</t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>SOM</t>
+        </is>
+      </c>
+      <c r="B1519" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1519" t="inlineStr">
+        <is>
+          <t>Human Development Index</t>
+        </is>
+      </c>
+      <c r="D1519" t="inlineStr"/>
+      <c r="E1519" t="inlineStr">
+        <is>
+          <t>UNDP Human Development Report</t>
+        </is>
+      </c>
+      <c r="F1519" t="inlineStr">
         <is>
           <t>Somalia</t>
         </is>

--- a/charts_download/explorers/econ_metadata.xlsx
+++ b/charts_download/explorers/econ_metadata.xlsx
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="B885" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C885" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         </is>
       </c>
       <c r="B886" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C886" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         </is>
       </c>
       <c r="B887" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C887" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         </is>
       </c>
       <c r="B888" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C888" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         </is>
       </c>
       <c r="B889" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C889" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         </is>
       </c>
       <c r="B890" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C890" t="inlineStr">
         <is>
@@ -25352,7 +25352,7 @@
         </is>
       </c>
       <c r="B891" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C891" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         </is>
       </c>
       <c r="B892" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C892" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         </is>
       </c>
       <c r="B893" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C893" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         </is>
       </c>
       <c r="B894" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C894" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         </is>
       </c>
       <c r="B895" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C895" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         </is>
       </c>
       <c r="B896" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C896" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         </is>
       </c>
       <c r="B897" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C897" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         </is>
       </c>
       <c r="B898" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C898" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         </is>
       </c>
       <c r="B899" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C899" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="B900" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C900" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         </is>
       </c>
       <c r="B901" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C901" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         </is>
       </c>
       <c r="B902" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C902" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         </is>
       </c>
       <c r="B903" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C903" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         </is>
       </c>
       <c r="B904" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C904" t="inlineStr">
         <is>
@@ -25716,7 +25716,7 @@
         </is>
       </c>
       <c r="B905" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C905" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         </is>
       </c>
       <c r="B906" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C906" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         </is>
       </c>
       <c r="B907" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C907" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         </is>
       </c>
       <c r="B908" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C908" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         </is>
       </c>
       <c r="B909" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C909" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="B910" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C910" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         </is>
       </c>
       <c r="B911" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C911" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         </is>
       </c>
       <c r="B912" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C912" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         </is>
       </c>
       <c r="B913" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C913" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         </is>
       </c>
       <c r="B914" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C914" t="inlineStr">
         <is>
@@ -25976,7 +25976,7 @@
         </is>
       </c>
       <c r="B915" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C915" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         </is>
       </c>
       <c r="B916" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C916" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         </is>
       </c>
       <c r="B917" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C917" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         </is>
       </c>
       <c r="B918" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C918" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         </is>
       </c>
       <c r="B919" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C919" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         </is>
       </c>
       <c r="B920" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C920" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         </is>
       </c>
       <c r="B921" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C921" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         </is>
       </c>
       <c r="B922" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C922" t="inlineStr">
         <is>
@@ -26184,7 +26184,7 @@
         </is>
       </c>
       <c r="B923" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C923" t="inlineStr">
         <is>
@@ -26210,7 +26210,7 @@
         </is>
       </c>
       <c r="B924" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C924" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         </is>
       </c>
       <c r="B925" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C925" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         </is>
       </c>
       <c r="B926" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C926" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         </is>
       </c>
       <c r="B927" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C927" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         </is>
       </c>
       <c r="B928" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C928" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         </is>
       </c>
       <c r="B929" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C929" t="inlineStr">
         <is>
@@ -26366,7 +26366,7 @@
         </is>
       </c>
       <c r="B930" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C930" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         </is>
       </c>
       <c r="B931" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C931" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         </is>
       </c>
       <c r="B932" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C932" t="inlineStr">
         <is>
@@ -26444,7 +26444,7 @@
         </is>
       </c>
       <c r="B933" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C933" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         </is>
       </c>
       <c r="B934" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C934" t="inlineStr">
         <is>
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="B935" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C935" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         </is>
       </c>
       <c r="B936" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C936" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         </is>
       </c>
       <c r="B937" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C937" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         </is>
       </c>
       <c r="B938" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C938" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         </is>
       </c>
       <c r="B939" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C939" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="B940" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C940" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         </is>
       </c>
       <c r="B941" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C941" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         </is>
       </c>
       <c r="B942" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C942" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         </is>
       </c>
       <c r="B943" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C943" t="inlineStr">
         <is>
@@ -26730,7 +26730,7 @@
         </is>
       </c>
       <c r="B944" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C944" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         </is>
       </c>
       <c r="B945" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C945" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         </is>
       </c>
       <c r="B946" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C946" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         </is>
       </c>
       <c r="B947" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C947" t="inlineStr">
         <is>
@@ -26834,7 +26834,7 @@
         </is>
       </c>
       <c r="B948" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C948" t="inlineStr">
         <is>
@@ -26860,7 +26860,7 @@
         </is>
       </c>
       <c r="B949" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C949" t="inlineStr">
         <is>
@@ -26886,7 +26886,7 @@
         </is>
       </c>
       <c r="B950" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C950" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         </is>
       </c>
       <c r="B951" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C951" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         </is>
       </c>
       <c r="B952" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C952" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         </is>
       </c>
       <c r="B953" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C953" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         </is>
       </c>
       <c r="B954" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C954" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         </is>
       </c>
       <c r="B955" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C955" t="inlineStr">
         <is>
@@ -27042,7 +27042,7 @@
         </is>
       </c>
       <c r="B956" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C956" t="inlineStr">
         <is>
@@ -27068,7 +27068,7 @@
         </is>
       </c>
       <c r="B957" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C957" t="inlineStr">
         <is>
@@ -27094,7 +27094,7 @@
         </is>
       </c>
       <c r="B958" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C958" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         </is>
       </c>
       <c r="B959" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C959" t="inlineStr">
         <is>
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="B960" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C960" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         </is>
       </c>
       <c r="B961" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C961" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         </is>
       </c>
       <c r="B962" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C962" t="inlineStr">
         <is>
@@ -27224,7 +27224,7 @@
         </is>
       </c>
       <c r="B963" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C963" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         </is>
       </c>
       <c r="B964" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C964" t="inlineStr">
         <is>
@@ -27276,7 +27276,7 @@
         </is>
       </c>
       <c r="B965" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C965" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         </is>
       </c>
       <c r="B966" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C966" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         </is>
       </c>
       <c r="B967" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C967" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         </is>
       </c>
       <c r="B968" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C968" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         </is>
       </c>
       <c r="B969" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C969" t="inlineStr">
         <is>
@@ -27406,7 +27406,7 @@
         </is>
       </c>
       <c r="B970" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C970" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         </is>
       </c>
       <c r="B971" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C971" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         </is>
       </c>
       <c r="B972" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C972" t="inlineStr">
         <is>
@@ -27484,7 +27484,7 @@
         </is>
       </c>
       <c r="B973" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C973" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         </is>
       </c>
       <c r="B974" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C974" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B975" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C975" t="inlineStr">
         <is>
@@ -27562,7 +27562,7 @@
         </is>
       </c>
       <c r="B976" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C976" t="inlineStr">
         <is>
@@ -27588,7 +27588,7 @@
         </is>
       </c>
       <c r="B977" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C977" t="inlineStr">
         <is>
@@ -27614,7 +27614,7 @@
         </is>
       </c>
       <c r="B978" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C978" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         </is>
       </c>
       <c r="B979" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C979" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="B980" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C980" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B981" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C981" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         </is>
       </c>
       <c r="B982" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C982" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         </is>
       </c>
       <c r="B983" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C983" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         </is>
       </c>
       <c r="B984" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C984" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         </is>
       </c>
       <c r="B985" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C985" t="inlineStr">
         <is>
@@ -27822,7 +27822,7 @@
         </is>
       </c>
       <c r="B986" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C986" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         </is>
       </c>
       <c r="B987" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C987" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         </is>
       </c>
       <c r="B988" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C988" t="inlineStr">
         <is>
@@ -27900,7 +27900,7 @@
         </is>
       </c>
       <c r="B989" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C989" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         </is>
       </c>
       <c r="B990" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C990" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         </is>
       </c>
       <c r="B991" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C991" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         </is>
       </c>
       <c r="B992" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C992" t="inlineStr">
         <is>
@@ -28004,7 +28004,7 @@
         </is>
       </c>
       <c r="B993" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C993" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         </is>
       </c>
       <c r="B994" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C994" t="inlineStr">
         <is>
@@ -28056,7 +28056,7 @@
         </is>
       </c>
       <c r="B995" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C995" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         </is>
       </c>
       <c r="B996" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C996" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         </is>
       </c>
       <c r="B997" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C997" t="inlineStr">
         <is>
@@ -28134,7 +28134,7 @@
         </is>
       </c>
       <c r="B998" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C998" t="inlineStr">
         <is>
@@ -28160,7 +28160,7 @@
         </is>
       </c>
       <c r="B999" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C999" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         </is>
       </c>
       <c r="B1000" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1000" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         </is>
       </c>
       <c r="B1001" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1001" t="inlineStr">
         <is>
@@ -28238,7 +28238,7 @@
         </is>
       </c>
       <c r="B1002" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1002" t="inlineStr">
         <is>
@@ -28264,7 +28264,7 @@
         </is>
       </c>
       <c r="B1003" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1003" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         </is>
       </c>
       <c r="B1004" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1004" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         </is>
       </c>
       <c r="B1005" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1005" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         </is>
       </c>
       <c r="B1006" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1006" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         </is>
       </c>
       <c r="B1007" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1007" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         </is>
       </c>
       <c r="B1008" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1008" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         </is>
       </c>
       <c r="B1009" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1009" t="inlineStr">
         <is>
@@ -28446,7 +28446,7 @@
         </is>
       </c>
       <c r="B1010" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1010" t="inlineStr">
         <is>
@@ -28472,7 +28472,7 @@
         </is>
       </c>
       <c r="B1011" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1011" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         </is>
       </c>
       <c r="B1012" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1012" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         </is>
       </c>
       <c r="B1013" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1013" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         </is>
       </c>
       <c r="B1014" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1014" t="inlineStr">
         <is>
@@ -28576,7 +28576,7 @@
         </is>
       </c>
       <c r="B1015" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1015" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         </is>
       </c>
       <c r="B1016" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1016" t="inlineStr">
         <is>
@@ -28628,7 +28628,7 @@
         </is>
       </c>
       <c r="B1017" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1017" t="inlineStr">
         <is>
@@ -28654,7 +28654,7 @@
         </is>
       </c>
       <c r="B1018" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1018" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         </is>
       </c>
       <c r="B1019" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1019" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="B1020" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1020" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         </is>
       </c>
       <c r="B1021" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1021" t="inlineStr">
         <is>
@@ -28758,7 +28758,7 @@
         </is>
       </c>
       <c r="B1022" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1022" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         </is>
       </c>
       <c r="B1023" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1023" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         </is>
       </c>
       <c r="B1024" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1024" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         </is>
       </c>
       <c r="B1025" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1025" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         </is>
       </c>
       <c r="B1026" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1026" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         </is>
       </c>
       <c r="B1027" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1027" t="inlineStr">
         <is>
@@ -28914,7 +28914,7 @@
         </is>
       </c>
       <c r="B1028" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1028" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         </is>
       </c>
       <c r="B1029" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1029" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         </is>
       </c>
       <c r="B1030" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1030" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         </is>
       </c>
       <c r="B1031" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1031" t="inlineStr">
         <is>
@@ -29018,7 +29018,7 @@
         </is>
       </c>
       <c r="B1032" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1032" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         </is>
       </c>
       <c r="B1033" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1033" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         </is>
       </c>
       <c r="B1034" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1034" t="inlineStr">
         <is>
@@ -29096,7 +29096,7 @@
         </is>
       </c>
       <c r="B1035" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1035" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         </is>
       </c>
       <c r="B1036" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1036" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         </is>
       </c>
       <c r="B1037" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1037" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         </is>
       </c>
       <c r="B1038" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1038" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         </is>
       </c>
       <c r="B1039" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1039" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         </is>
       </c>
       <c r="B1040" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1040" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         </is>
       </c>
       <c r="B1041" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1041" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         </is>
       </c>
       <c r="B1042" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1042" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         </is>
       </c>
       <c r="B1043" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1043" t="inlineStr">
         <is>
@@ -29330,7 +29330,7 @@
         </is>
       </c>
       <c r="B1044" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1044" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         </is>
       </c>
       <c r="B1045" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1045" t="inlineStr">
         <is>
@@ -29382,7 +29382,7 @@
         </is>
       </c>
       <c r="B1046" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1046" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         </is>
       </c>
       <c r="B1047" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1047" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         </is>
       </c>
       <c r="B1048" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1048" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         </is>
       </c>
       <c r="B1049" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1049" t="inlineStr">
         <is>
@@ -29486,7 +29486,7 @@
         </is>
       </c>
       <c r="B1050" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1050" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         </is>
       </c>
       <c r="B1051" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1051" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         </is>
       </c>
       <c r="B1052" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1052" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         </is>
       </c>
       <c r="B1053" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1053" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         </is>
       </c>
       <c r="B1054" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1054" t="inlineStr">
         <is>
@@ -29616,7 +29616,7 @@
         </is>
       </c>
       <c r="B1055" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1055" t="inlineStr">
         <is>
@@ -29642,7 +29642,7 @@
         </is>
       </c>
       <c r="B1056" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1056" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         </is>
       </c>
       <c r="B1057" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1057" t="inlineStr">
         <is>
@@ -29694,7 +29694,7 @@
         </is>
       </c>
       <c r="B1058" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1058" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         </is>
       </c>
       <c r="B1059" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1059" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B1060" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1060" t="inlineStr">
         <is>
@@ -29772,7 +29772,7 @@
         </is>
       </c>
       <c r="B1061" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1061" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         </is>
       </c>
       <c r="B1062" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1062" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         </is>
       </c>
       <c r="B1063" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1063" t="inlineStr">
         <is>
@@ -29850,7 +29850,7 @@
         </is>
       </c>
       <c r="B1064" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1064" t="inlineStr">
         <is>
@@ -29876,7 +29876,7 @@
         </is>
       </c>
       <c r="B1065" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1065" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         </is>
       </c>
       <c r="B1066" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1066" t="inlineStr">
         <is>
@@ -29928,7 +29928,7 @@
         </is>
       </c>
       <c r="B1067" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1067" t="inlineStr">
         <is>
@@ -29954,7 +29954,7 @@
         </is>
       </c>
       <c r="B1068" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1068" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         </is>
       </c>
       <c r="B1069" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1069" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         </is>
       </c>
       <c r="B1070" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1070" t="inlineStr">
         <is>
@@ -30032,7 +30032,7 @@
         </is>
       </c>
       <c r="B1071" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1071" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         </is>
       </c>
       <c r="B1072" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1072" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         </is>
       </c>
       <c r="B1073" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1073" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         </is>
       </c>
       <c r="B1074" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1074" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         </is>
       </c>
       <c r="B1075" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1075" t="inlineStr">
         <is>
@@ -30162,7 +30162,7 @@
         </is>
       </c>
       <c r="B1076" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1076" t="inlineStr">
         <is>
@@ -30188,7 +30188,7 @@
         </is>
       </c>
       <c r="B1077" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1077" t="inlineStr">
         <is>
@@ -30214,7 +30214,7 @@
         </is>
       </c>
       <c r="B1078" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1078" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         </is>
       </c>
       <c r="B1079" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1079" t="inlineStr">
         <is>
@@ -30266,7 +30266,7 @@
         </is>
       </c>
       <c r="B1080" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1080" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         </is>
       </c>
       <c r="B1081" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1081" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         </is>
       </c>
       <c r="B1082" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1082" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         </is>
       </c>
       <c r="B1083" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1083" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         </is>
       </c>
       <c r="B1084" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1084" t="inlineStr">
         <is>
@@ -30396,7 +30396,7 @@
         </is>
       </c>
       <c r="B1085" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1085" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         </is>
       </c>
       <c r="B1086" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1086" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         </is>
       </c>
       <c r="B1087" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1087" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         </is>
       </c>
       <c r="B1088" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1088" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         </is>
       </c>
       <c r="B1089" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1089" t="inlineStr">
         <is>
@@ -30526,7 +30526,7 @@
         </is>
       </c>
       <c r="B1090" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1090" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         </is>
       </c>
       <c r="B1091" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1091" t="inlineStr">
         <is>
@@ -30578,7 +30578,7 @@
         </is>
       </c>
       <c r="B1092" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1092" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         </is>
       </c>
       <c r="B1093" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1093" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         </is>
       </c>
       <c r="B1094" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1094" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         </is>
       </c>
       <c r="B1095" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1095" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         </is>
       </c>
       <c r="B1096" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1096" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         </is>
       </c>
       <c r="B1097" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1097" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         </is>
       </c>
       <c r="B1098" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1098" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         </is>
       </c>
       <c r="B1099" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1099" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="B1100" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1100" t="inlineStr">
         <is>
@@ -30812,7 +30812,7 @@
         </is>
       </c>
       <c r="B1101" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1101" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         </is>
       </c>
       <c r="B1102" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1102" t="inlineStr">
         <is>
@@ -30864,7 +30864,7 @@
         </is>
       </c>
       <c r="B1103" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1103" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         </is>
       </c>
       <c r="B1104" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1104" t="inlineStr">
         <is>
@@ -30916,7 +30916,7 @@
         </is>
       </c>
       <c r="B1105" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1105" t="inlineStr">
         <is>
@@ -30942,7 +30942,7 @@
         </is>
       </c>
       <c r="B1106" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1106" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         </is>
       </c>
       <c r="B1107" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1107" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         </is>
       </c>
       <c r="B1108" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1108" t="inlineStr">
         <is>
@@ -31020,7 +31020,7 @@
         </is>
       </c>
       <c r="B1109" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1109" t="inlineStr">
         <is>
@@ -31046,7 +31046,7 @@
         </is>
       </c>
       <c r="B1110" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1110" t="inlineStr">
         <is>
@@ -31072,7 +31072,7 @@
         </is>
       </c>
       <c r="B1111" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1111" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         </is>
       </c>
       <c r="B1112" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1112" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         </is>
       </c>
       <c r="B1113" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1113" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         </is>
       </c>
       <c r="B1114" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1114" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         </is>
       </c>
       <c r="B1115" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1115" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         </is>
       </c>
       <c r="B1116" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1116" t="inlineStr">
         <is>
@@ -31228,7 +31228,7 @@
         </is>
       </c>
       <c r="B1117" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1117" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         </is>
       </c>
       <c r="B1118" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1118" t="inlineStr">
         <is>
@@ -31280,7 +31280,7 @@
         </is>
       </c>
       <c r="B1119" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1119" t="inlineStr">
         <is>
@@ -31306,7 +31306,7 @@
         </is>
       </c>
       <c r="B1120" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1120" t="inlineStr">
         <is>
@@ -31332,7 +31332,7 @@
         </is>
       </c>
       <c r="B1121" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1121" t="inlineStr">
         <is>
@@ -31358,7 +31358,7 @@
         </is>
       </c>
       <c r="B1122" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1122" t="inlineStr">
         <is>
@@ -31384,7 +31384,7 @@
         </is>
       </c>
       <c r="B1123" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1123" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         </is>
       </c>
       <c r="B1124" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1124" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         </is>
       </c>
       <c r="B1125" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1125" t="inlineStr">
         <is>
@@ -31462,7 +31462,7 @@
         </is>
       </c>
       <c r="B1126" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1126" t="inlineStr">
         <is>
@@ -31488,7 +31488,7 @@
         </is>
       </c>
       <c r="B1127" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1127" t="inlineStr">
         <is>
@@ -31514,7 +31514,7 @@
         </is>
       </c>
       <c r="B1128" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
@@ -31540,7 +31540,7 @@
         </is>
       </c>
       <c r="B1129" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
@@ -31566,7 +31566,7 @@
         </is>
       </c>
       <c r="B1130" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
@@ -31592,7 +31592,7 @@
         </is>
       </c>
       <c r="B1131" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         </is>
       </c>
       <c r="B1132" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         </is>
       </c>
       <c r="B1133" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         </is>
       </c>
       <c r="B1134" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         </is>
       </c>
       <c r="B1135" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         </is>
       </c>
       <c r="B1136" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         </is>
       </c>
       <c r="B1137" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         </is>
       </c>
       <c r="B1138" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
@@ -31800,7 +31800,7 @@
         </is>
       </c>
       <c r="B1139" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="B1140" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
@@ -31852,7 +31852,7 @@
         </is>
       </c>
       <c r="B1141" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         </is>
       </c>
       <c r="B1142" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         </is>
       </c>
       <c r="B1143" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
@@ -31930,7 +31930,7 @@
         </is>
       </c>
       <c r="B1144" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
@@ -31956,7 +31956,7 @@
         </is>
       </c>
       <c r="B1145" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
@@ -31982,7 +31982,7 @@
         </is>
       </c>
       <c r="B1146" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         </is>
       </c>
       <c r="B1147" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         </is>
       </c>
       <c r="B1148" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         </is>
       </c>
       <c r="B1149" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
